--- a/megatrends.xlsx
+++ b/megatrends.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\megatrends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37912C81-6184-4C98-8C72-23D760716D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF98FEC-9428-4073-88BF-4444FBF04A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86520" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC6E5755-4190-4D69-BA31-43985C92D729}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC6E5755-4190-4D69-BA31-43985C92D729}"/>
   </bookViews>
   <sheets>
     <sheet name="Themes" sheetId="2" r:id="rId1"/>
@@ -330,9 +330,6 @@
     <t>USPY GY Equity</t>
   </si>
   <si>
-    <t>2B70 GY equity</t>
-  </si>
-  <si>
     <t>ETLH GY Equity</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
   </si>
   <si>
     <t>CHG_PCT_5D</t>
+  </si>
+  <si>
+    <t>2B79 GY equity</t>
   </si>
 </sst>
 </file>
@@ -509,139 +509,127 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4269812603</v>
         <stp/>
         <stp>BDP|15846738591531099025</stp>
         <tr r="H20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3697009265</v>
         <stp/>
         <stp>BDP|13724495308188809554</stp>
         <tr r="D29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3417023664</v>
         <stp/>
         <stp>BDP|13957917932485292699</stp>
         <tr r="G27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3392884787</v>
         <stp/>
         <stp>BDP|13286114453828392528</stp>
         <tr r="J7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2731367931</v>
         <stp/>
         <stp>BDP|15750803960131729004</stp>
         <tr r="E5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4258388317</v>
         <stp/>
         <stp>BDP|13222288948239031607</stp>
         <tr r="F13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3965906814</v>
         <stp/>
         <stp>BDP|13604027487649483826</stp>
         <tr r="G34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3906083057</v>
         <stp/>
         <stp>BDP|11365245589516536623</stp>
         <tr r="I39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4151404055</v>
         <stp/>
         <stp>BDP|11794883239871752090</stp>
         <tr r="J39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3807520117</v>
         <stp/>
         <stp>BDP|13254085681685784513</stp>
         <tr r="G30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2622050500</v>
         <stp/>
         <stp>BDP|11427706444108833174</stp>
         <tr r="G36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3782532164</v>
         <stp/>
         <stp>BDP|13359624940862828871</stp>
         <tr r="G25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3635969216</v>
         <stp/>
         <stp>BDP|10085804158323141595</stp>
         <tr r="F33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14290933811280309712</stp>
-        <tr r="D14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3572818201</v>
         <stp/>
         <stp>BDP|11378380675815021845</stp>
         <tr r="I18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2653560505</v>
         <stp/>
         <stp>BDP|16894218481320451469</stp>
         <tr r="H16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3782821574</v>
         <stp/>
         <stp>BDP|11545978750337942264</stp>
         <tr r="I2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4063345667</v>
         <stp/>
         <stp>BDP|17501349875673823800</stp>
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3474124088</v>
         <stp/>
         <stp>BDP|16554971571640288001</stp>
         <tr r="D34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2795635270</v>
         <stp/>
         <stp>BDP|13438412086682324512</stp>
         <tr r="G39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|10232108237763460915</stp>
-        <tr r="I14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4184391922</v>
         <stp/>
         <stp>BDP|10219633224185239923</stp>
         <tr r="J2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3293375816</v>
         <stp/>
         <stp>BDP|17123623106699860106</stp>
         <tr r="I35" s="2"/>
@@ -649,89 +637,95 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
+        <stp>BDP|18212865830352986824</stp>
+        <tr r="H14" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2503382205</v>
+        <stp/>
         <stp>BDP|16948702666927902988</stp>
         <tr r="G32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4084573949</v>
         <stp/>
         <stp>BDP|15326480282658500889</stp>
         <tr r="G35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2443162170</v>
         <stp/>
         <stp>BDP|12476998175800923552</stp>
         <tr r="G12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4038287815</v>
         <stp/>
         <stp>BDP|13264306770587637938</stp>
         <tr r="F8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4214964875</v>
         <stp/>
         <stp>BDP|18201107262367705105</stp>
         <tr r="I13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2747531911</v>
         <stp/>
         <stp>BDP|16460204866288758323</stp>
         <tr r="E36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2779874951</v>
         <stp/>
         <stp>BDP|10696490135669588048</stp>
         <tr r="D2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2404084500</v>
         <stp/>
         <stp>BDP|11857986118173476405</stp>
         <tr r="D6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3831585491</v>
         <stp/>
         <stp>BDP|11675960752754124704</stp>
         <tr r="F28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3909435476</v>
         <stp/>
         <stp>BDP|16399801546706575229</stp>
         <tr r="E39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3688970879</v>
         <stp/>
         <stp>BDP|16669428213185627854</stp>
         <tr r="F21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3786756376</v>
         <stp/>
         <stp>BDP|16086251193572642091</stp>
         <tr r="I12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3150589175</v>
         <stp/>
         <stp>BDP|17600972052692525694</stp>
         <tr r="E37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3676113657</v>
         <stp/>
         <stp>BDP|14965235187760316107</stp>
         <tr r="E40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4144777858</v>
         <stp/>
         <stp>BDP|12152621898851960332</stp>
         <tr r="G29" s="2"/>
@@ -739,233 +733,233 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
+        <stp>BDP|13240072722626309849</stp>
+        <tr r="G14" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3931103974</v>
+        <stp/>
         <stp>BDP|17343158082526520734</stp>
         <tr r="H24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3404885433</v>
         <stp/>
         <stp>BDP|10286148726479429515</stp>
         <tr r="F32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2924152197</v>
         <stp/>
         <stp>BDP|17057269233991342820</stp>
         <tr r="J9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2983347959</v>
         <stp/>
         <stp>BDP|15657871464785675148</stp>
         <tr r="F31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2847392525</v>
         <stp/>
         <stp>BDP|15914228082869819963</stp>
         <tr r="E35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2536539224</v>
         <stp/>
         <stp>BDP|16087657399014240165</stp>
         <tr r="H26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2484297217</v>
         <stp/>
         <stp>BDP|10185699863609124506</stp>
         <tr r="I20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2998933616</v>
         <stp/>
         <stp>BDP|14368195591748820891</stp>
         <tr r="I19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2859763297</v>
         <stp/>
         <stp>BDP|17306826736853072349</stp>
         <tr r="D7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2442336971</v>
         <stp/>
         <stp>BDP|15196896594361079984</stp>
         <tr r="J17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3945400164</v>
         <stp/>
         <stp>BDP|13814661179808047601</stp>
         <tr r="F24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3715556849</v>
         <stp/>
         <stp>BDP|11007430928803701978</stp>
         <tr r="H25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3316145852</v>
         <stp/>
         <stp>BDP|15601961462356535183</stp>
         <tr r="F15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3535231764</v>
         <stp/>
         <stp>BDP|18202762449704162231</stp>
         <tr r="H9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3431677134</v>
         <stp/>
         <stp>BDP|17983580872308353016</stp>
         <tr r="H10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2420671674</v>
         <stp/>
         <stp>BDP|10333985114621868468</stp>
         <tr r="D5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3482875847</v>
         <stp/>
         <stp>BDP|15895505836356281888</stp>
         <tr r="G2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2931423757</v>
         <stp/>
         <stp>BDP|16807042948790960069</stp>
         <tr r="J31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4118011120</v>
         <stp/>
         <stp>BDP|16148642647385628390</stp>
         <tr r="J18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3041851680</v>
         <stp/>
         <stp>BDP|11525878302248829371</stp>
         <tr r="H34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2746973982</v>
         <stp/>
         <stp>BDP|13600680289478741702</stp>
         <tr r="J19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3486709544</v>
         <stp/>
         <stp>BDP|10168046458075884275</stp>
         <tr r="I24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3930064284</v>
         <stp/>
         <stp>BDP|12414291348027057123</stp>
         <tr r="G19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3275948850</v>
         <stp/>
         <stp>BDP|10533758059147427650</stp>
         <tr r="H6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3683504671</v>
         <stp/>
         <stp>BDP|13391457112911941452</stp>
         <tr r="F37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3480886555</v>
         <stp/>
         <stp>BDP|17131588762370323753</stp>
         <tr r="F7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4133340095</v>
         <stp/>
         <stp>BDP|15925200263062560014</stp>
         <tr r="D32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|13068413158370011199</stp>
-        <tr r="F14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3434855520</v>
         <stp/>
         <stp>BDP|16033047627795788275</stp>
         <tr r="E22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3235780996</v>
         <stp/>
         <stp>BDP|16786560416766485704</stp>
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3208283974</v>
         <stp/>
         <stp>BDP|16062888788183168662</stp>
         <tr r="D31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2987986037</v>
         <stp/>
         <stp>BDP|13551063545296805297</stp>
         <tr r="H21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2423795488</v>
         <stp/>
         <stp>BDP|16737173078421189105</stp>
         <tr r="J15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3024656842</v>
         <stp/>
         <stp>BDP|14762635370641503480</stp>
         <tr r="D9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3821646817</v>
         <stp/>
         <stp>BDP|14133255916194837329</stp>
         <tr r="I27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3968392727</v>
         <stp/>
         <stp>BDP|13656537959915001676</stp>
         <tr r="D22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4223489863</v>
         <stp/>
         <stp>BDP|10165802098883461216</stp>
         <tr r="F12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2854380235</v>
         <stp/>
         <stp>BDP|13056517404174217281</stp>
         <tr r="G13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2822428253</v>
         <stp/>
         <stp>BDP|13430504808454503299</stp>
         <tr r="J6" s="2"/>
@@ -973,281 +967,281 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
+        <stp>BDP|10003894789129243912</stp>
+        <tr r="E14" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3329510054</v>
+        <stp/>
         <stp>BDP|16324617634546577487</stp>
         <tr r="D12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4227223351</v>
         <stp/>
         <stp>BDP|13078692413307352235</stp>
         <tr r="J25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3190856244</v>
         <stp/>
         <stp>BDP|11345618822983900733</stp>
         <tr r="F6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2628561183</v>
         <stp/>
         <stp>BDP|17005184358307286520</stp>
         <tr r="F29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2997547293</v>
         <stp/>
         <stp>BDP|13137496149581130334</stp>
         <tr r="E26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3318537309</v>
         <stp/>
         <stp>BDP|10724110998869384080</stp>
         <tr r="I31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2379864109</v>
         <stp/>
         <stp>BDP|13095956520070822993</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2356901669</v>
         <stp/>
         <stp>BDP|18111210020269435005</stp>
         <tr r="F2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2777727480</v>
         <stp/>
         <stp>BDP|11966868690816835709</stp>
         <tr r="E2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3779533393</v>
         <stp/>
         <stp>BDP|14234239965246219709</stp>
         <tr r="E25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4239047948</v>
         <stp/>
         <stp>BDP|17666650128712422094</stp>
         <tr r="F39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3789591391</v>
         <stp/>
         <stp>BDP|17222801784731628098</stp>
         <tr r="F11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3296136531</v>
         <stp/>
         <stp>BDP|16831540753484501445</stp>
         <tr r="G4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2554976905</v>
         <stp/>
         <stp>BDP|14746354412071154135</stp>
         <tr r="I26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3023986200</v>
         <stp/>
         <stp>BDP|16920197560306043151</stp>
         <tr r="F20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4242972182</v>
         <stp/>
         <stp>BDP|18357935525425834093</stp>
         <tr r="E23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4291669842</v>
         <stp/>
         <stp>BDP|15145034938771755058</stp>
         <tr r="D16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2960786839</v>
         <stp/>
         <stp>BDP|12881198314797893209</stp>
         <tr r="I8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3960157091</v>
         <stp/>
         <stp>BDP|14480032740422365580</stp>
         <tr r="J33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3859502842</v>
         <stp/>
         <stp>BDP|16642682969724949522</stp>
         <tr r="E31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2963283942</v>
         <stp/>
         <stp>BDP|16717124719827248601</stp>
         <tr r="I28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3962399515</v>
         <stp/>
         <stp>BDP|10220805233938732471</stp>
         <tr r="F10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4231509214</v>
         <stp/>
         <stp>BDP|16560809975647531961</stp>
         <tr r="H30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3384694087</v>
         <stp/>
         <stp>BDP|10358355578190820358</stp>
         <tr r="D8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4128071818</v>
         <stp/>
         <stp>BDP|14757582569115504565</stp>
         <tr r="D21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2943480201</v>
         <stp/>
         <stp>BDP|16401739063776285628</stp>
         <tr r="G17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3047582570</v>
         <stp/>
         <stp>BDP|12884875764398959355</stp>
         <tr r="G26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2364378148</v>
         <stp/>
         <stp>BDP|17020884307051083993</stp>
         <tr r="F17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4020211338</v>
         <stp/>
         <stp>BDP|12950708020866091505</stp>
         <tr r="G3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3114492450</v>
         <stp/>
         <stp>BDP|17972898070659838528</stp>
         <tr r="F5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4023600942</v>
         <stp/>
         <stp>BDP|10273073448451041171</stp>
         <tr r="J40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2609479517</v>
         <stp/>
         <stp>BDP|12542464985933816911</stp>
         <tr r="E16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2676762182</v>
         <stp/>
         <stp>BDP|12376158789907716879</stp>
         <tr r="I34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3543664601</v>
         <stp/>
         <stp>BDP|12512055738233224645</stp>
         <tr r="H19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2581475440</v>
         <stp/>
         <stp>BDP|16086337769223844413</stp>
         <tr r="J36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3789647638</v>
         <stp/>
         <stp>BDP|15812641436770962407</stp>
         <tr r="E8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4190670935</v>
         <stp/>
         <stp>BDP|12676164681728373705</stp>
         <tr r="J34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3143552021</v>
         <stp/>
         <stp>BDP|17508287313678428886</stp>
         <tr r="H29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14403050905384988495</stp>
-        <tr r="G14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2425293750</v>
         <stp/>
         <stp>BDP|15475268310210523203</stp>
         <tr r="J10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3747599708</v>
         <stp/>
         <stp>BDP|16249415058597238506</stp>
         <tr r="G6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4009869621</v>
         <stp/>
         <stp>BDP|11805032017367497252</stp>
         <tr r="J12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4142215818</v>
         <stp/>
         <stp>BDP|16191576036892589781</stp>
         <tr r="J5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2383112318</v>
         <stp/>
         <stp>BDP|17155835375705157888</stp>
         <tr r="J20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2770670497</v>
         <stp/>
         <stp>BDP|17452163823237710634</stp>
         <tr r="J8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3392085429</v>
         <stp/>
         <stp>BDP|18145031492910129470</stp>
         <tr r="E17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3005486377</v>
         <stp/>
         <stp>BDP|11007870551379462049</stp>
         <tr r="D30" s="2"/>
@@ -1255,73 +1249,73 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4157271558</v>
         <stp/>
         <stp>BDP|5899963692130029979</stp>
         <tr r="G33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3978486045</v>
         <stp/>
         <stp>BDP|8442050103152914678</stp>
         <tr r="G9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3035002037</v>
         <stp/>
         <stp>BDP|5534819392900879822</stp>
         <tr r="F18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2522176230</v>
         <stp/>
         <stp>BDP|3980126830294497925</stp>
         <tr r="E15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3343801180</v>
         <stp/>
         <stp>BDP|3846558302852365815</stp>
         <tr r="J37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3333964025</v>
         <stp/>
         <stp>BDP|1150334780213496543</stp>
         <tr r="H18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2668177904</v>
         <stp/>
         <stp>BDP|9251382176928300813</stp>
         <tr r="D36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3333789195</v>
         <stp/>
         <stp>BDP|9113264309795435353</stp>
         <tr r="G20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2896416581</v>
         <stp/>
         <stp>BDP|1133930977272361091</stp>
         <tr r="D4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3616497357</v>
         <stp/>
         <stp>BDP|4801252564088129592</stp>
         <tr r="G11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2602088463</v>
         <stp/>
         <stp>BDP|8366634138075782582</stp>
         <tr r="D11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2676418260</v>
         <stp/>
         <stp>BDP|1035078154500239956</stp>
         <tr r="D40" s="2"/>
@@ -1329,167 +1323,173 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
+        <stp>BDP|3972542690298388955</stp>
+        <tr r="D14" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3338821119</v>
+        <stp/>
         <stp>BDP|9093618692120211839</stp>
         <tr r="I33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3191590171</v>
         <stp/>
         <stp>BDP|8636162822711044419</stp>
         <tr r="D19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3667276118</v>
         <stp/>
         <stp>BDP|9967888380780680773</stp>
         <tr r="G40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3031896689</v>
         <stp/>
         <stp>BDP|9017823610266699859</stp>
         <tr r="D13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3897078423</v>
         <stp/>
         <stp>BDP|9087384769370180268</stp>
         <tr r="H7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3128530206</v>
         <stp/>
         <stp>BDP|9062705335924501771</stp>
         <tr r="G8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3236543795</v>
         <stp/>
         <stp>BDP|7538963143317594329</stp>
         <tr r="H12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3575144022</v>
         <stp/>
         <stp>BDP|6491659216467199825</stp>
         <tr r="H13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3340242730</v>
         <stp/>
         <stp>BDP|6395158145898372540</stp>
         <tr r="E4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3843678632</v>
         <stp/>
         <stp>BDP|2795339708417511917</stp>
         <tr r="E10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3811380757</v>
         <stp/>
         <stp>BDP|6831006684939450817</stp>
         <tr r="H28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3493090371</v>
         <stp/>
         <stp>BDP|4843893377524660057</stp>
         <tr r="H8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2761024342</v>
         <stp/>
         <stp>BDP|9709414010132948664</stp>
         <tr r="I36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3522955118</v>
         <stp/>
         <stp>BDP|8903313874813256702</stp>
         <tr r="G22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2793079405</v>
         <stp/>
         <stp>BDP|8716718187516775944</stp>
         <tr r="I7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2758453385</v>
         <stp/>
         <stp>BDP|1229142784860844096</stp>
         <tr r="G10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3419453544</v>
         <stp/>
         <stp>BDP|9368482138260178629</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2799337230</v>
         <stp/>
         <stp>BDP|5394510445864909896</stp>
         <tr r="D17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4060649996</v>
         <stp/>
         <stp>BDP|4105087797586673228</stp>
         <tr r="E32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3397219834</v>
         <stp/>
         <stp>BDP|6953570282776612443</stp>
         <tr r="F34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2666573149</v>
         <stp/>
         <stp>BDP|9833780479477170760</stp>
         <tr r="I16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4197382642</v>
         <stp/>
         <stp>BDP|1876604997501045611</stp>
         <tr r="H3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3929902679</v>
         <stp/>
         <stp>BDP|6062750902370206899</stp>
         <tr r="F38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3541937268</v>
         <stp/>
         <stp>BDP|9903280076974278166</stp>
         <tr r="H5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3461109314</v>
         <stp/>
         <stp>BDP|8840874378148508654</stp>
         <tr r="F16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3033087032</v>
         <stp/>
         <stp>BDP|8032846351955867989</stp>
         <tr r="J16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3326777651</v>
         <stp/>
         <stp>BDP|9258502267732375135</stp>
         <tr r="F25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2753439472</v>
         <stp/>
         <stp>BDP|3203286743086777946</stp>
         <tr r="E34" s="2"/>
@@ -1497,365 +1497,365 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
+        <stp>BDP|2355798547803564849</stp>
+        <tr r="I14" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3898465968</v>
+        <stp/>
         <stp>BDP|1100553105106899855</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2912400456</v>
         <stp/>
         <stp>BDP|4254459243278187662</stp>
         <tr r="H22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2672221364</v>
         <stp/>
         <stp>BDP|5647026683564533335</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3777815983</v>
         <stp/>
         <stp>BDP|7659540921093730950</stp>
         <tr r="I37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2900100854</v>
         <stp/>
         <stp>BDP|2730770682281407615</stp>
         <tr r="F40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3514256006</v>
         <stp/>
         <stp>BDP|7144984324134818218</stp>
         <tr r="D27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3914838467</v>
         <stp/>
         <stp>BDP|1524532887684361262</stp>
         <tr r="G16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2713187142</v>
         <stp/>
         <stp>BDP|4907323959211000809</stp>
         <tr r="I10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3000872171</v>
         <stp/>
         <stp>BDP|7741530455129073522</stp>
         <tr r="D24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3300781814</v>
         <stp/>
         <stp>BDP|2214151685538402857</stp>
         <tr r="G37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3493405301724246877</stp>
-        <tr r="E14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2959123620</v>
         <stp/>
         <stp>BDP|6161076057888623075</stp>
         <tr r="H15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2913168344</v>
         <stp/>
         <stp>BDP|4165522957456227963</stp>
         <tr r="J38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2815302723</v>
         <stp/>
         <stp>BDP|9963874529541072976</stp>
         <tr r="F26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3922435615</v>
         <stp/>
         <stp>BDP|9638662261722139062</stp>
         <tr r="H4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3136516783</v>
         <stp/>
         <stp>BDP|7416012493186030306</stp>
         <tr r="E18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3617898973</v>
         <stp/>
         <stp>BDP|3205453182504171009</stp>
         <tr r="H17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3181074128</v>
         <stp/>
         <stp>BDP|3561070257234684978</stp>
         <tr r="D20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3488810617</v>
         <stp/>
         <stp>BDP|6611494133221089410</stp>
         <tr r="D15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3956726069</v>
         <stp/>
         <stp>BDP|3412222707162811741</stp>
         <tr r="D3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3944397654</v>
         <stp/>
         <stp>BDP|6758240515151118040</stp>
         <tr r="H11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4231136032</v>
         <stp/>
         <stp>BDP|1117548092580062973</stp>
         <tr r="D23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3296751967</v>
         <stp/>
         <stp>BDP|7448311748061900544</stp>
         <tr r="D18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3362910583</v>
         <stp/>
         <stp>BDP|6810252945971813543</stp>
         <tr r="E19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4186011616</v>
         <stp/>
         <stp>BDP|9957112296381581504</stp>
         <tr r="D25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4020461850</v>
         <stp/>
         <stp>BDP|4246649014087502192</stp>
         <tr r="J21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3555631920</v>
         <stp/>
         <stp>BDP|3901374640344320529</stp>
         <tr r="J3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3141483516</v>
         <stp/>
         <stp>BDP|5078916707761592816</stp>
         <tr r="E38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3844647291</v>
         <stp/>
         <stp>BDP|8049109585957220349</stp>
         <tr r="F30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2620300266</v>
         <stp/>
         <stp>BDP|2645651402385669443</stp>
         <tr r="G15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4028138369</v>
         <stp/>
         <stp>BDP|9278309673611951996</stp>
         <tr r="E28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2775719753</v>
         <stp/>
         <stp>BDP|3268739607168560946</stp>
         <tr r="J11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4187305997</v>
         <stp/>
         <stp>BDP|7229331562665406201</stp>
         <tr r="E13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3571738731</v>
         <stp/>
         <stp>BDP|1605631833387519671</stp>
         <tr r="E24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3054642600</v>
         <stp/>
         <stp>BDP|9887296274749449042</stp>
         <tr r="E30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3694235347</v>
         <stp/>
         <stp>BDP|6633125405451713331</stp>
         <tr r="F9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3878043013</v>
         <stp/>
         <stp>BDP|5388480182316658923</stp>
         <tr r="H33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2649635979</v>
         <stp/>
         <stp>BDP|1094186844260394226</stp>
         <tr r="J26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2732045107</v>
         <stp/>
         <stp>BDP|1741521664583072724</stp>
         <tr r="J24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3713175622</v>
         <stp/>
         <stp>BDP|3141332361879121948</stp>
         <tr r="I30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3499264869</v>
         <stp/>
         <stp>BDP|2757097450678568811</stp>
         <tr r="J29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3722530641</v>
         <stp/>
         <stp>BDP|3842574646657424250</stp>
         <tr r="D33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3430629059</v>
         <stp/>
         <stp>BDP|7816237061564431001</stp>
         <tr r="H23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3990709475</v>
         <stp/>
         <stp>BDP|3060273585559424792</stp>
         <tr r="D10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3564056918</v>
         <stp/>
         <stp>BDP|7060806162689955763</stp>
         <tr r="H40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2813741823</v>
         <stp/>
         <stp>BDP|1672487157546981133</stp>
         <tr r="H36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3729590774</v>
         <stp/>
         <stp>BDP|5516051814371307245</stp>
         <tr r="J23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3753694556</v>
         <stp/>
         <stp>BDP|8639864949886119597</stp>
         <tr r="J30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3439046650</v>
         <stp/>
         <stp>BDP|9954800149216615408</stp>
         <tr r="G5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3648244500</v>
         <stp/>
         <stp>BDP|6442244966480765577</stp>
         <tr r="F36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2992602602</v>
         <stp/>
         <stp>BDP|4939094663971152456</stp>
         <tr r="J32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3370763594</v>
         <stp/>
         <stp>BDP|3617790397889057426</stp>
         <tr r="H2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4099555766</v>
         <stp/>
         <stp>BDP|8700741321044046992</stp>
         <tr r="H32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3472529412</v>
         <stp/>
         <stp>BDP|3439527856423031089</stp>
         <tr r="J35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3448983893</v>
         <stp/>
         <stp>BDP|7620261959194458425</stp>
         <tr r="D26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2627268506</v>
         <stp/>
         <stp>BDP|3089540010182281594</stp>
         <tr r="G7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3423717048</v>
         <stp/>
         <stp>BDP|4831722547472345517</stp>
         <tr r="G31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3776281782</v>
         <stp/>
         <stp>BDP|2426147378070427404</stp>
         <tr r="F19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3259250672</v>
         <stp/>
         <stp>BDP|9673923293369700006</stp>
         <tr r="I9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3999781209</v>
         <stp/>
         <stp>BDP|5674351600362568460</stp>
         <tr r="I4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3435109743</v>
         <stp/>
         <stp>BDP|4389151391634762867</stp>
         <tr r="I32" s="2"/>
@@ -1863,269 +1863,263 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
+        <stp>BDP|1363007164777347026</stp>
+        <tr r="J14" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3637779234</v>
+        <stp/>
         <stp>BDP|6570891121399913523</stp>
         <tr r="E12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3397742567</v>
         <stp/>
         <stp>BDP|3180488169709752801</stp>
         <tr r="E33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4108978166</v>
         <stp/>
         <stp>BDP|6088694172623483559</stp>
         <tr r="F4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3871584421</v>
         <stp/>
         <stp>BDP|4762663301374699781</stp>
         <tr r="E9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2866574373</v>
         <stp/>
         <stp>BDP|4200522467422269467</stp>
         <tr r="G38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2715211813</v>
         <stp/>
         <stp>BDP|8820951675676317182</stp>
         <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|4738662732772200205</stp>
-        <tr r="J14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4190490373</v>
         <stp/>
         <stp>BDP|4491242868133807267</stp>
         <tr r="I22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3172243408</v>
         <stp/>
         <stp>BDP|1334502575085304735</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3456251464</v>
         <stp/>
         <stp>BDP|4152707605242805376</stp>
         <tr r="F22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3576014487</v>
         <stp/>
         <stp>BDP|6313300206097234083</stp>
         <tr r="I15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3339375982</v>
         <stp/>
         <stp>BDP|7202265739744780060</stp>
         <tr r="H38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3346156882</v>
         <stp/>
         <stp>BDP|5934543001395648774</stp>
         <tr r="E20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3923141761</v>
         <stp/>
         <stp>BDP|5897704495699391030</stp>
         <tr r="I5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2905267918</v>
         <stp/>
         <stp>BDP|1191269861077748005</stp>
         <tr r="H31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3652107614</v>
         <stp/>
         <stp>BDP|7898088615521571574</stp>
         <tr r="J22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3024894998</v>
         <stp/>
         <stp>BDP|7930082214057885259</stp>
         <tr r="I40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4120371125</v>
         <stp/>
         <stp>BDP|6585599774337876081</stp>
         <tr r="F23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3759429015</v>
         <stp/>
         <stp>BDP|6303327670891951016</stp>
         <tr r="G21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4210888943</v>
         <stp/>
         <stp>BDP|6373380307233113539</stp>
         <tr r="E7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|4343913479069560003</stp>
-        <tr r="H14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4253483723</v>
         <stp/>
         <stp>BDP|4244742944204581055</stp>
         <tr r="F27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3352286807</v>
         <stp/>
         <stp>BDP|3386196408039056825</stp>
         <tr r="E6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3535443093</v>
         <stp/>
         <stp>BDP|7397031602083518761</stp>
         <tr r="I23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3445451051</v>
         <stp/>
         <stp>BDP|5181252534336429124</stp>
         <tr r="I6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2610852718</v>
         <stp/>
         <stp>BDP|1298503726586622350</stp>
         <tr r="G23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3408037660</v>
         <stp/>
         <stp>BDP|8597678179608851266</stp>
         <tr r="I25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2746271249</v>
         <stp/>
         <stp>BDP|248078865701908213</stp>
         <tr r="J27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3395819967</v>
         <stp/>
         <stp>BDP|694727994728670286</stp>
         <tr r="J28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2682369829</v>
         <stp/>
         <stp>BDP|231950328448225497</stp>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3002416625</v>
         <stp/>
         <stp>BDP|216490765296499547</stp>
         <tr r="I17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3434469379</v>
         <stp/>
         <stp>BDP|417742120137024217</stp>
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3138533080</v>
         <stp/>
         <stp>BDP|703867115952262892</stp>
         <tr r="E29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3465284589</v>
         <stp/>
         <stp>BDP|219670546364012564</stp>
         <tr r="G24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2732293954</v>
         <stp/>
         <stp>BDP|905756424497015022</stp>
         <tr r="J4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3594702055</v>
         <stp/>
         <stp>BDP|221381961852502555</stp>
         <tr r="E21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3705391362</v>
         <stp/>
         <stp>BDP|867397090809418128</stp>
         <tr r="I11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3673138746</v>
         <stp/>
         <stp>BDP|993117395996018364</stp>
         <tr r="J13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4231646981</v>
         <stp/>
         <stp>BDP|963073539767564866</stp>
         <tr r="F35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4000235523</v>
         <stp/>
         <stp>BDP|790641586116186405</stp>
         <tr r="G28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4231494392</v>
         <stp/>
         <stp>BDP|532943154230282053</stp>
         <tr r="H27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3608725507</v>
         <stp/>
         <stp>BDP|338856410464461328</stp>
         <tr r="G18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3646831337</v>
         <stp/>
         <stp>BDP|264869505427491615</stp>
         <tr r="E27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3207650591</v>
         <stp/>
         <stp>BDP|813867508731817124</stp>
         <tr r="I29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2632335697</v>
         <stp/>
         <stp>BDP|297929672332994410</stp>
         <tr r="D35" s="2"/>
@@ -2133,17 +2127,23 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
+        <stp>BDP|455400142338284048</stp>
+        <tr r="F14" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3921530081</v>
+        <stp/>
         <stp>BDP|748791461872049867</stp>
         <tr r="I21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3166060113</v>
         <stp/>
         <stp>BDP|774584681411243764</stp>
         <tr r="E11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2880825264</v>
         <stp/>
         <stp>BDP|112397016921832920</stp>
         <tr r="H37" s="2"/>
@@ -2472,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E22B6-F943-4AAF-BA00-25DE4BF4BBFF}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,28 +2497,28 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="I1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -2538,27 +2538,27 @@
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">_xll.BDP(C2,$E$1)</f>
-        <v>-0.43296509999999999</v>
+        <v>-0.37324570000000001</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.BDP(C2,$F$1)</f>
-        <v>-5.9940939999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">_xll.BDP(C2,$G$1)</f>
-        <v>0.92312649999999996</v>
+        <v>0.98365919999999996</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">_xll.BDP(C2,$H$1)</f>
-        <v>6.2281000000000004</v>
+        <v>6.2918149999999997</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">_xll.BDP(C2,$I$1)</f>
-        <v>5.4887689999999996</v>
+        <v>5.5520399999999999</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">_xll.BDP(C2,$J$1)</f>
-        <v>-1.767563</v>
+        <v>-1.7086490000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2577,27 +2577,27 @@
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(C3,$E$1)</f>
-        <v>0.33483580000000002</v>
+        <v>0.1931745</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" ref="F3">_xll.BDP(C3,$F$1)</f>
-        <v>3.7693140000000001</v>
+        <v>3.6228039999999999</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">_xll.BDP(C3,$G$1)</f>
-        <v>0.51606339999999995</v>
+        <v>0.37414619999999998</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">_xll.BDP(C3,$H$1)</f>
-        <v>4.9858510000000003</v>
+        <v>4.8376229999999998</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">_xll.BDP(C3,$I$1)</f>
-        <v>5.4833449999999999</v>
+        <v>5.3344139999999998</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3">_xll.BDP(C3,$J$1)</f>
-        <v>-2.490612</v>
+        <v>-2.6282800000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2616,27 +2616,27 @@
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(C4,$E$1)</f>
-        <v>1.5561020000000001</v>
+        <v>1.1138410000000001</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">_xll.BDP(C4,$F$1)</f>
-        <v>10.734059999999999</v>
+        <v>10.25183</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">_xll.BDP(C4,$G$1)</f>
-        <v>6.8597029999999997</v>
+        <v>6.3943459999999996</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">_xll.BDP(C4,$H$1)</f>
-        <v>26.375859999999999</v>
+        <v>25.825520000000001</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">_xll.BDP(C4,$I$1)</f>
-        <v>23.678429999999999</v>
+        <v>23.13983</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4">_xll.BDP(C4,$J$1)</f>
-        <v>-0.64102809999999999</v>
+        <v>-1.0737209999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2655,27 +2655,27 @@
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(C5,$E$1)</f>
-        <v>0.1142857</v>
+        <v>0</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">_xll.BDP(C5,$F$1)</f>
-        <v>-6.0309929999999996</v>
+        <v>-6.1382640000000004</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">_xll.BDP(C5,$G$1)</f>
-        <v>-2.2078920000000002</v>
+        <v>-2.3195269999999999</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">_xll.BDP(C5,$H$1)</f>
-        <v>3.9419900000000001</v>
+        <v>3.8233350000000002</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">_xll.BDP(C5,$I$1)</f>
-        <v>0.76687269999999996</v>
+        <v>0.65184200000000003</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" ref="J5">_xll.BDP(C5,$J$1)</f>
-        <v>-15.20758</v>
+        <v>-15.30437</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,27 +2694,27 @@
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(C6,$E$1)</f>
-        <v>-2.3038500000000002</v>
+        <v>-2.4327369999999999</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.BDP(C6,$F$1)</f>
-        <v>1.3030390000000001</v>
+        <v>1.169394</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">_xll.BDP(C6,$G$1)</f>
-        <v>5.113537</v>
+        <v>4.9748650000000003</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">_xll.BDP(C6,$H$1)</f>
-        <v>3.1994570000000002</v>
+        <v>3.06331</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">_xll.BDP(C6,$I$1)</f>
-        <v>5.2412340000000004</v>
+        <v>5.1023930000000002</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">_xll.BDP(C6,$J$1)</f>
-        <v>-3.9746619999999999</v>
+        <v>-4.101343</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2733,27 +2733,27 @@
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(C7,$E$1)</f>
-        <v>1.8302830000000001</v>
+        <v>0.5176558</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.BDP(C7,$F$1)</f>
-        <v>20.35398</v>
+        <v>18.802579999999999</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">_xll.BDP(C7,$G$1)</f>
-        <v>17.755220000000001</v>
+        <v>16.237310000000001</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">_xll.BDP(C7,$H$1)</f>
-        <v>22.19633</v>
+        <v>20.621179999999999</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.BDP(C7,$I$1)</f>
-        <v>2.9917720000000001</v>
+        <v>1.6641729999999999</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">_xll.BDP(C7,$J$1)</f>
-        <v>-3.8911190000000002</v>
+        <v>-5.1299970000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2772,27 +2772,27 @@
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(C8,$E$1)</f>
-        <v>0.23194519999999999</v>
+        <v>0.29520299999999999</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.BDP(C8,$F$1)</f>
-        <v>-0.16801779999999999</v>
+        <v>-0.10501240000000001</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" ref="G8">_xll.BDP(C8,$G$1)</f>
-        <v>-1.308006</v>
+        <v>-1.2457199999999999</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" ref="H8">_xll.BDP(C8,$H$1)</f>
-        <v>7.4237289999999998</v>
+        <v>7.4915250000000002</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.BDP(C8,$I$1)</f>
-        <v>8.2308789999999998</v>
+        <v>8.2991849999999996</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" ref="J8">_xll.BDP(C8,$J$1)</f>
-        <v>-2.1410209999999998</v>
+        <v>-2.0792630000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2811,27 +2811,27 @@
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(C9,$E$1)</f>
-        <v>-0.80400959999999999</v>
+        <v>-0.79356789999999999</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.BDP(C9,$F$1)</f>
-        <v>0.60362340000000003</v>
+        <v>0.61421329999999996</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" ref="G9">_xll.BDP(C9,$G$1)</f>
-        <v>9.4824829999999999E-2</v>
+        <v>0.1053611</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" ref="H9">_xll.BDP(C9,$H$1)</f>
-        <v>11.09812</v>
+        <v>11.109819999999999</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.BDP(C9,$I$1)</f>
-        <v>9.5227140000000006</v>
+        <v>9.534243</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">_xll.BDP(C9,$J$1)</f>
-        <v>-1.82908</v>
+        <v>-1.8187420000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2850,27 +2850,27 @@
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xll.BDP(C10,$E$1)</f>
-        <v>-3.6395620000000002</v>
+        <v>-3.1795429999999998</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.BDP(C10,$F$1)</f>
-        <v>-10.88589</v>
+        <v>-10.460459999999999</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10">_xll.BDP(C10,$G$1)</f>
-        <v>-2.451721</v>
+        <v>-1.9860310000000001</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" ref="H10">_xll.BDP(C10,$H$1)</f>
-        <v>-9.9393019999999996</v>
+        <v>-9.5093580000000006</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.BDP(C10,$I$1)</f>
-        <v>-13.008430000000001</v>
+        <v>-12.59314</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" ref="J10">_xll.BDP(C10,$J$1)</f>
-        <v>-27.61459</v>
+        <v>-27.269030000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2889,23 +2889,23 @@
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xll.BDP(C11,$E$1)</f>
-        <v>1.031353</v>
+        <v>1.113861</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.BDP(C11,$F$1)</f>
-        <v>5.4013309999999999</v>
+        <v>5.4874080000000003</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">_xll.BDP(C11,$G$1)</f>
-        <v>6.2012169999999998</v>
+        <v>6.287947</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" ref="H11">_xll.BDP(C11,$H$1)</f>
-        <v>18.05254</v>
+        <v>18.148949999999999</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.BDP(C11,$I$1)</f>
-        <v>15.956429999999999</v>
+        <v>16.051130000000001</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" ref="J11">_xll.BDP(C11,$J$1)</f>
@@ -2928,27 +2928,27 @@
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(C12,$E$1)</f>
-        <v>3.1505730000000001</v>
+        <v>3.2051280000000002</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.BDP(C12,$F$1)</f>
-        <v>9.7040869999999995</v>
+        <v>9.7621079999999996</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" ref="G12">_xll.BDP(C12,$G$1)</f>
-        <v>2.1474869999999999</v>
+        <v>2.201511</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" ref="H12">_xll.BDP(C12,$H$1)</f>
-        <v>16.42549</v>
+        <v>16.487069999999999</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.BDP(C12,$I$1)</f>
-        <v>11.994669999999999</v>
+        <v>12.053900000000001</v>
       </c>
       <c r="J12" cm="1">
         <f t="array" ref="J12">_xll.BDP(C12,$J$1)</f>
-        <v>-0.90409130000000004</v>
+        <v>-0.85167919999999997</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,27 +2967,27 @@
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(C13,$E$1)</f>
-        <v>2.819807</v>
+        <v>2.4759280000000001</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.BDP(C13,$F$1)</f>
-        <v>8.1243979999999993</v>
+        <v>7.762778</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" ref="G13">_xll.BDP(C13,$G$1)</f>
-        <v>-1.167918</v>
+        <v>-1.4984599999999999</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" ref="H13">_xll.BDP(C13,$H$1)</f>
-        <v>4.7407760000000003</v>
+        <v>4.3904719999999999</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.BDP(C13,$I$1)</f>
-        <v>1.6776230000000001</v>
+        <v>1.337564</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" ref="J13">_xll.BDP(C13,$J$1)</f>
-        <v>-8.6929979999999993</v>
+        <v>-8.9983679999999993</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2998,35 +2998,35 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" ref="D14">_xll.BDP(C14,$D$1)</f>
-        <v>iShares Nasdaq US Biotechnolog</v>
+        <v>iShares Digitalisation UCITS E</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(C14,$E$1)</f>
-        <v>-2.3038500000000002</v>
+        <v>-1.195743E-2</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.BDP(C14,$F$1)</f>
-        <v>1.3030390000000001</v>
+        <v>4.0567409999999997</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" ref="G14">_xll.BDP(C14,$G$1)</f>
-        <v>5.113537</v>
+        <v>0.56524859999999999</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" ref="H14">_xll.BDP(C14,$H$1)</f>
-        <v>3.1994570000000002</v>
+        <v>10.25844</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.BDP(C14,$I$1)</f>
-        <v>5.2412340000000004</v>
+        <v>7.6606129999999997</v>
       </c>
       <c r="J14" cm="1">
         <f t="array" ref="J14">_xll.BDP(C14,$J$1)</f>
-        <v>-3.9746619999999999</v>
+        <v>-0.95936719999999998</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" ref="D15">_xll.BDP(C15,$D$1)</f>
@@ -3045,27 +3045,27 @@
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(C15,$E$1)</f>
-        <v>1.283784</v>
+        <v>1.513514</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.BDP(C15,$F$1)</f>
-        <v>1.5995680000000001</v>
+        <v>1.830014</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" ref="G15">_xll.BDP(C15,$G$1)</f>
-        <v>6.6758730000000002E-2</v>
+        <v>0.29372799999999999</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" ref="H15">_xll.BDP(C15,$H$1)</f>
-        <v>1.5582640000000001</v>
+        <v>1.788616</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.BDP(C15,$I$1)</f>
-        <v>0.2943925</v>
+        <v>0.52187810000000001</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">_xll.BDP(C15,$J$1)</f>
-        <v>-1.0561050000000001</v>
+        <v>-0.83167959999999996</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" ref="D16">_xll.BDP(C16,$D$1)</f>
@@ -3084,27 +3084,27 @@
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(C16,$E$1)</f>
-        <v>-0.3265921</v>
+        <v>-0.40195959999999997</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.BDP(C16,$F$1)</f>
-        <v>2.0447500000000001</v>
+        <v>1.96759</v>
       </c>
       <c r="G16" cm="1">
         <f t="array" ref="G16">_xll.BDP(C16,$G$1)</f>
-        <v>8.9673169999999995</v>
+        <v>8.8849219999999995</v>
       </c>
       <c r="H16" cm="1">
         <f t="array" ref="H16">_xll.BDP(C16,$H$1)</f>
-        <v>23.84892</v>
+        <v>23.755269999999999</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.BDP(C16,$I$1)</f>
-        <v>20.813030000000001</v>
+        <v>20.721679999999999</v>
       </c>
       <c r="J16" cm="1">
         <f t="array" ref="J16">_xll.BDP(C16,$J$1)</f>
-        <v>-5.106439</v>
+        <v>-5.1781889999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" ref="D17">_xll.BDP(C17,$D$1)</f>
@@ -3123,38 +3123,38 @@
       </c>
       <c r="E17" cm="1">
         <f t="array" ref="E17">_xll.BDP(C17,$E$1)</f>
-        <v>8.2203040000000005E-2</v>
+        <v>0.13700509999999999</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.BDP(C17,$F$1)</f>
-        <v>3.250883</v>
+        <v>3.30742</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" ref="G17">_xll.BDP(C17,$G$1)</f>
-        <v>3.5435819999999998</v>
+        <v>3.600279</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" ref="H17">_xll.BDP(C17,$H$1)</f>
-        <v>20.00986</v>
+        <v>20.075569999999999</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.BDP(C17,$I$1)</f>
-        <v>16.992319999999999</v>
+        <v>17.056380000000001</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">_xll.BDP(C17,$J$1)</f>
-        <v>-1.7616970000000001</v>
+        <v>-1.707913</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" ref="D18">_xll.BDP(C18,$D$1)</f>
@@ -3162,27 +3162,27 @@
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xll.BDP(C18,$E$1)</f>
-        <v>0.74158590000000002</v>
+        <v>0.73017679999999996</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.BDP(C18,$F$1)</f>
-        <v>2.5909149999999999</v>
+        <v>2.5792959999999998</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" ref="G18">_xll.BDP(C18,$G$1)</f>
-        <v>4.8071219999999997</v>
+        <v>4.7952519999999996</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" ref="H18">_xll.BDP(C18,$H$1)</f>
-        <v>22.180720000000001</v>
+        <v>22.166879999999999</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.BDP(C18,$I$1)</f>
-        <v>19.275970000000001</v>
+        <v>19.262460000000001</v>
       </c>
       <c r="J18" cm="1">
         <f t="array" ref="J18">_xll.BDP(C18,$J$1)</f>
-        <v>-0.7753622</v>
+        <v>-0.78660180000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3193,7 +3193,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" ref="D19">_xll.BDP(C19,$D$1)</f>
@@ -3201,27 +3201,27 @@
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.BDP(C19,$E$1)</f>
-        <v>-0.36134630000000001</v>
+        <v>-0.3406979</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.BDP(C19,$F$1)</f>
-        <v>1.7394050000000001</v>
+        <v>1.7604880000000001</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" ref="G19">_xll.BDP(C19,$G$1)</f>
-        <v>6.959994</v>
+        <v>6.9821600000000004</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" ref="H19">_xll.BDP(C19,$H$1)</f>
-        <v>8.511355</v>
+        <v>8.5338419999999999</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.BDP(C19,$I$1)</f>
-        <v>10.309749999999999</v>
+        <v>10.332610000000001</v>
       </c>
       <c r="J19" cm="1">
         <f t="array" ref="J19">_xll.BDP(C19,$J$1)</f>
-        <v>-0.75071940000000004</v>
+        <v>-0.73015319999999995</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" ref="D20">_xll.BDP(C20,$D$1)</f>
@@ -3240,27 +3240,27 @@
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(C20,$E$1)</f>
-        <v>-0.4235294</v>
+        <v>-0.2117647</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.BDP(C20,$F$1)</f>
-        <v>-1.3059730000000001</v>
+        <v>-1.096085</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" ref="G20">_xll.BDP(C20,$G$1)</f>
-        <v>-7.0834649999999999E-2</v>
+        <v>0.1416801</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" ref="H20">_xll.BDP(C20,$H$1)</f>
-        <v>4.9342870000000003</v>
+        <v>5.1574460000000002</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.BDP(C20,$I$1)</f>
-        <v>3.7509169999999998</v>
+        <v>3.9715590000000001</v>
       </c>
       <c r="J20" cm="1">
         <f t="array" ref="J20">_xll.BDP(C20,$J$1)</f>
-        <v>-3.1578970000000002</v>
+        <v>-2.9519470000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" ref="D21">_xll.BDP(C21,$D$1)</f>
@@ -3279,27 +3279,27 @@
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(C21,$E$1)</f>
-        <v>1.1935210000000001</v>
+        <v>1.1651039999999999</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.BDP(C21,$F$1)</f>
-        <v>-1.534635</v>
+        <v>-1.5622860000000001</v>
       </c>
       <c r="G21" cm="1">
         <f t="array" ref="G21">_xll.BDP(C21,$G$1)</f>
-        <v>5.4642400000000002</v>
+        <v>5.4346240000000003</v>
       </c>
       <c r="H21" cm="1">
         <f t="array" ref="H21">_xll.BDP(C21,$H$1)</f>
-        <v>17.855370000000001</v>
+        <v>17.82227</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.BDP(C21,$I$1)</f>
-        <v>13.606640000000001</v>
+        <v>13.57474</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" ref="J21">_xll.BDP(C21,$J$1)</f>
-        <v>-7.2052100000000001</v>
+        <v>-7.231274</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3310,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" ref="D22">_xll.BDP(C22,$D$1)</f>
@@ -3318,27 +3318,27 @@
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(C22,$E$1)</f>
-        <v>-3.161022</v>
+        <v>-2.7926319999999998</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.BDP(C22,$F$1)</f>
-        <v>-12.26314</v>
+        <v>-11.92937</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" ref="G22">_xll.BDP(C22,$G$1)</f>
-        <v>-5.4420979999999997</v>
+        <v>-5.0823859999999996</v>
       </c>
       <c r="H22" cm="1">
         <f t="array" ref="H22">_xll.BDP(C22,$H$1)</f>
-        <v>-2.1963490000000001</v>
+        <v>-1.824289</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.BDP(C22,$I$1)</f>
-        <v>-5.3542350000000001</v>
+        <v>-4.9941890000000004</v>
       </c>
       <c r="J22" cm="1">
         <f t="array" ref="J22">_xll.BDP(C22,$J$1)</f>
-        <v>-18.688890000000001</v>
+        <v>-18.379560000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3349,7 +3349,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" t="str" cm="1">
         <f t="array" ref="D23">_xll.BDP(C23,$D$1)</f>
@@ -3357,27 +3357,27 @@
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(C23,$E$1)</f>
-        <v>0.32312269999999998</v>
+        <v>0.49114639999999998</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.BDP(C23,$F$1)</f>
-        <v>4.9202440000000003</v>
+        <v>5.0959669999999999</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" ref="G23">_xll.BDP(C23,$G$1)</f>
-        <v>6.1833130000000001</v>
+        <v>6.3611510000000004</v>
       </c>
       <c r="H23" cm="1">
         <f t="array" ref="H23">_xll.BDP(C23,$H$1)</f>
-        <v>17.339379999999998</v>
+        <v>17.535900000000002</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.BDP(C23,$I$1)</f>
-        <v>15.36861</v>
+        <v>15.56183</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" ref="J23">_xll.BDP(C23,$J$1)</f>
-        <v>-0.4616576</v>
+        <v>-0.29495169999999998</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" ref="D24">_xll.BDP(C24,$D$1)</f>
@@ -3396,27 +3396,27 @@
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(C24,$E$1)</f>
-        <v>0.77697530000000004</v>
+        <v>0.67848540000000002</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.BDP(C24,$F$1)</f>
-        <v>4.1859950000000001</v>
+        <v>4.0841729999999998</v>
       </c>
       <c r="G24" cm="1">
         <f t="array" ref="G24">_xll.BDP(C24,$G$1)</f>
-        <v>1.3425739999999999</v>
+        <v>1.2435320000000001</v>
       </c>
       <c r="H24" cm="1">
         <f t="array" ref="H24">_xll.BDP(C24,$H$1)</f>
-        <v>9.2926629999999992</v>
+        <v>9.1858509999999995</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.BDP(C24,$I$1)</f>
-        <v>8.6735930000000003</v>
+        <v>8.5673849999999998</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" ref="J24">_xll.BDP(C24,$J$1)</f>
-        <v>0</v>
+        <v>-0.3574156</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" ref="D25">_xll.BDP(C25,$D$1)</f>
@@ -3435,27 +3435,27 @@
       </c>
       <c r="E25" cm="1">
         <f t="array" ref="E25">_xll.BDP(C25,$E$1)</f>
-        <v>-1.7896540000000001</v>
+        <v>-1.863202</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.BDP(C25,$F$1)</f>
-        <v>-1.644976</v>
+        <v>-1.7186319999999999</v>
       </c>
       <c r="G25" cm="1">
         <f t="array" ref="G25">_xll.BDP(C25,$G$1)</f>
-        <v>-6.6852989999999997</v>
+        <v>-6.7551800000000002</v>
       </c>
       <c r="H25" cm="1">
         <f t="array" ref="H25">_xll.BDP(C25,$H$1)</f>
-        <v>1.8302</v>
+        <v>1.7539419999999999</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.BDP(C25,$I$1)</f>
-        <v>-1.305739</v>
+        <v>-1.3796489999999999</v>
       </c>
       <c r="J25" cm="1">
         <f t="array" ref="J25">_xll.BDP(C25,$J$1)</f>
-        <v>-10.05837</v>
+        <v>-10.125730000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3466,7 +3466,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" t="str" cm="1">
         <f t="array" ref="D26">_xll.BDP(C26,$D$1)</f>
@@ -3474,38 +3474,38 @@
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.BDP(C26,$E$1)</f>
-        <v>0.27753250000000002</v>
+        <v>-1.2615110000000001E-2</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.BDP(C26,$F$1)</f>
-        <v>5.7610460000000003</v>
+        <v>5.4550320000000001</v>
       </c>
       <c r="G26" cm="1">
         <f t="array" ref="G26">_xll.BDP(C26,$G$1)</f>
-        <v>1.805839</v>
+        <v>1.511269</v>
       </c>
       <c r="H26" cm="1">
         <f t="array" ref="H26">_xll.BDP(C26,$H$1)</f>
-        <v>18.447330000000001</v>
+        <v>18.104600000000001</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.BDP(C26,$I$1)</f>
-        <v>14.1114</v>
+        <v>13.781219999999999</v>
       </c>
       <c r="J26" cm="1">
         <f t="array" ref="J26">_xll.BDP(C26,$J$1)</f>
-        <v>-1.560371</v>
+        <v>-1.845197</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" ref="D27">_xll.BDP(C27,$D$1)</f>
@@ -3513,27 +3513,27 @@
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xll.BDP(C27,$E$1)</f>
-        <v>-0.19107170000000001</v>
+        <v>-0.24318219999999999</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.BDP(C27,$F$1)</f>
-        <v>-0.38141520000000001</v>
+        <v>-0.43342629999999999</v>
       </c>
       <c r="G27" cm="1">
         <f t="array" ref="G27">_xll.BDP(C27,$G$1)</f>
-        <v>1.7171149999999999</v>
+        <v>1.6640079999999999</v>
       </c>
       <c r="H27" cm="1">
         <f t="array" ref="H27">_xll.BDP(C27,$H$1)</f>
-        <v>25.51333</v>
+        <v>25.447800000000001</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.BDP(C27,$I$1)</f>
-        <v>26.008780000000002</v>
+        <v>25.942990000000002</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">_xll.BDP(C27,$J$1)</f>
-        <v>-2.4448259999999999</v>
+        <v>-2.4957579999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" ref="D28">_xll.BDP(C28,$D$1)</f>
@@ -3552,27 +3552,27 @@
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xll.BDP(C28,$E$1)</f>
-        <v>-1.3570230000000001</v>
+        <v>-1.0912139999999999</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.BDP(C28,$F$1)</f>
-        <v>0.37010539999999997</v>
+        <v>0.64056800000000003</v>
       </c>
       <c r="G28" cm="1">
         <f t="array" ref="G28">_xll.BDP(C28,$G$1)</f>
-        <v>1.570154</v>
+        <v>1.84385</v>
       </c>
       <c r="H28" cm="1">
         <f t="array" ref="H28">_xll.BDP(C28,$H$1)</f>
-        <v>8.6440719999999995</v>
+        <v>8.9368300000000005</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.BDP(C28,$I$1)</f>
-        <v>7.3374980000000001</v>
+        <v>7.626735</v>
       </c>
       <c r="J28" cm="1">
         <f t="array" ref="J28">_xll.BDP(C28,$J$1)</f>
-        <v>-2.4757940000000001</v>
+        <v>-2.2129989999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3583,7 +3583,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" t="str" cm="1">
         <f t="array" ref="D29">_xll.BDP(C29,$D$1)</f>
@@ -3591,27 +3591,27 @@
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(C29,$E$1)</f>
-        <v>1.173834</v>
+        <v>1.1631629999999999</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.BDP(C29,$F$1)</f>
-        <v>2.6415470000000001</v>
+        <v>2.6307209999999999</v>
       </c>
       <c r="G29" cm="1">
         <f t="array" ref="G29">_xll.BDP(C29,$G$1)</f>
-        <v>1.001382</v>
+        <v>0.99072890000000002</v>
       </c>
       <c r="H29" cm="1">
         <f t="array" ref="H29">_xll.BDP(C29,$H$1)</f>
-        <v>13.15193</v>
+        <v>13.139989999999999</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.BDP(C29,$I$1)</f>
-        <v>15.11656</v>
+        <v>15.104419999999999</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">_xll.BDP(C29,$J$1)</f>
-        <v>-1.105669</v>
+        <v>-1.1160939999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3622,7 +3622,7 @@
         <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" ref="D30">_xll.BDP(C30,$D$1)</f>
@@ -3630,27 +3630,27 @@
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(C30,$E$1)</f>
-        <v>-0.85583589999999998</v>
+        <v>-0.60498750000000001</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.BDP(C30,$F$1)</f>
-        <v>-7.4357329999999999E-2</v>
+        <v>0.1784684</v>
       </c>
       <c r="G30" cm="1">
         <f t="array" ref="G30">_xll.BDP(C30,$G$1)</f>
-        <v>-0.7826362</v>
+        <v>-0.53160249999999998</v>
       </c>
       <c r="H30" cm="1">
         <f t="array" ref="H30">_xll.BDP(C30,$H$1)</f>
-        <v>4.00929</v>
+        <v>4.2724479999999998</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.BDP(C30,$I$1)</f>
-        <v>2.8785829999999999</v>
+        <v>3.1388799999999999</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" ref="J30">_xll.BDP(C30,$J$1)</f>
-        <v>-4.0142819999999997</v>
+        <v>-3.7714279999999998</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3661,7 +3661,7 @@
         <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" ref="D31">_xll.BDP(C31,$D$1)</f>
@@ -3669,27 +3669,27 @@
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(C31,$E$1)</f>
-        <v>0.31104199999999999</v>
+        <v>1.2960080000000001E-2</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.BDP(C31,$F$1)</f>
-        <v>1.2029240000000001</v>
+        <v>0.9021922</v>
       </c>
       <c r="G31" cm="1">
         <f t="array" ref="G31">_xll.BDP(C31,$G$1)</f>
-        <v>2.6525180000000002</v>
+        <v>2.3474780000000002</v>
       </c>
       <c r="H31" cm="1">
         <f t="array" ref="H31">_xll.BDP(C31,$H$1)</f>
-        <v>7.2616350000000001</v>
+        <v>6.9428989999999997</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.BDP(C31,$I$1)</f>
-        <v>6.8913080000000004</v>
+        <v>6.5736720000000002</v>
       </c>
       <c r="J31" cm="1">
         <f t="array" ref="J31">_xll.BDP(C31,$J$1)</f>
-        <v>-0.95969289999999996</v>
+        <v>-1.254003</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" ref="D32">_xll.BDP(C32,$D$1)</f>
@@ -3708,27 +3708,27 @@
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(C32,$E$1)</f>
-        <v>0.32999410000000001</v>
+        <v>1.025339</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.BDP(C32,$F$1)</f>
-        <v>-0.98859710000000001</v>
+        <v>-0.30239100000000002</v>
       </c>
       <c r="G32" cm="1">
         <f t="array" ref="G32">_xll.BDP(C32,$G$1)</f>
-        <v>-3.949001</v>
+        <v>-3.283312</v>
       </c>
       <c r="H32" cm="1">
         <f t="array" ref="H32">_xll.BDP(C32,$H$1)</f>
-        <v>-4.1328839999999998</v>
+        <v>-3.4684699999999999</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.BDP(C32,$I$1)</f>
-        <v>-7.4472709999999998</v>
+        <v>-6.8058269999999998</v>
       </c>
       <c r="J32" cm="1">
         <f t="array" ref="J32">_xll.BDP(C32,$J$1)</f>
-        <v>-13.15925</v>
+        <v>-12.55739</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
         <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" ref="D33">_xll.BDP(C33,$D$1)</f>
@@ -3747,27 +3747,27 @@
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(C33,$E$1)</f>
-        <v>0.13357820000000001</v>
+        <v>0.23376189999999999</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.BDP(C33,$F$1)</f>
-        <v>0.705291</v>
+        <v>0.80604659999999995</v>
       </c>
       <c r="G33" cm="1">
         <f t="array" ref="G33">_xll.BDP(C33,$G$1)</f>
-        <v>1.1639699999999999</v>
+        <v>1.2651840000000001</v>
       </c>
       <c r="H33" cm="1">
         <f t="array" ref="H33">_xll.BDP(C33,$H$1)</f>
-        <v>11.73841</v>
+        <v>11.850199999999999</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.BDP(C33,$I$1)</f>
-        <v>8.7989859999999993</v>
+        <v>8.9078400000000002</v>
       </c>
       <c r="J33" cm="1">
         <f t="array" ref="J33">_xll.BDP(C33,$J$1)</f>
-        <v>-2.2175129999999998</v>
+        <v>-2.119685</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" ref="D34">_xll.BDP(C34,$D$1)</f>
@@ -3786,27 +3786,27 @@
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(C34,$E$1)</f>
-        <v>0.92120409999999997</v>
+        <v>0.77315350000000005</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.BDP(C34,$F$1)</f>
-        <v>3.7544369999999998</v>
+        <v>3.60223</v>
       </c>
       <c r="G34" cm="1">
         <f t="array" ref="G34">_xll.BDP(C34,$G$1)</f>
-        <v>-2.0906449999999999</v>
+        <v>-2.2342770000000001</v>
       </c>
       <c r="H34" cm="1">
         <f t="array" ref="H34">_xll.BDP(C34,$H$1)</f>
-        <v>6.8071039999999998</v>
+        <v>6.6504190000000003</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.BDP(C34,$I$1)</f>
-        <v>3.300217</v>
+        <v>3.148676</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" ref="J34">_xll.BDP(C34,$J$1)</f>
-        <v>-4.2901660000000001</v>
+        <v>-4.4305760000000003</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3817,7 +3817,7 @@
         <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" ref="D35">_xll.BDP(C35,$D$1)</f>
@@ -3825,27 +3825,27 @@
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(C35,$E$1)</f>
-        <v>1.7237309999999999</v>
+        <v>1.475797</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.BDP(C35,$F$1)</f>
-        <v>10.09455</v>
+        <v>9.8262169999999998</v>
       </c>
       <c r="G35" cm="1">
         <f t="array" ref="G35">_xll.BDP(C35,$G$1)</f>
-        <v>12.92267</v>
+        <v>12.64744</v>
       </c>
       <c r="H35" cm="1">
         <f t="array" ref="H35">_xll.BDP(C35,$H$1)</f>
-        <v>48.654249999999998</v>
+        <v>48.291930000000001</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.BDP(C35,$I$1)</f>
-        <v>41.803820000000002</v>
+        <v>41.458199999999998</v>
       </c>
       <c r="J35" cm="1">
         <f t="array" ref="J35">_xll.BDP(C35,$J$1)</f>
-        <v>-5.5677269999999996</v>
+        <v>-5.7978969999999999</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3856,7 +3856,7 @@
         <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" ref="D36">_xll.BDP(C36,$D$1)</f>
@@ -3864,27 +3864,27 @@
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(C36,$E$1)</f>
-        <v>0.84134620000000004</v>
+        <v>1.394231</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.BDP(C36,$F$1)</f>
-        <v>-0.89771279999999998</v>
+        <v>-0.35436289999999998</v>
       </c>
       <c r="G36" cm="1">
         <f t="array" ref="G36">_xll.BDP(C36,$G$1)</f>
-        <v>5.6355709999999997</v>
+        <v>6.2147410000000001</v>
       </c>
       <c r="H36" cm="1">
         <f t="array" ref="H36">_xll.BDP(C36,$H$1)</f>
-        <v>-1.917233</v>
+        <v>-1.3794729999999999</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.BDP(C36,$I$1)</f>
-        <v>-4.5289000000000001</v>
+        <v>-4.0054590000000001</v>
       </c>
       <c r="J36" cm="1">
         <f t="array" ref="J36">_xll.BDP(C36,$J$1)</f>
-        <v>-9.5320210000000003</v>
+        <v>-9.0360119999999995</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" ref="D37">_xll.BDP(C37,$D$1)</f>
@@ -3903,27 +3903,27 @@
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(C37,$E$1)</f>
-        <v>1.9681170000000001E-2</v>
+        <v>-0.236174</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.BDP(C37,$F$1)</f>
-        <v>-9.5890380000000004</v>
+        <v>-9.8203139999999998</v>
       </c>
       <c r="G37" cm="1">
         <f t="array" ref="G37">_xll.BDP(C37,$G$1)</f>
-        <v>-7.6167959999999999</v>
+        <v>-7.853116</v>
       </c>
       <c r="H37" cm="1">
         <f t="array" ref="H37">_xll.BDP(C37,$H$1)</f>
-        <v>6.8994489999999997</v>
+        <v>6.6259949999999996</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.BDP(C37,$I$1)</f>
-        <v>7.0570839999999997</v>
+        <v>6.7832270000000001</v>
       </c>
       <c r="J37" cm="1">
         <f t="array" ref="J37">_xll.BDP(C37,$J$1)</f>
-        <v>-15.14443</v>
+        <v>-15.361499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3934,7 +3934,7 @@
         <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" ref="D38">_xll.BDP(C38,$D$1)</f>
@@ -3942,27 +3942,27 @@
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(C38,$E$1)</f>
-        <v>-4.3926730000000003</v>
+        <v>-4.5705140000000002</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.BDP(C38,$F$1)</f>
-        <v>-0.25973560000000001</v>
+        <v>-0.4452643</v>
       </c>
       <c r="G38" cm="1">
         <f t="array" ref="G38">_xll.BDP(C38,$G$1)</f>
-        <v>-13.178290000000001</v>
+        <v>-13.339790000000001</v>
       </c>
       <c r="H38" cm="1">
         <f t="array" ref="H38">_xll.BDP(C38,$H$1)</f>
-        <v>-20.426290000000002</v>
+        <v>-20.574300000000001</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.BDP(C38,$I$1)</f>
-        <v>-18.185970000000001</v>
+        <v>-18.338159999999998</v>
       </c>
       <c r="J38" cm="1">
         <f t="array" ref="J38">_xll.BDP(C38,$J$1)</f>
-        <v>-43.718600000000002</v>
+        <v>-43.823279999999997</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3973,7 +3973,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" ref="D39">_xll.BDP(C39,$D$1)</f>
@@ -3981,27 +3981,27 @@
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(C39,$E$1)</f>
-        <v>-0.59026069999999997</v>
+        <v>-0.45499260000000002</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.BDP(C39,$F$1)</f>
-        <v>-1.7142900000000001</v>
+        <v>-1.580552</v>
       </c>
       <c r="G39" cm="1">
         <f t="array" ref="G39">_xll.BDP(C39,$G$1)</f>
-        <v>-0.1358896</v>
+        <v>0</v>
       </c>
       <c r="H39" cm="1">
         <f t="array" ref="H39">_xll.BDP(C39,$H$1)</f>
-        <v>7.9449880000000004</v>
+        <v>8.0918700000000001</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.BDP(C39,$I$1)</f>
-        <v>5.8392249999999999</v>
+        <v>5.9832419999999997</v>
       </c>
       <c r="J39" cm="1">
         <f t="array" ref="J39">_xll.BDP(C39,$J$1)</f>
-        <v>-6.3593270000000004</v>
+        <v>-6.2319019999999998</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" ref="D40">_xll.BDP(C40,$D$1)</f>
@@ -4020,27 +4020,27 @@
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(C40,$E$1)</f>
-        <v>-1.0831040000000001</v>
+        <v>-1.20126</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.BDP(C40,$F$1)</f>
-        <v>-4.177791</v>
+        <v>-4.2922520000000004</v>
       </c>
       <c r="G40" cm="1">
         <f t="array" ref="G40">_xll.BDP(C40,$G$1)</f>
-        <v>-6.7743149999999996</v>
+        <v>-6.8856739999999999</v>
       </c>
       <c r="H40" cm="1">
         <f t="array" ref="H40">_xll.BDP(C40,$H$1)</f>
-        <v>-1.779428</v>
+        <v>-1.8967529999999999</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.BDP(C40,$I$1)</f>
-        <v>-2.3142710000000002</v>
+        <v>-2.4309569999999998</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" ref="J40">_xll.BDP(C40,$J$1)</f>
-        <v>-8.3728569999999998</v>
+        <v>-8.4823090000000008</v>
       </c>
     </row>
   </sheetData>
@@ -4049,9 +4049,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4232,19 +4235,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11857787-42C7-4100-AA8A-33FA0A9EA44F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6399BF-3D73-4F3C-8A62-9BB1BBC56356}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4269,9 +4268,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6399BF-3D73-4F3C-8A62-9BB1BBC56356}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11857787-42C7-4100-AA8A-33FA0A9EA44F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/megatrends.xlsx
+++ b/megatrends.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\megatrends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF98FEC-9428-4073-88BF-4444FBF04A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A553C352-34FA-4317-8446-F804EC3B9706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC6E5755-4190-4D69-BA31-43985C92D729}"/>
+    <workbookView xWindow="-300" yWindow="315" windowWidth="28335" windowHeight="14340" xr2:uid="{EC6E5755-4190-4D69-BA31-43985C92D729}"/>
   </bookViews>
   <sheets>
     <sheet name="Themes" sheetId="2" r:id="rId1"/>
+    <sheet name="Active Fonds" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
   <si>
     <t>Ageing Population</t>
   </si>
@@ -439,6 +440,15 @@
   </si>
   <si>
     <t>2B79 GY equity</t>
+  </si>
+  <si>
+    <t>HARIMCC LX Equity</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CHG_PCT_MOV_AVG_200D</t>
   </si>
 </sst>
 </file>
@@ -509,739 +519,841 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4269812603</v>
+        <v>#N/A Requesting Data...4153481474</v>
         <stp/>
         <stp>BDP|15846738591531099025</stp>
         <tr r="H20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3697009265</v>
+        <v>#N/A Requesting Data...3553701902</v>
         <stp/>
         <stp>BDP|13724495308188809554</stp>
         <tr r="D29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3417023664</v>
+        <v>#N/A Requesting Data...2219091105</v>
         <stp/>
         <stp>BDP|13957917932485292699</stp>
         <tr r="G27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3392884787</v>
+        <v>#N/A Requesting Data...4191214638</v>
         <stp/>
         <stp>BDP|13286114453828392528</stp>
         <tr r="J7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2731367931</v>
+        <v>#N/A Requesting Data...1236761796</v>
         <stp/>
         <stp>BDP|15750803960131729004</stp>
         <tr r="E5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4258388317</v>
+        <v>#N/A Requesting Data...4155925653</v>
         <stp/>
         <stp>BDP|13222288948239031607</stp>
         <tr r="F13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3965906814</v>
+        <v>#N/A Requesting Data...4110898022</v>
         <stp/>
         <stp>BDP|13604027487649483826</stp>
         <tr r="G34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3906083057</v>
+        <v>#N/A Requesting Data...110177154</v>
         <stp/>
         <stp>BDP|11365245589516536623</stp>
         <tr r="I39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4151404055</v>
+        <v>#N/A Requesting Data...3176021106</v>
         <stp/>
         <stp>BDP|11794883239871752090</stp>
         <tr r="J39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3807520117</v>
+        <v>#N/A Requesting Data...538190502</v>
         <stp/>
         <stp>BDP|13254085681685784513</stp>
         <tr r="G30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2622050500</v>
+        <v>#N/A Requesting Data...2466812978</v>
         <stp/>
         <stp>BDP|11427706444108833174</stp>
         <tr r="G36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3782532164</v>
+        <v>#N/A Requesting Data...3115120019</v>
         <stp/>
         <stp>BDP|13359624940862828871</stp>
         <tr r="G25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3635969216</v>
+        <v>#N/A Requesting Data...4092419965</v>
+        <stp/>
+        <stp>BDP|13825440892857886273</stp>
+        <tr r="K20" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...872793775</v>
         <stp/>
         <stp>BDP|10085804158323141595</stp>
         <tr r="F33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3572818201</v>
+        <v>#N/A Requesting Data...3464865757</v>
+        <stp/>
+        <stp>BDP|18375491469133216250</stp>
+        <tr r="K36" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...907159588</v>
         <stp/>
         <stp>BDP|11378380675815021845</stp>
         <tr r="I18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2653560505</v>
+        <v>#N/A Requesting Data...1911981611</v>
         <stp/>
         <stp>BDP|16894218481320451469</stp>
         <tr r="H16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3782821574</v>
+        <v>#N/A Requesting Data...2766519675</v>
         <stp/>
         <stp>BDP|11545978750337942264</stp>
         <tr r="I2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4063345667</v>
+        <v>#N/A Requesting Data...2366236023</v>
         <stp/>
         <stp>BDP|17501349875673823800</stp>
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3474124088</v>
+        <v>#N/A Requesting Data...2664053695</v>
         <stp/>
         <stp>BDP|16554971571640288001</stp>
         <tr r="D34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2795635270</v>
+        <v>#N/A Requesting Data...2915034821</v>
         <stp/>
         <stp>BDP|13438412086682324512</stp>
         <tr r="G39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4184391922</v>
+        <v>#N/A Requesting Data...702368784</v>
         <stp/>
         <stp>BDP|10219633224185239923</stp>
         <tr r="J2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3293375816</v>
+        <v>#N/A Requesting Data...2655230356</v>
         <stp/>
         <stp>BDP|17123623106699860106</stp>
         <tr r="I35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4286291125</v>
+        <stp/>
+        <stp>BDP|16868303492495208047</stp>
+        <tr r="K32" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2640883504</v>
         <stp/>
         <stp>BDP|18212865830352986824</stp>
         <tr r="H14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2503382205</v>
+        <v>#N/A Requesting Data...4116561531</v>
         <stp/>
         <stp>BDP|16948702666927902988</stp>
         <tr r="G32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4084573949</v>
+        <v>#N/A Requesting Data...2037074809</v>
         <stp/>
         <stp>BDP|15326480282658500889</stp>
         <tr r="G35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2443162170</v>
+        <v>#N/A Requesting Data...3784564696</v>
         <stp/>
         <stp>BDP|12476998175800923552</stp>
         <tr r="G12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4038287815</v>
+        <v>#N/A Requesting Data...3062793434</v>
         <stp/>
         <stp>BDP|13264306770587637938</stp>
         <tr r="F8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4214964875</v>
+        <v>#N/A Requesting Data...4091176932</v>
         <stp/>
         <stp>BDP|18201107262367705105</stp>
         <tr r="I13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2747531911</v>
+        <v>#N/A Requesting Data...3020979226</v>
         <stp/>
         <stp>BDP|16460204866288758323</stp>
         <tr r="E36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2779874951</v>
+        <v>#N/A Requesting Data...1836593629</v>
         <stp/>
         <stp>BDP|10696490135669588048</stp>
         <tr r="D2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2404084500</v>
+        <v>#N/A Requesting Data...982181298</v>
         <stp/>
         <stp>BDP|11857986118173476405</stp>
         <tr r="D6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3831585491</v>
+        <v>#N/A Requesting Data...3198799586</v>
+        <stp/>
+        <stp>BDP|12232682117172321900</stp>
+        <tr r="K10" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1998567628</v>
+        <stp/>
+        <stp>BDP|18305523779857843317</stp>
+        <tr r="K33" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...840746927</v>
+        <stp/>
+        <stp>BDP|14133112174204746822</stp>
+        <tr r="K27" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2792627255</v>
         <stp/>
         <stp>BDP|11675960752754124704</stp>
         <tr r="F28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3909435476</v>
+        <v>#N/A Requesting Data...1620853022</v>
         <stp/>
         <stp>BDP|16399801546706575229</stp>
         <tr r="E39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3688970879</v>
+        <v>#N/A Requesting Data...1292531876</v>
         <stp/>
         <stp>BDP|16669428213185627854</stp>
         <tr r="F21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3786756376</v>
+        <v>#N/A Requesting Data...2215507129</v>
+        <stp/>
+        <stp>BDP|16228364846576662932</stp>
+        <tr r="K24" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...252465488</v>
         <stp/>
         <stp>BDP|16086251193572642091</stp>
         <tr r="I12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3150589175</v>
+        <v>#N/A Requesting Data...3212970718</v>
+        <stp/>
+        <stp>BDP|11056409192081858265</stp>
+        <tr r="K17" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...539445006</v>
         <stp/>
         <stp>BDP|17600972052692525694</stp>
         <tr r="E37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3676113657</v>
+        <v>#N/A Requesting Data...629290417</v>
         <stp/>
         <stp>BDP|14965235187760316107</stp>
         <tr r="E40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4144777858</v>
+        <v>#N/A Requesting Data...3502176780</v>
         <stp/>
         <stp>BDP|12152621898851960332</stp>
         <tr r="G29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1008060822</v>
         <stp/>
         <stp>BDP|13240072722626309849</stp>
         <tr r="G14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3931103974</v>
+        <v>#N/A Requesting Data...1534776222</v>
         <stp/>
         <stp>BDP|17343158082526520734</stp>
         <tr r="H24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3404885433</v>
+        <v>#N/A Requesting Data...3769917410</v>
         <stp/>
         <stp>BDP|10286148726479429515</stp>
         <tr r="F32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2924152197</v>
+        <v>#N/A Requesting Data...3029929354</v>
         <stp/>
         <stp>BDP|17057269233991342820</stp>
         <tr r="J9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2983347959</v>
+        <v>#N/A Requesting Data...1967790894</v>
         <stp/>
         <stp>BDP|15657871464785675148</stp>
         <tr r="F31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2847392525</v>
+        <v>#N/A Requesting Data...335494916</v>
         <stp/>
         <stp>BDP|15914228082869819963</stp>
         <tr r="E35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2536539224</v>
+        <v>#N/A Requesting Data...2631122922</v>
         <stp/>
         <stp>BDP|16087657399014240165</stp>
         <tr r="H26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2484297217</v>
+        <v>#N/A Requesting Data...3809983603</v>
         <stp/>
         <stp>BDP|10185699863609124506</stp>
         <tr r="I20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2998933616</v>
+        <v>#N/A Requesting Data...1089470520</v>
+        <stp/>
+        <stp>BDP|14793748508646622976</stp>
+        <tr r="K16" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...388340716</v>
         <stp/>
         <stp>BDP|14368195591748820891</stp>
         <tr r="I19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2859763297</v>
+        <v>#N/A Requesting Data...3932052077</v>
+        <stp/>
+        <stp>BDP|11040222196560914629</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2078600175</v>
         <stp/>
         <stp>BDP|17306826736853072349</stp>
         <tr r="D7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2442336971</v>
+        <v>#N/A Requesting Data...2432973132</v>
         <stp/>
         <stp>BDP|15196896594361079984</stp>
         <tr r="J17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3945400164</v>
+        <v>#N/A Requesting Data...3566212690</v>
         <stp/>
         <stp>BDP|13814661179808047601</stp>
         <tr r="F24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3715556849</v>
+        <v>#N/A Requesting Data...2151741027</v>
         <stp/>
         <stp>BDP|11007430928803701978</stp>
         <tr r="H25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3316145852</v>
+        <v>#N/A Requesting Data...1223787742</v>
+        <stp/>
+        <stp>BDP|11723367629685712801</stp>
+        <tr r="K38" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3605862387</v>
         <stp/>
         <stp>BDP|15601961462356535183</stp>
         <tr r="F15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3535231764</v>
+        <v>#N/A Requesting Data...2107758386</v>
         <stp/>
         <stp>BDP|18202762449704162231</stp>
         <tr r="H9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3431677134</v>
+        <v>#N/A Requesting Data...3388303022</v>
         <stp/>
         <stp>BDP|17983580872308353016</stp>
         <tr r="H10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2420671674</v>
+        <v>#N/A Requesting Data...3553035419</v>
         <stp/>
         <stp>BDP|10333985114621868468</stp>
         <tr r="D5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3482875847</v>
+        <v>#N/A Requesting Data...2325986395</v>
         <stp/>
         <stp>BDP|15895505836356281888</stp>
         <tr r="G2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2931423757</v>
+        <v>#N/A Requesting Data...1773704909</v>
         <stp/>
         <stp>BDP|16807042948790960069</stp>
         <tr r="J31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4118011120</v>
+        <v>#N/A Requesting Data...1789899830</v>
         <stp/>
         <stp>BDP|16148642647385628390</stp>
         <tr r="J18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3041851680</v>
+        <v>#N/A Requesting Data...3483163599</v>
         <stp/>
         <stp>BDP|11525878302248829371</stp>
         <tr r="H34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2746973982</v>
+        <v>#N/A Requesting Data...3170698575</v>
         <stp/>
         <stp>BDP|13600680289478741702</stp>
         <tr r="J19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3486709544</v>
+        <v>#N/A Requesting Data...481006841</v>
         <stp/>
         <stp>BDP|10168046458075884275</stp>
         <tr r="I24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3930064284</v>
+        <v>#N/A Requesting Data...391945564</v>
         <stp/>
         <stp>BDP|12414291348027057123</stp>
         <tr r="G19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3275948850</v>
+        <v>#N/A Requesting Data...1719631291</v>
         <stp/>
         <stp>BDP|10533758059147427650</stp>
         <tr r="H6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3683504671</v>
+        <v>#N/A Requesting Data...828856273</v>
         <stp/>
         <stp>BDP|13391457112911941452</stp>
         <tr r="F37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3480886555</v>
+        <v>#N/A Requesting Data...775147441</v>
         <stp/>
         <stp>BDP|17131588762370323753</stp>
         <tr r="F7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4133340095</v>
+        <v>#N/A Requesting Data...3291843471</v>
+        <stp/>
+        <stp>BDP|10406205048070773574</stp>
+        <tr r="K14" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1213449679</v>
         <stp/>
         <stp>BDP|15925200263062560014</stp>
         <tr r="D32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3434855520</v>
+        <v>#N/A Requesting Data...2149930472</v>
         <stp/>
         <stp>BDP|16033047627795788275</stp>
         <tr r="E22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3235780996</v>
+        <v>#N/A Requesting Data...2975196988</v>
         <stp/>
         <stp>BDP|16786560416766485704</stp>
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3208283974</v>
+        <v>#N/A Requesting Data...742519972</v>
         <stp/>
         <stp>BDP|16062888788183168662</stp>
         <tr r="D31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2987986037</v>
+        <v>#N/A Requesting Data...2437391216</v>
         <stp/>
         <stp>BDP|13551063545296805297</stp>
         <tr r="H21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2423795488</v>
+        <v>#N/A Requesting Data...4121324210</v>
         <stp/>
         <stp>BDP|16737173078421189105</stp>
         <tr r="J15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3024656842</v>
+        <v>#N/A Requesting Data...1141483332</v>
         <stp/>
         <stp>BDP|14762635370641503480</stp>
         <tr r="D9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3821646817</v>
+        <v>#N/A Requesting Data...2985331915</v>
         <stp/>
         <stp>BDP|14133255916194837329</stp>
         <tr r="I27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3968392727</v>
+        <v>#N/A Requesting Data...2238326705</v>
         <stp/>
         <stp>BDP|13656537959915001676</stp>
         <tr r="D22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4223489863</v>
+        <v>#N/A Requesting Data...903820272</v>
         <stp/>
         <stp>BDP|10165802098883461216</stp>
         <tr r="F12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2854380235</v>
+        <v>#N/A Requesting Data...2866271273</v>
         <stp/>
         <stp>BDP|13056517404174217281</stp>
         <tr r="G13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2822428253</v>
+        <v>#N/A Requesting Data...1168690901</v>
         <stp/>
         <stp>BDP|13430504808454503299</stp>
         <tr r="J6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3061567985</v>
         <stp/>
         <stp>BDP|10003894789129243912</stp>
         <tr r="E14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3329510054</v>
+        <v>#N/A Requesting Data...1060900629</v>
         <stp/>
         <stp>BDP|16324617634546577487</stp>
         <tr r="D12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4227223351</v>
+        <v>#N/A Requesting Data...2481479783</v>
         <stp/>
         <stp>BDP|13078692413307352235</stp>
         <tr r="J25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3190856244</v>
+        <v>#N/A Requesting Data...3111246199</v>
         <stp/>
         <stp>BDP|11345618822983900733</stp>
         <tr r="F6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2628561183</v>
+        <v>#N/A Requesting Data...2173754302</v>
+        <stp/>
+        <stp>BDP|12307046003915024688</stp>
+        <tr r="K13" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2608792439</v>
         <stp/>
         <stp>BDP|17005184358307286520</stp>
         <tr r="F29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2997547293</v>
+        <v>#N/A Requesting Data...3413503192</v>
         <stp/>
         <stp>BDP|13137496149581130334</stp>
         <tr r="E26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3318537309</v>
+        <v>#N/A Requesting Data...3161799977</v>
         <stp/>
         <stp>BDP|10724110998869384080</stp>
         <tr r="I31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2379864109</v>
+        <v>#N/A Requesting Data...359552258</v>
         <stp/>
         <stp>BDP|13095956520070822993</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2356901669</v>
+        <v>#N/A Requesting Data...461345051</v>
         <stp/>
         <stp>BDP|18111210020269435005</stp>
         <tr r="F2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2777727480</v>
+        <v>#N/A Requesting Data...2824896395</v>
         <stp/>
         <stp>BDP|11966868690816835709</stp>
         <tr r="E2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3779533393</v>
+        <v>#N/A Requesting Data...296010473</v>
         <stp/>
         <stp>BDP|14234239965246219709</stp>
         <tr r="E25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4239047948</v>
+        <v>#N/A Requesting Data...1924071930</v>
         <stp/>
         <stp>BDP|17666650128712422094</stp>
         <tr r="F39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3789591391</v>
+        <v>#N/A Requesting Data...2512268002</v>
         <stp/>
         <stp>BDP|17222801784731628098</stp>
         <tr r="F11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3296136531</v>
+        <v>#N/A Requesting Data...1404258465</v>
+        <stp/>
+        <stp>BDP|16154874497550015180</stp>
+        <tr r="K23" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2092435795</v>
+        <stp/>
+        <stp>BDP|10591279866101892340</stp>
+        <tr r="K8" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2530070431</v>
         <stp/>
         <stp>BDP|16831540753484501445</stp>
         <tr r="G4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2554976905</v>
+        <v>#N/A Requesting Data...2949266042</v>
+        <stp/>
+        <stp>BDP|17180358253002768503</stp>
+        <tr r="K26" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1351000197</v>
         <stp/>
         <stp>BDP|14746354412071154135</stp>
         <tr r="I26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3023986200</v>
+        <v>#N/A Requesting Data...2006120689</v>
         <stp/>
         <stp>BDP|16920197560306043151</stp>
         <tr r="F20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4242972182</v>
+        <v>#N/A Requesting Data...2717275396</v>
         <stp/>
         <stp>BDP|18357935525425834093</stp>
         <tr r="E23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4291669842</v>
+        <v>#N/A Requesting Data...384020774</v>
         <stp/>
         <stp>BDP|15145034938771755058</stp>
         <tr r="D16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2960786839</v>
+        <v>#N/A Requesting Data...2133814570</v>
         <stp/>
         <stp>BDP|12881198314797893209</stp>
         <tr r="I8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3960157091</v>
+        <v>#N/A Requesting Data...1233605037</v>
         <stp/>
         <stp>BDP|14480032740422365580</stp>
         <tr r="J33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3859502842</v>
+        <v>#N/A Requesting Data...3996383415</v>
         <stp/>
         <stp>BDP|16642682969724949522</stp>
         <tr r="E31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2963283942</v>
+        <v>#N/A Requesting Data...425791138</v>
         <stp/>
         <stp>BDP|16717124719827248601</stp>
         <tr r="I28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3962399515</v>
+        <v>#N/A Requesting Data...4217993639</v>
         <stp/>
         <stp>BDP|10220805233938732471</stp>
         <tr r="F10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4231509214</v>
+        <v>#N/A Requesting Data...2084765131</v>
         <stp/>
         <stp>BDP|16560809975647531961</stp>
         <tr r="H30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3384694087</v>
+        <v>#N/A Requesting Data...638339305</v>
         <stp/>
         <stp>BDP|10358355578190820358</stp>
         <tr r="D8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4128071818</v>
+        <v>#N/A Requesting Data...1517485151</v>
         <stp/>
         <stp>BDP|14757582569115504565</stp>
         <tr r="D21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2943480201</v>
+        <v>#N/A Requesting Data...3918786949</v>
         <stp/>
         <stp>BDP|16401739063776285628</stp>
         <tr r="G17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3047582570</v>
+        <v>#N/A Requesting Data...2044138949</v>
         <stp/>
         <stp>BDP|12884875764398959355</stp>
         <tr r="G26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2364378148</v>
+        <v>#N/A Requesting Data...1143379144</v>
         <stp/>
         <stp>BDP|17020884307051083993</stp>
         <tr r="F17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4020211338</v>
+        <v>#N/A Requesting Data...348363622</v>
         <stp/>
         <stp>BDP|12950708020866091505</stp>
         <tr r="G3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3114492450</v>
+        <v>#N/A Requesting Data...1591539925</v>
         <stp/>
         <stp>BDP|17972898070659838528</stp>
         <tr r="F5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4023600942</v>
+        <v>#N/A Requesting Data...3099497132</v>
         <stp/>
         <stp>BDP|10273073448451041171</stp>
         <tr r="J40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2609479517</v>
+        <v>#N/A Requesting Data...2340570034</v>
         <stp/>
         <stp>BDP|12542464985933816911</stp>
         <tr r="E16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2676762182</v>
+        <v>#N/A Requesting Data...2622985424</v>
         <stp/>
         <stp>BDP|12376158789907716879</stp>
         <tr r="I34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3543664601</v>
+        <v>#N/A Requesting Data...1230631023</v>
         <stp/>
         <stp>BDP|12512055738233224645</stp>
         <tr r="H19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2581475440</v>
+        <v>#N/A Requesting Data...1920017662</v>
         <stp/>
         <stp>BDP|16086337769223844413</stp>
         <tr r="J36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3789647638</v>
+        <v>#N/A Requesting Data...1527132273</v>
         <stp/>
         <stp>BDP|15812641436770962407</stp>
         <tr r="E8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4190670935</v>
+        <v>#N/A Requesting Data...2609940132</v>
         <stp/>
         <stp>BDP|12676164681728373705</stp>
         <tr r="J34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3143552021</v>
+        <v>#N/A Requesting Data...1285847173</v>
         <stp/>
         <stp>BDP|17508287313678428886</stp>
         <tr r="H29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2425293750</v>
+        <v>#N/A Requesting Data...2295466591</v>
         <stp/>
         <stp>BDP|15475268310210523203</stp>
         <tr r="J10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3747599708</v>
+        <v>#N/A Requesting Data...895865499</v>
         <stp/>
         <stp>BDP|16249415058597238506</stp>
         <tr r="G6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4009869621</v>
+        <v>#N/A Requesting Data...2845984847</v>
         <stp/>
         <stp>BDP|11805032017367497252</stp>
         <tr r="J12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4142215818</v>
+        <v>#N/A Requesting Data...2124603472</v>
         <stp/>
         <stp>BDP|16191576036892589781</stp>
         <tr r="J5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2383112318</v>
+        <v>#N/A Requesting Data...1586518915</v>
         <stp/>
         <stp>BDP|17155835375705157888</stp>
         <tr r="J20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2770670497</v>
+        <v>#N/A Requesting Data...4134501472</v>
         <stp/>
         <stp>BDP|17452163823237710634</stp>
         <tr r="J8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3392085429</v>
+        <v>#N/A Requesting Data...1966417005</v>
+        <stp/>
+        <stp>BDP|17150364910988446843</stp>
+        <tr r="K35" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3706757264</v>
         <stp/>
         <stp>BDP|18145031492910129470</stp>
         <tr r="E17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3005486377</v>
+        <v>#N/A Requesting Data...462552519</v>
         <stp/>
         <stp>BDP|11007870551379462049</stp>
         <tr r="D30" s="2"/>
@@ -1249,901 +1361,1039 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4157271558</v>
+        <v>#N/A Requesting Data...2767708373</v>
+        <stp/>
+        <stp>BDP|2214097638384079989</stp>
+        <tr r="K5" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1145045413</v>
         <stp/>
         <stp>BDP|5899963692130029979</stp>
         <tr r="G33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3978486045</v>
+        <v>#N/A Requesting Data...4233223658</v>
         <stp/>
         <stp>BDP|8442050103152914678</stp>
         <tr r="G9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3035002037</v>
+        <v>#N/A Requesting Data...2657165758</v>
         <stp/>
         <stp>BDP|5534819392900879822</stp>
         <tr r="F18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2522176230</v>
+        <v>#N/A Requesting Data...1227667844</v>
+        <stp/>
+        <stp>BDP|5830077521959216217</stp>
+        <tr r="K39" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1151595204</v>
         <stp/>
         <stp>BDP|3980126830294497925</stp>
         <tr r="E15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3343801180</v>
+        <v>#N/A Requesting Data...540564820</v>
         <stp/>
         <stp>BDP|3846558302852365815</stp>
         <tr r="J37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3333964025</v>
+        <v>#N/A Requesting Data...2366332738</v>
         <stp/>
         <stp>BDP|1150334780213496543</stp>
         <tr r="H18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2668177904</v>
+        <v>#N/A Requesting Data...712618662</v>
         <stp/>
         <stp>BDP|9251382176928300813</stp>
         <tr r="D36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3333789195</v>
+        <v>#N/A Requesting Data...1504671365</v>
         <stp/>
         <stp>BDP|9113264309795435353</stp>
         <tr r="G20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2896416581</v>
+        <v>#N/A Requesting Data...865657153</v>
         <stp/>
         <stp>BDP|1133930977272361091</stp>
         <tr r="D4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3616497357</v>
+        <v>#N/A Requesting Data...972050016</v>
+        <stp/>
+        <stp>BDP|7034247481765260552</stp>
+        <tr r="K9" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2660776253</v>
         <stp/>
         <stp>BDP|4801252564088129592</stp>
         <tr r="G11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2602088463</v>
+        <v>#N/A Requesting Data...3717290180</v>
         <stp/>
         <stp>BDP|8366634138075782582</stp>
         <tr r="D11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2676418260</v>
+        <v>#N/A Requesting Data...1544558672</v>
         <stp/>
         <stp>BDP|1035078154500239956</stp>
         <tr r="D40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4014234019</v>
         <stp/>
         <stp>BDP|3972542690298388955</stp>
         <tr r="D14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3338821119</v>
+        <v>#N/A Requesting Data...2770855092</v>
+        <stp/>
+        <stp>BDP|8507126860821789083</stp>
+        <tr r="K6" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3328104429</v>
         <stp/>
         <stp>BDP|9093618692120211839</stp>
         <tr r="I33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3191590171</v>
+        <v>#N/A Requesting Data...2731971325</v>
         <stp/>
         <stp>BDP|8636162822711044419</stp>
         <tr r="D19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3667276118</v>
+        <v>#N/A Requesting Data...1945922353</v>
         <stp/>
         <stp>BDP|9967888380780680773</stp>
         <tr r="G40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3031896689</v>
+        <v>#N/A Requesting Data...3113024103</v>
         <stp/>
         <stp>BDP|9017823610266699859</stp>
         <tr r="D13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3897078423</v>
+        <v>#N/A Requesting Data...3653729457</v>
         <stp/>
         <stp>BDP|9087384769370180268</stp>
         <tr r="H7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3128530206</v>
+        <v>#N/A Requesting Data...3799099051</v>
         <stp/>
         <stp>BDP|9062705335924501771</stp>
         <tr r="G8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3236543795</v>
+        <v>#N/A Requesting Data...4113771431</v>
         <stp/>
         <stp>BDP|7538963143317594329</stp>
         <tr r="H12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3575144022</v>
+        <v>#N/A Requesting Data...2309083050</v>
         <stp/>
         <stp>BDP|6491659216467199825</stp>
         <tr r="H13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3340242730</v>
+        <v>#N/A Requesting Data...1709589204</v>
         <stp/>
         <stp>BDP|6395158145898372540</stp>
         <tr r="E4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3843678632</v>
+        <v>#N/A Requesting Data...3935612663</v>
+        <stp/>
+        <stp>BDP|4877005099876981400</stp>
+        <tr r="K12" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3184336003</v>
         <stp/>
         <stp>BDP|2795339708417511917</stp>
         <tr r="E10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3811380757</v>
+        <v>#N/A Requesting Data...2119389236</v>
         <stp/>
         <stp>BDP|6831006684939450817</stp>
         <tr r="H28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3493090371</v>
+        <v>#N/A Requesting Data...2697938194</v>
         <stp/>
         <stp>BDP|4843893377524660057</stp>
         <tr r="H8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2761024342</v>
+        <v>#N/A Requesting Data...3623037438</v>
         <stp/>
         <stp>BDP|9709414010132948664</stp>
         <tr r="I36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3522955118</v>
+        <v>#N/A Requesting Data...1149891220</v>
         <stp/>
         <stp>BDP|8903313874813256702</stp>
         <tr r="G22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2793079405</v>
+        <v>#N/A Requesting Data...2414505906</v>
         <stp/>
         <stp>BDP|8716718187516775944</stp>
         <tr r="I7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2758453385</v>
+        <v>#N/A Requesting Data...1050310957</v>
         <stp/>
         <stp>BDP|1229142784860844096</stp>
         <tr r="G10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3419453544</v>
+        <v>#N/A Requesting Data...3557025155</v>
         <stp/>
         <stp>BDP|9368482138260178629</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2799337230</v>
+        <v>#N/A Requesting Data...1514500738</v>
         <stp/>
         <stp>BDP|5394510445864909896</stp>
         <tr r="D17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4060649996</v>
+        <v>#N/A Requesting Data...2036700655</v>
         <stp/>
         <stp>BDP|4105087797586673228</stp>
         <tr r="E32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3397219834</v>
+        <v>#N/A Requesting Data...1377544938</v>
         <stp/>
         <stp>BDP|6953570282776612443</stp>
         <tr r="F34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2666573149</v>
+        <v>#N/A Requesting Data...1931853506</v>
         <stp/>
         <stp>BDP|9833780479477170760</stp>
         <tr r="I16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4197382642</v>
+        <v>#N/A Requesting Data...3984763424</v>
         <stp/>
         <stp>BDP|1876604997501045611</stp>
         <tr r="H3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3929902679</v>
+        <v>#N/A Requesting Data...3755651256</v>
         <stp/>
         <stp>BDP|6062750902370206899</stp>
         <tr r="F38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3541937268</v>
+        <v>#N/A Requesting Data...1853088771</v>
         <stp/>
         <stp>BDP|9903280076974278166</stp>
         <tr r="H5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3461109314</v>
+        <v>#N/A Requesting Data...1377765586</v>
         <stp/>
         <stp>BDP|8840874378148508654</stp>
         <tr r="F16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3033087032</v>
+        <v>#N/A Requesting Data...917873963</v>
+        <stp/>
+        <stp>BDP|6441668015430432879</stp>
+        <tr r="K2" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...614325115</v>
         <stp/>
         <stp>BDP|8032846351955867989</stp>
         <tr r="J16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3326777651</v>
+        <v>#N/A Requesting Data...2459502300</v>
         <stp/>
         <stp>BDP|9258502267732375135</stp>
         <tr r="F25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2753439472</v>
+        <v>#N/A Requesting Data...587061165</v>
         <stp/>
         <stp>BDP|3203286743086777946</stp>
         <tr r="E34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3105598124</v>
+        <stp/>
+        <stp>BDP|4508035399213532451</stp>
+        <tr r="K31" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1175325480</v>
         <stp/>
         <stp>BDP|2355798547803564849</stp>
         <tr r="I14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3898465968</v>
+        <v>#N/A Requesting Data...2007908012</v>
         <stp/>
         <stp>BDP|1100553105106899855</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2912400456</v>
+        <v>#N/A Requesting Data...3530506384</v>
         <stp/>
         <stp>BDP|4254459243278187662</stp>
         <tr r="H22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2672221364</v>
+        <v>#N/A Requesting Data...521541439</v>
         <stp/>
         <stp>BDP|5647026683564533335</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3777815983</v>
+        <v>#N/A Requesting Data...2689642484</v>
         <stp/>
         <stp>BDP|7659540921093730950</stp>
         <tr r="I37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2900100854</v>
+        <v>#N/A Requesting Data...3017589803</v>
         <stp/>
         <stp>BDP|2730770682281407615</stp>
         <tr r="F40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3514256006</v>
+        <v>#N/A Requesting Data...1464168404</v>
         <stp/>
         <stp>BDP|7144984324134818218</stp>
         <tr r="D27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3914838467</v>
+        <v>#N/A Requesting Data...1770119334</v>
         <stp/>
         <stp>BDP|1524532887684361262</stp>
         <tr r="G16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2713187142</v>
+        <v>#N/A Requesting Data...2778856088</v>
+        <stp/>
+        <stp>BDP|8018804105199199308</stp>
+        <tr r="K37" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3298735040</v>
         <stp/>
         <stp>BDP|4907323959211000809</stp>
         <tr r="I10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3000872171</v>
+        <v>#N/A Requesting Data...794578660</v>
         <stp/>
         <stp>BDP|7741530455129073522</stp>
         <tr r="D24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3300781814</v>
+        <v>#N/A Requesting Data...2562152591</v>
         <stp/>
         <stp>BDP|2214151685538402857</stp>
         <tr r="G37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2959123620</v>
+        <v>#N/A Requesting Data...2963068289</v>
         <stp/>
         <stp>BDP|6161076057888623075</stp>
         <tr r="H15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2913168344</v>
+        <v>#N/A Requesting Data...1730496324</v>
         <stp/>
         <stp>BDP|4165522957456227963</stp>
         <tr r="J38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2815302723</v>
+        <v>#N/A Requesting Data...1715950975</v>
         <stp/>
         <stp>BDP|9963874529541072976</stp>
         <tr r="F26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3922435615</v>
+        <v>#N/A Requesting Data...3190193293</v>
         <stp/>
         <stp>BDP|9638662261722139062</stp>
         <tr r="H4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3136516783</v>
+        <v>#N/A Requesting Data...1061915600</v>
         <stp/>
         <stp>BDP|7416012493186030306</stp>
         <tr r="E18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3617898973</v>
+        <v>#N/A Requesting Data...3759041679</v>
         <stp/>
         <stp>BDP|3205453182504171009</stp>
         <tr r="H17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3181074128</v>
+        <v>#N/A Requesting Data...3107364495</v>
+        <stp/>
+        <stp>BDP|5877585967875049833</stp>
+        <tr r="K28" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...528967940</v>
         <stp/>
         <stp>BDP|3561070257234684978</stp>
         <tr r="D20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3488810617</v>
+        <v>#N/A Requesting Data...1100060336</v>
         <stp/>
         <stp>BDP|6611494133221089410</stp>
         <tr r="D15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3956726069</v>
+        <v>#N/A Requesting Data...1733976048</v>
         <stp/>
         <stp>BDP|3412222707162811741</stp>
         <tr r="D3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3944397654</v>
+        <v>#N/A Requesting Data...2011278191</v>
+        <stp/>
+        <stp>BDP|7146249573466753035</stp>
+        <tr r="K40" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2188988874</v>
         <stp/>
         <stp>BDP|6758240515151118040</stp>
         <tr r="H11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4231136032</v>
+        <v>#N/A Requesting Data...2361331899</v>
         <stp/>
         <stp>BDP|1117548092580062973</stp>
         <tr r="D23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3296751967</v>
+        <v>#N/A Requesting Data...2258369570</v>
         <stp/>
         <stp>BDP|7448311748061900544</stp>
         <tr r="D18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3362910583</v>
+        <v>#N/A Requesting Data...3666407496</v>
         <stp/>
         <stp>BDP|6810252945971813543</stp>
         <tr r="E19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4186011616</v>
+        <v>#N/A Requesting Data...2643044898</v>
+        <stp/>
+        <stp>BDP|4621149754255592092</stp>
+        <tr r="K34" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4009340929</v>
         <stp/>
         <stp>BDP|9957112296381581504</stp>
         <tr r="D25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4020461850</v>
+        <v>#N/A Requesting Data...2916974798</v>
         <stp/>
         <stp>BDP|4246649014087502192</stp>
         <tr r="J21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3555631920</v>
+        <v>#N/A Requesting Data...2803302078</v>
         <stp/>
         <stp>BDP|3901374640344320529</stp>
         <tr r="J3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3141483516</v>
+        <v>#N/A Requesting Data...816307014</v>
         <stp/>
         <stp>BDP|5078916707761592816</stp>
         <tr r="E38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3844647291</v>
+        <v>#N/A Requesting Data...2124196654</v>
         <stp/>
         <stp>BDP|8049109585957220349</stp>
         <tr r="F30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2620300266</v>
+        <v>#N/A Requesting Data...3702014875</v>
         <stp/>
         <stp>BDP|2645651402385669443</stp>
         <tr r="G15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4028138369</v>
+        <v>#N/A Requesting Data...2495015481</v>
         <stp/>
         <stp>BDP|9278309673611951996</stp>
         <tr r="E28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2775719753</v>
+        <v>#N/A Requesting Data...3744535669</v>
+        <stp/>
+        <stp>BDP|4376537700681645500</stp>
+        <tr r="K18" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3942000315</v>
         <stp/>
         <stp>BDP|3268739607168560946</stp>
         <tr r="J11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4187305997</v>
+        <v>#N/A Requesting Data...1363722041</v>
         <stp/>
         <stp>BDP|7229331562665406201</stp>
         <tr r="E13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3571738731</v>
+        <v>#N/A Requesting Data...1697235501</v>
         <stp/>
         <stp>BDP|1605631833387519671</stp>
         <tr r="E24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3054642600</v>
+        <v>#N/A Requesting Data...3877635647</v>
         <stp/>
         <stp>BDP|9887296274749449042</stp>
         <tr r="E30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3694235347</v>
+        <v>#N/A Requesting Data...4171246101</v>
         <stp/>
         <stp>BDP|6633125405451713331</stp>
         <tr r="F9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3878043013</v>
+        <v>#N/A Requesting Data...2930005637</v>
+        <stp/>
+        <stp>BDP|4869880762279823506</stp>
+        <tr r="K21" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...620797232</v>
+        <stp/>
+        <stp>BDP|1601253543542899333</stp>
+        <tr r="K30" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3742789687</v>
         <stp/>
         <stp>BDP|5388480182316658923</stp>
         <tr r="H33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2649635979</v>
+        <v>#N/A Requesting Data...1548431096</v>
         <stp/>
         <stp>BDP|1094186844260394226</stp>
         <tr r="J26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2732045107</v>
+        <v>#N/A Requesting Data...2311337408</v>
         <stp/>
         <stp>BDP|1741521664583072724</stp>
         <tr r="J24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3713175622</v>
+        <v>#N/A Requesting Data...3657984561</v>
+        <stp/>
+        <stp>BDP|9738071534788342470</stp>
+        <tr r="K7" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3626398011</v>
         <stp/>
         <stp>BDP|3141332361879121948</stp>
         <tr r="I30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3499264869</v>
+        <v>#N/A Requesting Data...2206306725</v>
         <stp/>
         <stp>BDP|2757097450678568811</stp>
         <tr r="J29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3722530641</v>
+        <v>#N/A Requesting Data...3657160698</v>
         <stp/>
         <stp>BDP|3842574646657424250</stp>
         <tr r="D33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3430629059</v>
+        <v>#N/A Requesting Data...1084684737</v>
         <stp/>
         <stp>BDP|7816237061564431001</stp>
         <tr r="H23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3990709475</v>
+        <v>#N/A Requesting Data...3582941497</v>
         <stp/>
         <stp>BDP|3060273585559424792</stp>
         <tr r="D10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3564056918</v>
+        <v>#N/A Requesting Data...1459298280</v>
         <stp/>
         <stp>BDP|7060806162689955763</stp>
         <tr r="H40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2813741823</v>
+        <v>#N/A Requesting Data...4254895064</v>
         <stp/>
         <stp>BDP|1672487157546981133</stp>
         <tr r="H36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3729590774</v>
+        <v>#N/A Requesting Data...1586552700</v>
         <stp/>
         <stp>BDP|5516051814371307245</stp>
         <tr r="J23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3753694556</v>
+        <v>#N/A Requesting Data...3776324669</v>
         <stp/>
         <stp>BDP|8639864949886119597</stp>
         <tr r="J30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3439046650</v>
+        <v>#N/A Requesting Data...2608905103</v>
         <stp/>
         <stp>BDP|9954800149216615408</stp>
         <tr r="G5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3648244500</v>
+        <v>#N/A Requesting Data...2796927462</v>
         <stp/>
         <stp>BDP|6442244966480765577</stp>
         <tr r="F36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2992602602</v>
+        <v>#N/A Requesting Data...1961211237</v>
         <stp/>
         <stp>BDP|4939094663971152456</stp>
         <tr r="J32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3370763594</v>
+        <v>#N/A Requesting Data...1636589378</v>
+        <stp/>
+        <stp>BDP|3491959193587497335</stp>
+        <tr r="K29" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2741434519</v>
         <stp/>
         <stp>BDP|3617790397889057426</stp>
         <tr r="H2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4099555766</v>
+        <v>#N/A Requesting Data...3087419865</v>
         <stp/>
         <stp>BDP|8700741321044046992</stp>
         <tr r="H32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3472529412</v>
+        <v>#N/A Requesting Data...2184289510</v>
         <stp/>
         <stp>BDP|3439527856423031089</stp>
         <tr r="J35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3448983893</v>
+        <v>#N/A Requesting Data...1784263568</v>
+        <stp/>
+        <stp>BDP|7143657986591420885</stp>
+        <tr r="K15" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3933286403</v>
         <stp/>
         <stp>BDP|7620261959194458425</stp>
         <tr r="D26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2627268506</v>
+        <v>#N/A Requesting Data...4034658276</v>
         <stp/>
         <stp>BDP|3089540010182281594</stp>
         <tr r="G7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3423717048</v>
+        <v>#N/A Requesting Data...1411533086</v>
         <stp/>
         <stp>BDP|4831722547472345517</stp>
         <tr r="G31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3776281782</v>
+        <v>#N/A Requesting Data...708132223</v>
         <stp/>
         <stp>BDP|2426147378070427404</stp>
         <tr r="F19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3259250672</v>
+        <v>#N/A Requesting Data...3361010169</v>
+        <stp/>
+        <stp>BDP|6668143837075365151</stp>
+        <tr r="K25" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3004034145</v>
+        <stp/>
+        <stp>BDP|6120913140769307200</stp>
+        <tr r="K19" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3592802555</v>
         <stp/>
         <stp>BDP|9673923293369700006</stp>
         <tr r="I9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3999781209</v>
+        <v>#N/A Requesting Data...2317004643</v>
         <stp/>
         <stp>BDP|5674351600362568460</stp>
         <tr r="I4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3435109743</v>
+        <v>#N/A Requesting Data...2798742720</v>
         <stp/>
         <stp>BDP|4389151391634762867</stp>
         <tr r="I32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1672136131</v>
         <stp/>
         <stp>BDP|1363007164777347026</stp>
         <tr r="J14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3637779234</v>
+        <v>#N/A Requesting Data...1707689399</v>
         <stp/>
         <stp>BDP|6570891121399913523</stp>
         <tr r="E12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3397742567</v>
+        <v>#N/A Requesting Data...2670378282</v>
         <stp/>
         <stp>BDP|3180488169709752801</stp>
         <tr r="E33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4108978166</v>
+        <v>#N/A Requesting Data...1674159273</v>
         <stp/>
         <stp>BDP|6088694172623483559</stp>
         <tr r="F4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3871584421</v>
+        <v>#N/A Requesting Data...3610071114</v>
+        <stp/>
+        <stp>BDP|2152549497607089882</stp>
+        <tr r="C2" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1600420799</v>
+        <stp/>
+        <stp>BDP|5451238880898555683</stp>
+        <tr r="K22" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3274081697</v>
         <stp/>
         <stp>BDP|4762663301374699781</stp>
         <tr r="E9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2866574373</v>
+        <v>#N/A Requesting Data...3694641203</v>
         <stp/>
         <stp>BDP|4200522467422269467</stp>
         <tr r="G38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2715211813</v>
+        <v>#N/A Requesting Data...2405207907</v>
         <stp/>
         <stp>BDP|8820951675676317182</stp>
         <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4190490373</v>
+        <v>#N/A Requesting Data...1317521438</v>
         <stp/>
         <stp>BDP|4491242868133807267</stp>
         <tr r="I22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3172243408</v>
+        <v>#N/A Requesting Data...1380350247</v>
         <stp/>
         <stp>BDP|1334502575085304735</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3456251464</v>
+        <v>#N/A Requesting Data...1141742643</v>
+        <stp/>
+        <stp>BDP|8823915155091099483</stp>
+        <tr r="K11" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1294640449</v>
         <stp/>
         <stp>BDP|4152707605242805376</stp>
         <tr r="F22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3576014487</v>
+        <v>#N/A Requesting Data...2293367507</v>
         <stp/>
         <stp>BDP|6313300206097234083</stp>
         <tr r="I15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3339375982</v>
+        <v>#N/A Requesting Data...3096793495</v>
         <stp/>
         <stp>BDP|7202265739744780060</stp>
         <tr r="H38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3346156882</v>
+        <v>#N/A Requesting Data...2557516986</v>
         <stp/>
         <stp>BDP|5934543001395648774</stp>
         <tr r="E20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3923141761</v>
+        <v>#N/A Requesting Data...2230477617</v>
         <stp/>
         <stp>BDP|5897704495699391030</stp>
         <tr r="I5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2905267918</v>
+        <v>#N/A Requesting Data...3691604820</v>
         <stp/>
         <stp>BDP|1191269861077748005</stp>
         <tr r="H31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3652107614</v>
+        <v>#N/A Requesting Data...1232632985</v>
         <stp/>
         <stp>BDP|7898088615521571574</stp>
         <tr r="J22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3024894998</v>
+        <v>#N/A Requesting Data...3684039037</v>
         <stp/>
         <stp>BDP|7930082214057885259</stp>
         <tr r="I40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120371125</v>
+        <v>#N/A Requesting Data...3406415775</v>
         <stp/>
         <stp>BDP|6585599774337876081</stp>
         <tr r="F23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3759429015</v>
+        <v>#N/A Requesting Data...1712807760</v>
         <stp/>
         <stp>BDP|6303327670891951016</stp>
         <tr r="G21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4210888943</v>
+        <v>#N/A Requesting Data...1400613822</v>
         <stp/>
         <stp>BDP|6373380307233113539</stp>
         <tr r="E7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4253483723</v>
+        <v>#N/A Requesting Data...2432704784</v>
         <stp/>
         <stp>BDP|4244742944204581055</stp>
         <tr r="F27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3352286807</v>
+        <v>#N/A Requesting Data...2957377513</v>
         <stp/>
         <stp>BDP|3386196408039056825</stp>
         <tr r="E6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3535443093</v>
+        <v>#N/A Requesting Data...3060873337</v>
         <stp/>
         <stp>BDP|7397031602083518761</stp>
         <tr r="I23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3445451051</v>
+        <v>#N/A Requesting Data...3254303703</v>
         <stp/>
         <stp>BDP|5181252534336429124</stp>
         <tr r="I6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2610852718</v>
+        <v>#N/A Requesting Data...3289015951</v>
         <stp/>
         <stp>BDP|1298503726586622350</stp>
         <tr r="G23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3408037660</v>
+        <v>#N/A Requesting Data...1112786417</v>
         <stp/>
         <stp>BDP|8597678179608851266</stp>
         <tr r="I25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2746271249</v>
+        <v>#N/A Requesting Data...2025073909</v>
         <stp/>
         <stp>BDP|248078865701908213</stp>
         <tr r="J27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3395819967</v>
+        <v>#N/A Requesting Data...3970279722</v>
         <stp/>
         <stp>BDP|694727994728670286</stp>
         <tr r="J28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2682369829</v>
+        <v>#N/A Requesting Data...3162549001</v>
         <stp/>
         <stp>BDP|231950328448225497</stp>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3002416625</v>
+        <v>#N/A Requesting Data...2899719426</v>
         <stp/>
         <stp>BDP|216490765296499547</stp>
         <tr r="I17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3434469379</v>
+        <v>#N/A Requesting Data...2140539410</v>
         <stp/>
         <stp>BDP|417742120137024217</stp>
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3138533080</v>
+        <v>#N/A Requesting Data...3892139374</v>
         <stp/>
         <stp>BDP|703867115952262892</stp>
         <tr r="E29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3465284589</v>
+        <v>#N/A Requesting Data...1411043377</v>
         <stp/>
         <stp>BDP|219670546364012564</stp>
         <tr r="G24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2732293954</v>
+        <v>#N/A Requesting Data...2886005470</v>
         <stp/>
         <stp>BDP|905756424497015022</stp>
         <tr r="J4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3594702055</v>
+        <v>#N/A Requesting Data...4086494846</v>
         <stp/>
         <stp>BDP|221381961852502555</stp>
         <tr r="E21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3705391362</v>
+        <v>#N/A Requesting Data...1884947795</v>
         <stp/>
         <stp>BDP|867397090809418128</stp>
         <tr r="I11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3673138746</v>
+        <v>#N/A Requesting Data...2783049790</v>
         <stp/>
         <stp>BDP|993117395996018364</stp>
         <tr r="J13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4231646981</v>
+        <v>#N/A Requesting Data...3192615497</v>
+        <stp/>
+        <stp>BDP|818417412029973163</stp>
+        <tr r="K4" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3409292137</v>
         <stp/>
         <stp>BDP|963073539767564866</stp>
         <tr r="F35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4000235523</v>
+        <v>#N/A Requesting Data...845804540</v>
         <stp/>
         <stp>BDP|790641586116186405</stp>
         <tr r="G28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4231494392</v>
+        <v>#N/A Requesting Data...3680490705</v>
         <stp/>
         <stp>BDP|532943154230282053</stp>
         <tr r="H27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3608725507</v>
+        <v>#N/A Requesting Data...4008264487</v>
         <stp/>
         <stp>BDP|338856410464461328</stp>
         <tr r="G18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3646831337</v>
+        <v>#N/A Requesting Data...3472005199</v>
         <stp/>
         <stp>BDP|264869505427491615</stp>
         <tr r="E27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3207650591</v>
+        <v>#N/A Requesting Data...821131003</v>
         <stp/>
         <stp>BDP|813867508731817124</stp>
         <tr r="I29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2632335697</v>
+        <v>#N/A Requesting Data...1598065358</v>
         <stp/>
         <stp>BDP|297929672332994410</stp>
         <tr r="D35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2873297112</v>
         <stp/>
         <stp>BDP|455400142338284048</stp>
         <tr r="F14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3921530081</v>
+        <v>#N/A Requesting Data...4166595292</v>
         <stp/>
         <stp>BDP|748791461872049867</stp>
         <tr r="I21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3166060113</v>
+        <v>#N/A Requesting Data...1874556401</v>
         <stp/>
         <stp>BDP|774584681411243764</stp>
         <tr r="E11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2880825264</v>
+        <v>#N/A Requesting Data...2039197640</v>
         <stp/>
         <stp>BDP|112397016921832920</stp>
         <tr r="H37" s="2"/>
@@ -2472,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E22B6-F943-4AAF-BA00-25DE4BF4BBFF}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,7 +2735,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2520,7 +2770,9 @@
       <c r="J1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2538,27 +2790,31 @@
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">_xll.BDP(C2,$E$1)</f>
-        <v>-0.37324570000000001</v>
+        <v>-6.9206620000000001</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.BDP(C2,$F$1)</f>
-        <v>0</v>
+        <v>-1.8655010000000001</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">_xll.BDP(C2,$G$1)</f>
-        <v>0.98365919999999996</v>
+        <v>-1.136709</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">_xll.BDP(C2,$H$1)</f>
-        <v>6.2918149999999997</v>
+        <v>1.810519</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">_xll.BDP(C2,$I$1)</f>
-        <v>5.5520399999999999</v>
+        <v>3.179373</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">_xll.BDP(C2,$J$1)</f>
-        <v>-1.7086490000000001</v>
+        <v>-7.8281809999999998</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">_xll.BDP(C2,$K$1)</f>
+        <v>1.688234</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2577,27 +2833,31 @@
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(C3,$E$1)</f>
-        <v>0.1931745</v>
+        <v>-4.8436459999999997</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" ref="F3">_xll.BDP(C3,$F$1)</f>
-        <v>3.6228039999999999</v>
+        <v>-7.2984210000000003</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">_xll.BDP(C3,$G$1)</f>
-        <v>0.37414619999999998</v>
+        <v>-6.1671670000000001</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">_xll.BDP(C3,$H$1)</f>
-        <v>4.8376229999999998</v>
+        <v>-6.7666240000000002</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">_xll.BDP(C3,$I$1)</f>
-        <v>5.3344139999999998</v>
+        <v>-3.1816970000000002</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3">_xll.BDP(C3,$J$1)</f>
-        <v>-2.6282800000000002</v>
+        <v>-10.50062</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3">_xll.BDP(C3,$K$1)</f>
+        <v>-5.6338600000000003</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2616,27 +2876,31 @@
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(C4,$E$1)</f>
-        <v>1.1138410000000001</v>
+        <v>-6.6781410000000001</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">_xll.BDP(C4,$F$1)</f>
-        <v>10.25183</v>
+        <v>-13.345050000000001</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">_xll.BDP(C4,$G$1)</f>
-        <v>6.3943459999999996</v>
+        <v>-3.4028170000000002</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">_xll.BDP(C4,$H$1)</f>
-        <v>25.825520000000001</v>
+        <v>-1.489827</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">_xll.BDP(C4,$I$1)</f>
-        <v>23.13983</v>
+        <v>8.158785</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4">_xll.BDP(C4,$J$1)</f>
-        <v>-1.0737209999999999</v>
+        <v>-14.11373</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" ref="K4">_xll.BDP(C4,$K$1)</f>
+        <v>-0.50727800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2655,27 +2919,31 @@
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(C5,$E$1)</f>
-        <v>0</v>
+        <v>-10.05208</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">_xll.BDP(C5,$F$1)</f>
-        <v>-6.1382640000000004</v>
+        <v>-13.28145</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">_xll.BDP(C5,$G$1)</f>
-        <v>-2.3195269999999999</v>
+        <v>-18.025400000000001</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">_xll.BDP(C5,$H$1)</f>
-        <v>3.8233350000000002</v>
+        <v>-5.6670759999999998</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">_xll.BDP(C5,$I$1)</f>
-        <v>0.65184200000000003</v>
+        <v>-11.70757</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" ref="J5">_xll.BDP(C5,$J$1)</f>
-        <v>-15.30437</v>
+        <v>-19.599630000000001</v>
+      </c>
+      <c r="K5" cm="1">
+        <f t="array" ref="K5">_xll.BDP(C5,$K$1)</f>
+        <v>-11.270210000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,27 +2962,31 @@
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(C6,$E$1)</f>
-        <v>-2.4327369999999999</v>
+        <v>-6.0116849999999999</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.BDP(C6,$F$1)</f>
-        <v>1.169394</v>
+        <v>1.917303</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">_xll.BDP(C6,$G$1)</f>
-        <v>4.9748650000000003</v>
+        <v>4.7284579999999998</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">_xll.BDP(C6,$H$1)</f>
-        <v>3.06331</v>
+        <v>3.2426949999999999</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">_xll.BDP(C6,$I$1)</f>
-        <v>5.1023930000000002</v>
+        <v>6.0916329999999999</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">_xll.BDP(C6,$J$1)</f>
-        <v>-4.101343</v>
+        <v>-7.3647530000000003</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">_xll.BDP(C6,$K$1)</f>
+        <v>5.7285940000000002</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2733,27 +3005,31 @@
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(C7,$E$1)</f>
-        <v>0.5176558</v>
+        <v>-13.64073</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.BDP(C7,$F$1)</f>
-        <v>18.802579999999999</v>
+        <v>-15.41212</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">_xll.BDP(C7,$G$1)</f>
-        <v>16.237310000000001</v>
+        <v>-0.53109209999999996</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">_xll.BDP(C7,$H$1)</f>
-        <v>20.621179999999999</v>
+        <v>21.257079999999998</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.BDP(C7,$I$1)</f>
-        <v>1.6641729999999999</v>
+        <v>-15.94989</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">_xll.BDP(C7,$J$1)</f>
-        <v>-5.1299970000000004</v>
+        <v>-29.80949</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">_xll.BDP(C7,$K$1)</f>
+        <v>2.0154540000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2772,27 +3048,31 @@
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(C8,$E$1)</f>
-        <v>0.29520299999999999</v>
+        <v>-5.8261310000000002</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.BDP(C8,$F$1)</f>
-        <v>-0.10501240000000001</v>
+        <v>-2.1033719999999998</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" ref="G8">_xll.BDP(C8,$G$1)</f>
-        <v>-1.2457199999999999</v>
+        <v>-2.2273869999999998</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" ref="H8">_xll.BDP(C8,$H$1)</f>
-        <v>7.4915250000000002</v>
+        <v>2.796894</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.BDP(C8,$I$1)</f>
-        <v>8.2991849999999996</v>
+        <v>5.4417169999999997</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" ref="J8">_xll.BDP(C8,$J$1)</f>
-        <v>-2.0792630000000001</v>
+        <v>-6.8209239999999998</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">_xll.BDP(C8,$K$1)</f>
+        <v>1.5223439999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2811,27 +3091,31 @@
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(C9,$E$1)</f>
-        <v>-0.79356789999999999</v>
+        <v>-5.3973649999999997</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.BDP(C9,$F$1)</f>
-        <v>0.61421329999999996</v>
+        <v>-6.3525489999999998</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" ref="G9">_xll.BDP(C9,$G$1)</f>
-        <v>0.1053611</v>
+        <v>-5.195913</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" ref="H9">_xll.BDP(C9,$H$1)</f>
-        <v>11.109819999999999</v>
+        <v>-0.91253130000000005</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.BDP(C9,$I$1)</f>
-        <v>9.534243</v>
+        <v>2.651605</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">_xll.BDP(C9,$J$1)</f>
-        <v>-1.8187420000000001</v>
+        <v>-8.6300629999999998</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">_xll.BDP(C9,$K$1)</f>
+        <v>-1.561323</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2850,27 +3134,31 @@
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xll.BDP(C10,$E$1)</f>
-        <v>-3.1795429999999998</v>
+        <v>-3.8046410000000002</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.BDP(C10,$F$1)</f>
-        <v>-10.460459999999999</v>
+        <v>-1.952693</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10">_xll.BDP(C10,$G$1)</f>
-        <v>-1.9860310000000001</v>
+        <v>-3.8694869999999999</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" ref="H10">_xll.BDP(C10,$H$1)</f>
-        <v>-9.5093580000000006</v>
+        <v>-3.33514</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.BDP(C10,$I$1)</f>
-        <v>-12.59314</v>
+        <v>-12.91072</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" ref="J10">_xll.BDP(C10,$J$1)</f>
-        <v>-27.269030000000001</v>
+        <v>-20.77778</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">_xll.BDP(C10,$K$1)</f>
+        <v>-4.3315799999999998</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2889,27 +3177,31 @@
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xll.BDP(C11,$E$1)</f>
-        <v>1.113861</v>
+        <v>-3.466777</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.BDP(C11,$F$1)</f>
-        <v>5.4874080000000003</v>
+        <v>-5.1884880000000004</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">_xll.BDP(C11,$G$1)</f>
-        <v>6.287947</v>
+        <v>2.7228789999999998</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" ref="H11">_xll.BDP(C11,$H$1)</f>
-        <v>18.148949999999999</v>
+        <v>5.7414059999999996</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.BDP(C11,$I$1)</f>
-        <v>16.051130000000001</v>
+        <v>10.748100000000001</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" ref="J11">_xll.BDP(C11,$J$1)</f>
-        <v>0</v>
+        <v>-6.7941820000000002</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">_xll.BDP(C11,$K$1)</f>
+        <v>5.3259420000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2928,27 +3220,31 @@
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(C12,$E$1)</f>
-        <v>3.2051280000000002</v>
+        <v>-6.6804690000000004</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.BDP(C12,$F$1)</f>
-        <v>9.7621079999999996</v>
+        <v>-10.61608</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" ref="G12">_xll.BDP(C12,$G$1)</f>
-        <v>2.201511</v>
+        <v>-6.7062249999999999</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" ref="H12">_xll.BDP(C12,$H$1)</f>
-        <v>16.487069999999999</v>
+        <v>-5.7962889999999998</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.BDP(C12,$I$1)</f>
-        <v>12.053900000000001</v>
+        <v>0.1184677</v>
       </c>
       <c r="J12" cm="1">
         <f t="array" ref="J12">_xll.BDP(C12,$J$1)</f>
-        <v>-0.85167919999999997</v>
+        <v>-11.412470000000001</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">_xll.BDP(C12,$K$1)</f>
+        <v>-3.393659</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,27 +3263,31 @@
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(C13,$E$1)</f>
-        <v>2.4759280000000001</v>
+        <v>-6.951136</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.BDP(C13,$F$1)</f>
-        <v>7.762778</v>
+        <v>-9.2617469999999997</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" ref="G13">_xll.BDP(C13,$G$1)</f>
-        <v>-1.4984599999999999</v>
+        <v>-7.1641079999999997</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" ref="H13">_xll.BDP(C13,$H$1)</f>
-        <v>4.3904719999999999</v>
+        <v>-12.378489999999999</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.BDP(C13,$I$1)</f>
-        <v>1.337564</v>
+        <v>-8.0480630000000009</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" ref="J13">_xll.BDP(C13,$J$1)</f>
-        <v>-8.9983679999999993</v>
+        <v>-17.42671</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">_xll.BDP(C13,$K$1)</f>
+        <v>-6.8334510000000002</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3006,27 +3306,31 @@
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(C14,$E$1)</f>
-        <v>-1.195743E-2</v>
+        <v>-5.299372</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.BDP(C14,$F$1)</f>
-        <v>4.0567409999999997</v>
+        <v>-6.6404839999999998</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" ref="G14">_xll.BDP(C14,$G$1)</f>
-        <v>0.56524859999999999</v>
+        <v>-4.1305100000000001</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" ref="H14">_xll.BDP(C14,$H$1)</f>
-        <v>10.25844</v>
+        <v>-2.7881</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.BDP(C14,$I$1)</f>
-        <v>7.6606129999999997</v>
+        <v>1.004246</v>
       </c>
       <c r="J14" cm="1">
         <f t="array" ref="J14">_xll.BDP(C14,$J$1)</f>
-        <v>-0.95936719999999998</v>
+        <v>-8.4597420000000003</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">_xll.BDP(C14,$K$1)</f>
+        <v>-0.89854590000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3045,27 +3349,31 @@
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(C15,$E$1)</f>
-        <v>1.513514</v>
+        <v>-5.265231</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.BDP(C15,$F$1)</f>
-        <v>1.830014</v>
+        <v>-3.452429</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" ref="G15">_xll.BDP(C15,$G$1)</f>
-        <v>0.29372799999999999</v>
+        <v>-2.0898349999999999</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" ref="H15">_xll.BDP(C15,$H$1)</f>
-        <v>1.788616</v>
+        <v>-3.4395090000000001</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.BDP(C15,$I$1)</f>
-        <v>0.52187810000000001</v>
+        <v>-3.452429</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">_xll.BDP(C15,$J$1)</f>
-        <v>-0.83167959999999996</v>
+        <v>-6.794988</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">_xll.BDP(C15,$K$1)</f>
+        <v>-1.163573</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3084,30 +3392,34 @@
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(C16,$E$1)</f>
-        <v>-0.40195959999999997</v>
+        <v>-6.2073320000000001</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.BDP(C16,$F$1)</f>
-        <v>1.96759</v>
+        <v>-6.995107</v>
       </c>
       <c r="G16" cm="1">
         <f t="array" ref="G16">_xll.BDP(C16,$G$1)</f>
-        <v>8.8849219999999995</v>
+        <v>-0.7889794</v>
       </c>
       <c r="H16" cm="1">
         <f t="array" ref="H16">_xll.BDP(C16,$H$1)</f>
-        <v>23.755269999999999</v>
+        <v>4.8770179999999996</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.BDP(C16,$I$1)</f>
-        <v>20.721679999999999</v>
+        <v>12.956759999999999</v>
       </c>
       <c r="J16" cm="1">
         <f t="array" ref="J16">_xll.BDP(C16,$J$1)</f>
-        <v>-5.1781889999999997</v>
+        <v>-11.27721</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">_xll.BDP(C16,$K$1)</f>
+        <v>3.6706759999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -3123,30 +3435,34 @@
       </c>
       <c r="E17" cm="1">
         <f t="array" ref="E17">_xll.BDP(C17,$E$1)</f>
-        <v>0.13700509999999999</v>
+        <v>-5.3978849999999996</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.BDP(C17,$F$1)</f>
-        <v>3.30742</v>
+        <v>-6.7599070000000001</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" ref="G17">_xll.BDP(C17,$G$1)</f>
-        <v>3.600279</v>
+        <v>-4.252319</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" ref="H17">_xll.BDP(C17,$H$1)</f>
-        <v>20.075569999999999</v>
+        <v>4.4065760000000003</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.BDP(C17,$I$1)</f>
-        <v>17.056380000000001</v>
+        <v>8.9045509999999997</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">_xll.BDP(C17,$J$1)</f>
-        <v>-1.707913</v>
+        <v>-8.9448319999999999</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">_xll.BDP(C17,$K$1)</f>
+        <v>1.700412</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -3162,30 +3478,34 @@
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xll.BDP(C18,$E$1)</f>
-        <v>0.73017679999999996</v>
+        <v>-9.4503380000000003</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.BDP(C18,$F$1)</f>
-        <v>2.5792959999999998</v>
+        <v>-15.746980000000001</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" ref="G18">_xll.BDP(C18,$G$1)</f>
-        <v>4.7952519999999996</v>
+        <v>-10.014379999999999</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" ref="H18">_xll.BDP(C18,$H$1)</f>
-        <v>22.166879999999999</v>
+        <v>-3.8648570000000002</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.BDP(C18,$I$1)</f>
-        <v>19.262460000000001</v>
+        <v>1.472378</v>
       </c>
       <c r="J18" cm="1">
         <f t="array" ref="J18">_xll.BDP(C18,$J$1)</f>
-        <v>-0.78660180000000002</v>
+        <v>-17.649640000000002</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">_xll.BDP(C18,$K$1)</f>
+        <v>-5.4288410000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -3201,30 +3521,34 @@
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.BDP(C19,$E$1)</f>
-        <v>-0.3406979</v>
+        <v>-5.1278230000000002</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.BDP(C19,$F$1)</f>
-        <v>1.7604880000000001</v>
+        <v>-0.46869939999999999</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" ref="G19">_xll.BDP(C19,$G$1)</f>
-        <v>6.9821600000000004</v>
+        <v>2.2797770000000002</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" ref="H19">_xll.BDP(C19,$H$1)</f>
-        <v>8.5338419999999999</v>
+        <v>9.4616319999999998</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.BDP(C19,$I$1)</f>
-        <v>10.332610000000001</v>
+        <v>9.2239159999999991</v>
       </c>
       <c r="J19" cm="1">
         <f t="array" ref="J19">_xll.BDP(C19,$J$1)</f>
-        <v>-0.73015319999999995</v>
+        <v>-6.6112909999999996</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">_xll.BDP(C19,$K$1)</f>
+        <v>6.2501709999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -3240,30 +3564,34 @@
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(C20,$E$1)</f>
-        <v>-0.2117647</v>
+        <v>-4.1485219999999998</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.BDP(C20,$F$1)</f>
-        <v>-1.096085</v>
+        <v>-1.2980860000000001</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" ref="G20">_xll.BDP(C20,$G$1)</f>
-        <v>0.1416801</v>
+        <v>-1.2747889999999999</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" ref="H20">_xll.BDP(C20,$H$1)</f>
-        <v>5.1574460000000002</v>
+        <v>1.8757630000000001</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.BDP(C20,$I$1)</f>
-        <v>3.9715590000000001</v>
+        <v>2.5251260000000002</v>
       </c>
       <c r="J20" cm="1">
         <f t="array" ref="J20">_xll.BDP(C20,$J$1)</f>
-        <v>-2.9519470000000001</v>
+        <v>-4.8247590000000002</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">_xll.BDP(C20,$K$1)</f>
+        <v>1.9077630000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -3279,30 +3607,34 @@
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(C21,$E$1)</f>
-        <v>1.1651039999999999</v>
+        <v>-4.2493670000000003</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.BDP(C21,$F$1)</f>
-        <v>-1.5622860000000001</v>
+        <v>-3.7235510000000001</v>
       </c>
       <c r="G21" cm="1">
         <f t="array" ref="G21">_xll.BDP(C21,$G$1)</f>
-        <v>5.4346240000000003</v>
+        <v>1.8563130000000001</v>
       </c>
       <c r="H21" cm="1">
         <f t="array" ref="H21">_xll.BDP(C21,$H$1)</f>
-        <v>17.82227</v>
+        <v>25.226479999999999</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.BDP(C21,$I$1)</f>
-        <v>13.57474</v>
+        <v>14.65944</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" ref="J21">_xll.BDP(C21,$J$1)</f>
-        <v>-7.231274</v>
+        <v>-10.15</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">_xll.BDP(C21,$K$1)</f>
+        <v>10.898110000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -3318,30 +3650,34 @@
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(C22,$E$1)</f>
-        <v>-2.7926319999999998</v>
+        <v>-6.6115700000000004</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.BDP(C22,$F$1)</f>
-        <v>-11.92937</v>
+        <v>-7.6775200000000003</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" ref="G22">_xll.BDP(C22,$G$1)</f>
-        <v>-5.0823859999999996</v>
+        <v>-11.423629999999999</v>
       </c>
       <c r="H22" cm="1">
         <f t="array" ref="H22">_xll.BDP(C22,$H$1)</f>
-        <v>-1.824289</v>
+        <v>-8.6868680000000005</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.BDP(C22,$I$1)</f>
-        <v>-4.9941890000000004</v>
+        <v>-10.75493</v>
       </c>
       <c r="J22" cm="1">
         <f t="array" ref="J22">_xll.BDP(C22,$J$1)</f>
-        <v>-18.379560000000001</v>
+        <v>-18.970790000000001</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">_xll.BDP(C22,$K$1)</f>
+        <v>-8.5898099999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -3357,30 +3693,34 @@
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(C23,$E$1)</f>
-        <v>0.49114639999999998</v>
+        <v>-5.6571730000000002</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.BDP(C23,$F$1)</f>
-        <v>5.0959669999999999</v>
+        <v>-7.470529</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" ref="G23">_xll.BDP(C23,$G$1)</f>
-        <v>6.3611510000000004</v>
+        <v>-0.55088910000000002</v>
       </c>
       <c r="H23" cm="1">
         <f t="array" ref="H23">_xll.BDP(C23,$H$1)</f>
-        <v>17.535900000000002</v>
+        <v>3.4675440000000002</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.BDP(C23,$I$1)</f>
-        <v>15.56183</v>
+        <v>7.3275880000000004</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" ref="J23">_xll.BDP(C23,$J$1)</f>
-        <v>-0.29495169999999998</v>
+        <v>-9.0668729999999993</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">_xll.BDP(C23,$K$1)</f>
+        <v>2.0422570000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -3396,30 +3736,34 @@
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(C24,$E$1)</f>
-        <v>0.67848540000000002</v>
+        <v>-5.5481579999999999</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.BDP(C24,$F$1)</f>
-        <v>4.0841729999999998</v>
+        <v>-7.858841</v>
       </c>
       <c r="G24" cm="1">
         <f t="array" ref="G24">_xll.BDP(C24,$G$1)</f>
-        <v>1.2435320000000001</v>
+        <v>-4.9469599999999998</v>
       </c>
       <c r="H24" cm="1">
         <f t="array" ref="H24">_xll.BDP(C24,$H$1)</f>
-        <v>9.1858509999999995</v>
+        <v>-1.9580740000000001</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.BDP(C24,$I$1)</f>
-        <v>8.5673849999999998</v>
+        <v>0.44843300000000003</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" ref="J24">_xll.BDP(C24,$J$1)</f>
-        <v>-0.3574156</v>
+        <v>-8.747852</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">_xll.BDP(C24,$K$1)</f>
+        <v>-2.4975230000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3435,30 +3779,34 @@
       </c>
       <c r="E25" cm="1">
         <f t="array" ref="E25">_xll.BDP(C25,$E$1)</f>
-        <v>-1.863202</v>
+        <v>-6.7966170000000004</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.BDP(C25,$F$1)</f>
-        <v>-1.7186319999999999</v>
+        <v>-9.3034920000000003</v>
       </c>
       <c r="G25" cm="1">
         <f t="array" ref="G25">_xll.BDP(C25,$G$1)</f>
-        <v>-6.7551800000000002</v>
+        <v>-12.728149999999999</v>
       </c>
       <c r="H25" cm="1">
         <f t="array" ref="H25">_xll.BDP(C25,$H$1)</f>
-        <v>1.7539419999999999</v>
+        <v>-12.04866</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.BDP(C25,$I$1)</f>
-        <v>-1.3796489999999999</v>
+        <v>-10.943580000000001</v>
       </c>
       <c r="J25" cm="1">
         <f t="array" ref="J25">_xll.BDP(C25,$J$1)</f>
-        <v>-10.125730000000001</v>
+        <v>-18.84149</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">_xll.BDP(C25,$K$1)</f>
+        <v>-10.7211</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -3474,30 +3822,34 @@
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.BDP(C26,$E$1)</f>
-        <v>-1.2615110000000001E-2</v>
+        <v>-6.588997</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.BDP(C26,$F$1)</f>
-        <v>5.4550320000000001</v>
+        <v>-9.6531859999999998</v>
       </c>
       <c r="G26" cm="1">
         <f t="array" ref="G26">_xll.BDP(C26,$G$1)</f>
-        <v>1.511269</v>
+        <v>-5.0526299999999997</v>
       </c>
       <c r="H26" cm="1">
         <f t="array" ref="H26">_xll.BDP(C26,$H$1)</f>
-        <v>18.104600000000001</v>
+        <v>-2.3545310000000002</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.BDP(C26,$I$1)</f>
-        <v>13.781219999999999</v>
+        <v>3.5888589999999998</v>
       </c>
       <c r="J26" cm="1">
         <f t="array" ref="J26">_xll.BDP(C26,$J$1)</f>
-        <v>-1.845197</v>
+        <v>-11.64442</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">_xll.BDP(C26,$K$1)</f>
+        <v>-1.213473</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -3513,30 +3865,34 @@
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xll.BDP(C27,$E$1)</f>
-        <v>-0.24318219999999999</v>
+        <v>-4.4043200000000002</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.BDP(C27,$F$1)</f>
-        <v>-0.43342629999999999</v>
+        <v>-1.3409930000000001</v>
       </c>
       <c r="G27" cm="1">
         <f t="array" ref="G27">_xll.BDP(C27,$G$1)</f>
-        <v>1.6640079999999999</v>
+        <v>-1.5809610000000001</v>
       </c>
       <c r="H27" cm="1">
         <f t="array" ref="H27">_xll.BDP(C27,$H$1)</f>
-        <v>25.447800000000001</v>
+        <v>14.46757</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.BDP(C27,$I$1)</f>
-        <v>25.942990000000002</v>
+        <v>24.23246</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">_xll.BDP(C27,$J$1)</f>
-        <v>-2.4957579999999999</v>
+        <v>-6.1775409999999997</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">_xll.BDP(C27,$K$1)</f>
+        <v>7.8490919999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -3552,30 +3908,34 @@
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xll.BDP(C28,$E$1)</f>
-        <v>-1.0912139999999999</v>
+        <v>-4.2020369999999998</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.BDP(C28,$F$1)</f>
-        <v>0.64056800000000003</v>
+        <v>-3.7800220000000002</v>
       </c>
       <c r="G28" cm="1">
         <f t="array" ref="G28">_xll.BDP(C28,$G$1)</f>
-        <v>1.84385</v>
+        <v>-2.882962</v>
       </c>
       <c r="H28" cm="1">
         <f t="array" ref="H28">_xll.BDP(C28,$H$1)</f>
-        <v>8.9368300000000005</v>
+        <v>1.0446169999999999</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.BDP(C28,$I$1)</f>
-        <v>7.626735</v>
+        <v>3.075053</v>
       </c>
       <c r="J28" cm="1">
         <f t="array" ref="J28">_xll.BDP(C28,$J$1)</f>
-        <v>-2.2129989999999999</v>
+        <v>-6.3485490000000002</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">_xll.BDP(C28,$K$1)</f>
+        <v>0.43051440000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -3591,30 +3951,34 @@
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(C29,$E$1)</f>
-        <v>1.1631629999999999</v>
+        <v>-5.7921269999999998</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.BDP(C29,$F$1)</f>
-        <v>2.6307209999999999</v>
+        <v>-6.404515</v>
       </c>
       <c r="G29" cm="1">
         <f t="array" ref="G29">_xll.BDP(C29,$G$1)</f>
-        <v>0.99072890000000002</v>
+        <v>-5.8829830000000003</v>
       </c>
       <c r="H29" cm="1">
         <f t="array" ref="H29">_xll.BDP(C29,$H$1)</f>
-        <v>13.139989999999999</v>
+        <v>0.36567</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.BDP(C29,$I$1)</f>
-        <v>15.104419999999999</v>
+        <v>6.6415730000000002</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">_xll.BDP(C29,$J$1)</f>
-        <v>-1.1160939999999999</v>
+        <v>-8.3863570000000003</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">_xll.BDP(C29,$K$1)</f>
+        <v>-2.0543749999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -3630,30 +3994,34 @@
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(C30,$E$1)</f>
-        <v>-0.60498750000000001</v>
+        <v>-5.1148999999999996</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.BDP(C30,$F$1)</f>
-        <v>0.1784684</v>
+        <v>-5.5211069999999998</v>
       </c>
       <c r="G30" cm="1">
         <f t="array" ref="G30">_xll.BDP(C30,$G$1)</f>
-        <v>-0.53160249999999998</v>
+        <v>-4.9599000000000002</v>
       </c>
       <c r="H30" cm="1">
         <f t="array" ref="H30">_xll.BDP(C30,$H$1)</f>
-        <v>4.2724479999999998</v>
+        <v>-4.8327140000000002</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.BDP(C30,$I$1)</f>
-        <v>3.1388799999999999</v>
+        <v>-2.0058150000000001</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" ref="J30">_xll.BDP(C30,$J$1)</f>
-        <v>-3.7714279999999998</v>
+        <v>-8.5714290000000002</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">_xll.BDP(C30,$K$1)</f>
+        <v>-3.582144</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -3669,30 +4037,34 @@
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(C31,$E$1)</f>
-        <v>1.2960080000000001E-2</v>
+        <v>-2.9307859999999999</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.BDP(C31,$F$1)</f>
-        <v>0.9021922</v>
+        <v>-4.603313</v>
       </c>
       <c r="G31" cm="1">
         <f t="array" ref="G31">_xll.BDP(C31,$G$1)</f>
-        <v>2.3474780000000002</v>
+        <v>-2.420096</v>
       </c>
       <c r="H31" cm="1">
         <f t="array" ref="H31">_xll.BDP(C31,$H$1)</f>
-        <v>6.9428989999999997</v>
+        <v>1.9513579999999999</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.BDP(C31,$I$1)</f>
-        <v>6.5736720000000002</v>
+        <v>2.4582190000000002</v>
       </c>
       <c r="J31" cm="1">
         <f t="array" ref="J31">_xll.BDP(C31,$J$1)</f>
-        <v>-1.254003</v>
+        <v>-5.2732349999999997</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">_xll.BDP(C31,$K$1)</f>
+        <v>0.64976420000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -3708,30 +4080,34 @@
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(C32,$E$1)</f>
-        <v>1.025339</v>
+        <v>-9.6816820000000003</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.BDP(C32,$F$1)</f>
-        <v>-0.30239100000000002</v>
+        <v>-11.87294</v>
       </c>
       <c r="G32" cm="1">
         <f t="array" ref="G32">_xll.BDP(C32,$G$1)</f>
-        <v>-3.283312</v>
+        <v>-13.901289999999999</v>
       </c>
       <c r="H32" cm="1">
         <f t="array" ref="H32">_xll.BDP(C32,$H$1)</f>
-        <v>-3.4684699999999999</v>
+        <v>-17.509599999999999</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.BDP(C32,$I$1)</f>
-        <v>-6.8058269999999998</v>
+        <v>-18.253969999999999</v>
       </c>
       <c r="J32" cm="1">
         <f t="array" ref="J32">_xll.BDP(C32,$J$1)</f>
-        <v>-12.55739</v>
+        <v>-20.171990000000001</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">_xll.BDP(C32,$K$1)</f>
+        <v>-12.99136</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3747,30 +4123,34 @@
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(C33,$E$1)</f>
-        <v>0.23376189999999999</v>
+        <v>-8.6439330000000005</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.BDP(C33,$F$1)</f>
-        <v>0.80604659999999995</v>
+        <v>-4.4142020000000004</v>
       </c>
       <c r="G33" cm="1">
         <f t="array" ref="G33">_xll.BDP(C33,$G$1)</f>
-        <v>1.2651840000000001</v>
+        <v>-4.3030379999999999</v>
       </c>
       <c r="H33" cm="1">
         <f t="array" ref="H33">_xll.BDP(C33,$H$1)</f>
-        <v>11.850199999999999</v>
+        <v>2.8204199999999999</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.BDP(C33,$I$1)</f>
-        <v>8.9078400000000002</v>
+        <v>4.4992760000000001</v>
       </c>
       <c r="J33" cm="1">
         <f t="array" ref="J33">_xll.BDP(C33,$J$1)</f>
-        <v>-2.119685</v>
+        <v>-9.9577969999999993</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">_xll.BDP(C33,$K$1)</f>
+        <v>1.4198820000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -3786,30 +4166,34 @@
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(C34,$E$1)</f>
-        <v>0.77315350000000005</v>
+        <v>-8.2085790000000003</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.BDP(C34,$F$1)</f>
-        <v>3.60223</v>
+        <v>-11.297140000000001</v>
       </c>
       <c r="G34" cm="1">
         <f t="array" ref="G34">_xll.BDP(C34,$G$1)</f>
-        <v>-2.2342770000000001</v>
+        <v>-9.5324939999999998</v>
       </c>
       <c r="H34" cm="1">
         <f t="array" ref="H34">_xll.BDP(C34,$H$1)</f>
-        <v>6.6504190000000003</v>
+        <v>-9.5324939999999998</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.BDP(C34,$I$1)</f>
-        <v>3.148676</v>
+        <v>-8.1158459999999994</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" ref="J34">_xll.BDP(C34,$J$1)</f>
-        <v>-4.4305760000000003</v>
+        <v>-14.8674</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">_xll.BDP(C34,$K$1)</f>
+        <v>-7.6885969999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3825,30 +4209,34 @@
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(C35,$E$1)</f>
-        <v>1.475797</v>
+        <v>-8.1282429999999994</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.BDP(C35,$F$1)</f>
-        <v>9.8262169999999998</v>
+        <v>-21.047219999999999</v>
       </c>
       <c r="G35" cm="1">
         <f t="array" ref="G35">_xll.BDP(C35,$G$1)</f>
-        <v>12.64744</v>
+        <v>-6.2576330000000002</v>
       </c>
       <c r="H35" cm="1">
         <f t="array" ref="H35">_xll.BDP(C35,$H$1)</f>
-        <v>48.291930000000001</v>
+        <v>3.074627</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.BDP(C35,$I$1)</f>
-        <v>41.458199999999998</v>
+        <v>13.660310000000001</v>
       </c>
       <c r="J35" cm="1">
         <f t="array" ref="J35">_xll.BDP(C35,$J$1)</f>
-        <v>-5.7978969999999999</v>
+        <v>-24.30951</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">_xll.BDP(C35,$K$1)</f>
+        <v>-1.607748</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3864,30 +4252,34 @@
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(C36,$E$1)</f>
-        <v>1.394231</v>
+        <v>-9.3449969999999993</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.BDP(C36,$F$1)</f>
-        <v>-0.35436289999999998</v>
+        <v>-0.25821240000000001</v>
       </c>
       <c r="G36" cm="1">
         <f t="array" ref="G36">_xll.BDP(C36,$G$1)</f>
-        <v>6.2147410000000001</v>
+        <v>4.706747</v>
       </c>
       <c r="H36" cm="1">
         <f t="array" ref="H36">_xll.BDP(C36,$H$1)</f>
-        <v>-1.3794729999999999</v>
+        <v>8.0181039999999992</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.BDP(C36,$I$1)</f>
-        <v>-4.0054590000000001</v>
+        <v>-3.2999510000000001</v>
       </c>
       <c r="J36" cm="1">
         <f t="array" ref="J36">_xll.BDP(C36,$J$1)</f>
-        <v>-9.0360119999999995</v>
+        <v>-11.901300000000001</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">_xll.BDP(C36,$K$1)</f>
+        <v>3.3513890000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -3903,30 +4295,34 @@
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(C37,$E$1)</f>
-        <v>-0.236174</v>
+        <v>-11.463839999999999</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.BDP(C37,$F$1)</f>
-        <v>-9.8203139999999998</v>
+        <v>-20.585329999999999</v>
       </c>
       <c r="G37" cm="1">
         <f t="array" ref="G37">_xll.BDP(C37,$G$1)</f>
-        <v>-7.853116</v>
+        <v>-28.105979999999999</v>
       </c>
       <c r="H37" cm="1">
         <f t="array" ref="H37">_xll.BDP(C37,$H$1)</f>
-        <v>6.6259949999999996</v>
+        <v>-30.818259999999999</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.BDP(C37,$I$1)</f>
-        <v>6.7832270000000001</v>
+        <v>-15.3992</v>
       </c>
       <c r="J37" cm="1">
         <f t="array" ref="J37">_xll.BDP(C37,$J$1)</f>
-        <v>-15.361499999999999</v>
+        <v>-32.943730000000002</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">_xll.BDP(C37,$K$1)</f>
+        <v>-20.862590000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -3942,30 +4338,34 @@
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(C38,$E$1)</f>
-        <v>-4.5705140000000002</v>
+        <v>27.233969999999999</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.BDP(C38,$F$1)</f>
-        <v>-0.4452643</v>
+        <v>34.144970000000001</v>
       </c>
       <c r="G38" cm="1">
         <f t="array" ref="G38">_xll.BDP(C38,$G$1)</f>
-        <v>-13.339790000000001</v>
+        <v>23.16423</v>
       </c>
       <c r="H38" cm="1">
         <f t="array" ref="H38">_xll.BDP(C38,$H$1)</f>
-        <v>-20.574300000000001</v>
+        <v>12.30986</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.BDP(C38,$I$1)</f>
-        <v>-18.338159999999998</v>
+        <v>8.9940610000000003</v>
       </c>
       <c r="J38" cm="1">
         <f t="array" ref="J38">_xll.BDP(C38,$J$1)</f>
-        <v>-43.823279999999997</v>
+        <v>-25.02094</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">_xll.BDP(C38,$K$1)</f>
+        <v>13.11303</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -3981,30 +4381,34 @@
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(C39,$E$1)</f>
-        <v>-0.45499260000000002</v>
+        <v>-6.2463100000000003</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.BDP(C39,$F$1)</f>
-        <v>-1.580552</v>
+        <v>-1.170032</v>
       </c>
       <c r="G39" cm="1">
         <f t="array" ref="G39">_xll.BDP(C39,$G$1)</f>
-        <v>0</v>
+        <v>-3.932248</v>
       </c>
       <c r="H39" cm="1">
         <f t="array" ref="H39">_xll.BDP(C39,$H$1)</f>
-        <v>8.0918700000000001</v>
+        <v>6.5057020000000003</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.BDP(C39,$I$1)</f>
-        <v>5.9832419999999997</v>
+        <v>3.9539140000000002</v>
       </c>
       <c r="J39" cm="1">
         <f t="array" ref="J39">_xll.BDP(C39,$J$1)</f>
-        <v>-6.2319019999999998</v>
+        <v>-8.0273400000000006</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">_xll.BDP(C39,$K$1)</f>
+        <v>1.8384119999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -4020,27 +4424,74 @@
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(C40,$E$1)</f>
-        <v>-1.20126</v>
+        <v>-5.7621890000000002</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.BDP(C40,$F$1)</f>
-        <v>-4.2922520000000004</v>
+        <v>-1.945055</v>
       </c>
       <c r="G40" cm="1">
         <f t="array" ref="G40">_xll.BDP(C40,$G$1)</f>
-        <v>-6.8856739999999999</v>
+        <v>-8.1517680000000006</v>
       </c>
       <c r="H40" cm="1">
         <f t="array" ref="H40">_xll.BDP(C40,$H$1)</f>
-        <v>-1.8967529999999999</v>
+        <v>0.76241749999999997</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.BDP(C40,$I$1)</f>
-        <v>-2.4309569999999998</v>
+        <v>-4.9008130000000003</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" ref="J40">_xll.BDP(C40,$J$1)</f>
-        <v>-8.4823090000000008</v>
+        <v>-10.79898</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">_xll.BDP(C40,$K$1)</f>
+        <v>-3.7416740000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70A003-92E4-4A19-8968-87BE0D9EE130}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2">_xll.BDP(B2,"NAME")</f>
+        <v>RIM GLOBAL BIOSCIENCE ACCU-B</v>
       </c>
     </row>
   </sheetData>

--- a/megatrends.xlsx
+++ b/megatrends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\megatrends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A553C352-34FA-4317-8446-F804EC3B9706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A02FBD2-4FFD-427F-94B3-CD49FA5EDBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="315" windowWidth="28335" windowHeight="14340" xr2:uid="{EC6E5755-4190-4D69-BA31-43985C92D729}"/>
+    <workbookView xWindow="-57030" yWindow="0" windowWidth="28290" windowHeight="15480" xr2:uid="{EC6E5755-4190-4D69-BA31-43985C92D729}"/>
   </bookViews>
   <sheets>
     <sheet name="Themes" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
   <si>
     <t>Ageing Population</t>
   </si>
@@ -449,13 +449,25 @@
   </si>
   <si>
     <t>CHG_PCT_MOV_AVG_200D</t>
+  </si>
+  <si>
+    <t>PCFIIEA ID Equity</t>
+  </si>
+  <si>
+    <t>Chom Capital</t>
+  </si>
+  <si>
+    <t>Tungston</t>
+  </si>
+  <si>
+    <t>Empureon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +481,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,12 +509,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,841 +540,847 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4153481474</v>
+        <v>#N/A Requesting Data...3350019335</v>
         <stp/>
         <stp>BDP|15846738591531099025</stp>
         <tr r="H20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3553701902</v>
+        <v>#N/A Requesting Data...4142671605</v>
         <stp/>
         <stp>BDP|13724495308188809554</stp>
         <tr r="D29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2219091105</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|13981659744853632820</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2477169817</v>
         <stp/>
         <stp>BDP|13957917932485292699</stp>
         <tr r="G27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4191214638</v>
+        <v>#N/A Requesting Data...3111376277</v>
         <stp/>
         <stp>BDP|13286114453828392528</stp>
         <tr r="J7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1236761796</v>
+        <v>#N/A Requesting Data...3900433181</v>
         <stp/>
         <stp>BDP|15750803960131729004</stp>
         <tr r="E5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4155925653</v>
+        <v>#N/A Requesting Data...2518249499</v>
         <stp/>
         <stp>BDP|13222288948239031607</stp>
         <tr r="F13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4110898022</v>
+        <v>#N/A Requesting Data...4019210635</v>
         <stp/>
         <stp>BDP|13604027487649483826</stp>
         <tr r="G34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...110177154</v>
+        <v>#N/A Requesting Data...3336972107</v>
         <stp/>
         <stp>BDP|11365245589516536623</stp>
         <tr r="I39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3176021106</v>
+        <v>#N/A Requesting Data...2364048603</v>
         <stp/>
         <stp>BDP|11794883239871752090</stp>
         <tr r="J39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...538190502</v>
+        <v>#N/A Requesting Data...3454916326</v>
         <stp/>
         <stp>BDP|13254085681685784513</stp>
         <tr r="G30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2466812978</v>
+        <v>#N/A Requesting Data...3396425372</v>
         <stp/>
         <stp>BDP|11427706444108833174</stp>
         <tr r="G36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3115120019</v>
+        <v>#N/A Requesting Data...3629396721</v>
         <stp/>
         <stp>BDP|13359624940862828871</stp>
         <tr r="G25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4092419965</v>
+        <v>#N/A Requesting Data...3700268606</v>
         <stp/>
         <stp>BDP|13825440892857886273</stp>
         <tr r="K20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...872793775</v>
+        <v>#N/A Requesting Data...2384510171</v>
         <stp/>
         <stp>BDP|10085804158323141595</stp>
         <tr r="F33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3464865757</v>
+        <v>#N/A Requesting Data...3116621229</v>
         <stp/>
         <stp>BDP|18375491469133216250</stp>
         <tr r="K36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...907159588</v>
+        <v>#N/A Requesting Data...3744037438</v>
         <stp/>
         <stp>BDP|11378380675815021845</stp>
         <tr r="I18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1911981611</v>
+        <v>#N/A Requesting Data...2979364141</v>
         <stp/>
         <stp>BDP|16894218481320451469</stp>
         <tr r="H16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2766519675</v>
+        <v>#N/A Requesting Data...4263627345</v>
         <stp/>
         <stp>BDP|11545978750337942264</stp>
         <tr r="I2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2366236023</v>
+        <v>#N/A Requesting Data...4272410454</v>
         <stp/>
         <stp>BDP|17501349875673823800</stp>
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2664053695</v>
+        <v>#N/A Requesting Data...3776878593</v>
         <stp/>
         <stp>BDP|16554971571640288001</stp>
         <tr r="D34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2915034821</v>
+        <v>#N/A Requesting Data...3492927260</v>
         <stp/>
         <stp>BDP|13438412086682324512</stp>
         <tr r="G39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...702368784</v>
+        <v>#N/A Requesting Data...2889078948</v>
         <stp/>
         <stp>BDP|10219633224185239923</stp>
         <tr r="J2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2655230356</v>
+        <v>#N/A Requesting Data...2663502928</v>
         <stp/>
         <stp>BDP|17123623106699860106</stp>
         <tr r="I35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286291125</v>
+        <v>#N/A Requesting Data...4165652726</v>
         <stp/>
         <stp>BDP|16868303492495208047</stp>
         <tr r="K32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2640883504</v>
+        <v>#N/A Requesting Data...4188497029</v>
         <stp/>
         <stp>BDP|18212865830352986824</stp>
         <tr r="H14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4116561531</v>
+        <v>#N/A Requesting Data...2655537975</v>
         <stp/>
         <stp>BDP|16948702666927902988</stp>
         <tr r="G32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2037074809</v>
+        <v>#N/A Requesting Data...3252261990</v>
         <stp/>
         <stp>BDP|15326480282658500889</stp>
         <tr r="G35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3784564696</v>
+        <v>#N/A Requesting Data...3040842005</v>
         <stp/>
         <stp>BDP|12476998175800923552</stp>
         <tr r="G12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3062793434</v>
+        <v>#N/A Requesting Data...2395971981</v>
         <stp/>
         <stp>BDP|13264306770587637938</stp>
         <tr r="F8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4091176932</v>
+        <v>#N/A Requesting Data...2427050749</v>
         <stp/>
         <stp>BDP|18201107262367705105</stp>
         <tr r="I13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3020979226</v>
+        <v>#N/A Requesting Data...4007327579</v>
         <stp/>
         <stp>BDP|16460204866288758323</stp>
         <tr r="E36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1836593629</v>
+        <v>#N/A Requesting Data...2491920248</v>
         <stp/>
         <stp>BDP|10696490135669588048</stp>
         <tr r="D2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...982181298</v>
+        <v>#N/A Requesting Data...3028469181</v>
         <stp/>
         <stp>BDP|11857986118173476405</stp>
         <tr r="D6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3198799586</v>
+        <v>#N/A Requesting Data...2397893652</v>
         <stp/>
         <stp>BDP|12232682117172321900</stp>
         <tr r="K10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1998567628</v>
+        <v>#N/A Requesting Data...4066268617</v>
         <stp/>
         <stp>BDP|18305523779857843317</stp>
         <tr r="K33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...840746927</v>
+        <v>#N/A Requesting Data...2462510835</v>
         <stp/>
         <stp>BDP|14133112174204746822</stp>
         <tr r="K27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2792627255</v>
+        <v>#N/A Requesting Data...3535668922</v>
         <stp/>
         <stp>BDP|11675960752754124704</stp>
         <tr r="F28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1620853022</v>
+        <v>#N/A Requesting Data...2674148486</v>
         <stp/>
         <stp>BDP|16399801546706575229</stp>
         <tr r="E39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1292531876</v>
+        <v>#N/A Requesting Data...2517996132</v>
         <stp/>
         <stp>BDP|16669428213185627854</stp>
         <tr r="F21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2215507129</v>
+        <v>#N/A Requesting Data...3643656908</v>
         <stp/>
         <stp>BDP|16228364846576662932</stp>
         <tr r="K24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...252465488</v>
+        <v>#N/A Requesting Data...2454191101</v>
         <stp/>
         <stp>BDP|16086251193572642091</stp>
         <tr r="I12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3212970718</v>
+        <v>#N/A Requesting Data...3461643556</v>
         <stp/>
         <stp>BDP|11056409192081858265</stp>
         <tr r="K17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...539445006</v>
+        <v>#N/A Requesting Data...3575916681</v>
         <stp/>
         <stp>BDP|17600972052692525694</stp>
         <tr r="E37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...629290417</v>
+        <v>#N/A Requesting Data...3524036899</v>
         <stp/>
         <stp>BDP|14965235187760316107</stp>
         <tr r="E40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3502176780</v>
+        <v>#N/A Requesting Data...2943408897</v>
         <stp/>
         <stp>BDP|12152621898851960332</stp>
         <tr r="G29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1008060822</v>
+        <v>#N/A Requesting Data...3388072816</v>
         <stp/>
         <stp>BDP|13240072722626309849</stp>
         <tr r="G14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1534776222</v>
+        <v>#N/A Requesting Data...2798390514</v>
         <stp/>
         <stp>BDP|17343158082526520734</stp>
         <tr r="H24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3769917410</v>
+        <v>#N/A Requesting Data...2751875630</v>
         <stp/>
         <stp>BDP|10286148726479429515</stp>
         <tr r="F32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3029929354</v>
+        <v>#N/A Requesting Data...2593440198</v>
         <stp/>
         <stp>BDP|17057269233991342820</stp>
         <tr r="J9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1967790894</v>
+        <v>#N/A Requesting Data...3989523796</v>
         <stp/>
         <stp>BDP|15657871464785675148</stp>
         <tr r="F31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...335494916</v>
+        <v>#N/A Requesting Data...3873973386</v>
         <stp/>
         <stp>BDP|15914228082869819963</stp>
         <tr r="E35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2631122922</v>
+        <v>#N/A Requesting Data...2853964627</v>
         <stp/>
         <stp>BDP|16087657399014240165</stp>
         <tr r="H26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3809983603</v>
+        <v>#N/A Requesting Data...3870919897</v>
         <stp/>
         <stp>BDP|10185699863609124506</stp>
         <tr r="I20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1089470520</v>
+        <v>#N/A Requesting Data...3878667655</v>
         <stp/>
         <stp>BDP|14793748508646622976</stp>
         <tr r="K16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...388340716</v>
+        <v>#N/A Requesting Data...2662316717</v>
         <stp/>
         <stp>BDP|14368195591748820891</stp>
         <tr r="I19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3932052077</v>
+        <v>#N/A Requesting Data...2559783710</v>
         <stp/>
         <stp>BDP|11040222196560914629</stp>
         <tr r="K3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2078600175</v>
+        <v>#N/A Requesting Data...3898045645</v>
         <stp/>
         <stp>BDP|17306826736853072349</stp>
         <tr r="D7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2432973132</v>
+        <v>#N/A Requesting Data...3527934558</v>
         <stp/>
         <stp>BDP|15196896594361079984</stp>
         <tr r="J17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3566212690</v>
+        <v>#N/A Requesting Data...2428805100</v>
         <stp/>
         <stp>BDP|13814661179808047601</stp>
         <tr r="F24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2151741027</v>
+        <v>#N/A Requesting Data...3306058589</v>
         <stp/>
         <stp>BDP|11007430928803701978</stp>
         <tr r="H25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1223787742</v>
+        <v>#N/A Requesting Data...2383016514</v>
         <stp/>
         <stp>BDP|11723367629685712801</stp>
         <tr r="K38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3605862387</v>
+        <v>#N/A Requesting Data...3851920296</v>
         <stp/>
         <stp>BDP|15601961462356535183</stp>
         <tr r="F15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2107758386</v>
+        <v>#N/A Requesting Data...3582415566</v>
         <stp/>
         <stp>BDP|18202762449704162231</stp>
         <tr r="H9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3388303022</v>
+        <v>#N/A Requesting Data...3145661529</v>
         <stp/>
         <stp>BDP|17983580872308353016</stp>
         <tr r="H10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3553035419</v>
+        <v>#N/A Requesting Data...3094495279</v>
         <stp/>
         <stp>BDP|10333985114621868468</stp>
         <tr r="D5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2325986395</v>
+        <v>#N/A Requesting Data...2655695096</v>
         <stp/>
         <stp>BDP|15895505836356281888</stp>
         <tr r="G2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1773704909</v>
+        <v>#N/A Requesting Data...3199431623</v>
         <stp/>
         <stp>BDP|16807042948790960069</stp>
         <tr r="J31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1789899830</v>
+        <v>#N/A Requesting Data...2772586328</v>
         <stp/>
         <stp>BDP|16148642647385628390</stp>
         <tr r="J18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3483163599</v>
+        <v>#N/A Requesting Data...3015573328</v>
         <stp/>
         <stp>BDP|11525878302248829371</stp>
         <tr r="H34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3170698575</v>
+        <v>#N/A Requesting Data...2609858472</v>
         <stp/>
         <stp>BDP|13600680289478741702</stp>
         <tr r="J19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...481006841</v>
+        <v>#N/A Requesting Data...3139635634</v>
         <stp/>
         <stp>BDP|10168046458075884275</stp>
         <tr r="I24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...391945564</v>
+        <v>#N/A Requesting Data...4081293286</v>
         <stp/>
         <stp>BDP|12414291348027057123</stp>
         <tr r="G19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1719631291</v>
+        <v>#N/A Requesting Data...3321826486</v>
         <stp/>
         <stp>BDP|10533758059147427650</stp>
         <tr r="H6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...828856273</v>
+        <v>#N/A Requesting Data...3501920682</v>
         <stp/>
         <stp>BDP|13391457112911941452</stp>
         <tr r="F37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...775147441</v>
+        <v>#N/A Requesting Data...2424516014</v>
         <stp/>
         <stp>BDP|17131588762370323753</stp>
         <tr r="F7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3291843471</v>
+        <v>#N/A Requesting Data...2564039209</v>
         <stp/>
         <stp>BDP|10406205048070773574</stp>
         <tr r="K14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1213449679</v>
+        <v>#N/A Requesting Data...2980743872</v>
         <stp/>
         <stp>BDP|15925200263062560014</stp>
         <tr r="D32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2149930472</v>
+        <v>#N/A Requesting Data...4049777268</v>
         <stp/>
         <stp>BDP|16033047627795788275</stp>
         <tr r="E22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2975196988</v>
+        <v>#N/A Requesting Data...2789296652</v>
         <stp/>
         <stp>BDP|16786560416766485704</stp>
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...742519972</v>
+        <v>#N/A Requesting Data...2770386815</v>
         <stp/>
         <stp>BDP|16062888788183168662</stp>
         <tr r="D31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2437391216</v>
+        <v>#N/A Requesting Data...2532386315</v>
         <stp/>
         <stp>BDP|13551063545296805297</stp>
         <tr r="H21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4121324210</v>
+        <v>#N/A Requesting Data...3866025078</v>
         <stp/>
         <stp>BDP|16737173078421189105</stp>
         <tr r="J15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1141483332</v>
+        <v>#N/A Requesting Data...3452590088</v>
         <stp/>
         <stp>BDP|14762635370641503480</stp>
         <tr r="D9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2985331915</v>
+        <v>#N/A Requesting Data...2521067382</v>
         <stp/>
         <stp>BDP|14133255916194837329</stp>
         <tr r="I27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2238326705</v>
+        <v>#N/A Requesting Data...4185384577</v>
         <stp/>
         <stp>BDP|13656537959915001676</stp>
         <tr r="D22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...903820272</v>
+        <v>#N/A Requesting Data...2461374198</v>
         <stp/>
         <stp>BDP|10165802098883461216</stp>
         <tr r="F12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2866271273</v>
+        <v>#N/A Requesting Data...3287209515</v>
         <stp/>
         <stp>BDP|13056517404174217281</stp>
         <tr r="G13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1168690901</v>
+        <v>#N/A Requesting Data...3874146220</v>
         <stp/>
         <stp>BDP|13430504808454503299</stp>
         <tr r="J6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3061567985</v>
+        <v>#N/A Requesting Data...3931106717</v>
         <stp/>
         <stp>BDP|10003894789129243912</stp>
         <tr r="E14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1060900629</v>
+        <v>#N/A Requesting Data...2817630541</v>
         <stp/>
         <stp>BDP|16324617634546577487</stp>
         <tr r="D12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2481479783</v>
+        <v>#N/A Requesting Data...2389612949</v>
         <stp/>
         <stp>BDP|13078692413307352235</stp>
         <tr r="J25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3111246199</v>
+        <v>#N/A Requesting Data...2943917432</v>
         <stp/>
         <stp>BDP|11345618822983900733</stp>
         <tr r="F6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2173754302</v>
+        <v>#N/A Requesting Data...3211181670</v>
         <stp/>
         <stp>BDP|12307046003915024688</stp>
         <tr r="K13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2608792439</v>
+        <v>#N/A Requesting Data...3331482650</v>
         <stp/>
         <stp>BDP|17005184358307286520</stp>
         <tr r="F29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3413503192</v>
+        <v>#N/A Requesting Data...2414094667</v>
         <stp/>
         <stp>BDP|13137496149581130334</stp>
         <tr r="E26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3161799977</v>
+        <v>#N/A Requesting Data...2429134548</v>
         <stp/>
         <stp>BDP|10724110998869384080</stp>
         <tr r="I31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...359552258</v>
+        <v>#N/A Requesting Data...2977431743</v>
         <stp/>
         <stp>BDP|13095956520070822993</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...461345051</v>
+        <v>#N/A Requesting Data...2537688182</v>
         <stp/>
         <stp>BDP|18111210020269435005</stp>
         <tr r="F2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2824896395</v>
+        <v>#N/A Requesting Data...3138142245</v>
         <stp/>
         <stp>BDP|11966868690816835709</stp>
         <tr r="E2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...296010473</v>
+        <v>#N/A Requesting Data...3846142886</v>
         <stp/>
         <stp>BDP|14234239965246219709</stp>
         <tr r="E25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1924071930</v>
+        <v>#N/A Requesting Data...2938511631</v>
         <stp/>
         <stp>BDP|17666650128712422094</stp>
         <tr r="F39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2512268002</v>
+        <v>#N/A Requesting Data...3257405585</v>
         <stp/>
         <stp>BDP|17222801784731628098</stp>
         <tr r="F11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1404258465</v>
+        <v>#N/A Requesting Data...4230409891</v>
         <stp/>
         <stp>BDP|16154874497550015180</stp>
         <tr r="K23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2092435795</v>
+        <v>#N/A Requesting Data...3722333470</v>
         <stp/>
         <stp>BDP|10591279866101892340</stp>
         <tr r="K8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2530070431</v>
+        <v>#N/A Requesting Data...2974026898</v>
         <stp/>
         <stp>BDP|16831540753484501445</stp>
         <tr r="G4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2949266042</v>
+        <v>#N/A Requesting Data...2419513895</v>
         <stp/>
         <stp>BDP|17180358253002768503</stp>
         <tr r="K26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1351000197</v>
+        <v>#N/A Requesting Data...3248805074</v>
         <stp/>
         <stp>BDP|14746354412071154135</stp>
         <tr r="I26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2006120689</v>
+        <v>#N/A Requesting Data...2681733331</v>
         <stp/>
         <stp>BDP|16920197560306043151</stp>
         <tr r="F20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2717275396</v>
+        <v>#N/A Requesting Data...2791908674</v>
         <stp/>
         <stp>BDP|18357935525425834093</stp>
         <tr r="E23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...384020774</v>
+        <v>#N/A Requesting Data...3934155973</v>
         <stp/>
         <stp>BDP|15145034938771755058</stp>
         <tr r="D16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2133814570</v>
+        <v>#N/A Requesting Data...3817262301</v>
         <stp/>
         <stp>BDP|12881198314797893209</stp>
         <tr r="I8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1233605037</v>
+        <v>#N/A Requesting Data...2492500876</v>
         <stp/>
         <stp>BDP|14480032740422365580</stp>
         <tr r="J33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3996383415</v>
+        <v>#N/A Requesting Data...2745910538</v>
         <stp/>
         <stp>BDP|16642682969724949522</stp>
         <tr r="E31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...425791138</v>
+        <v>#N/A Requesting Data...4191549449</v>
         <stp/>
         <stp>BDP|16717124719827248601</stp>
         <tr r="I28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4217993639</v>
+        <v>#N/A Requesting Data...2654046796</v>
         <stp/>
         <stp>BDP|10220805233938732471</stp>
         <tr r="F10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2084765131</v>
+        <v>#N/A Requesting Data...3067763603</v>
         <stp/>
         <stp>BDP|16560809975647531961</stp>
         <tr r="H30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...638339305</v>
+        <v>#N/A Requesting Data...3233151422</v>
         <stp/>
         <stp>BDP|10358355578190820358</stp>
         <tr r="D8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1517485151</v>
+        <v>#N/A Requesting Data...4123960791</v>
         <stp/>
         <stp>BDP|14757582569115504565</stp>
         <tr r="D21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3918786949</v>
+        <v>#N/A Requesting Data...2989590796</v>
         <stp/>
         <stp>BDP|16401739063776285628</stp>
         <tr r="G17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2044138949</v>
+        <v>#N/A Requesting Data...4186299507</v>
         <stp/>
         <stp>BDP|12884875764398959355</stp>
         <tr r="G26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1143379144</v>
+        <v>#N/A Requesting Data...3604394630</v>
         <stp/>
         <stp>BDP|17020884307051083993</stp>
         <tr r="F17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...348363622</v>
+        <v>#N/A Requesting Data...4046426235</v>
         <stp/>
         <stp>BDP|12950708020866091505</stp>
         <tr r="G3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1591539925</v>
+        <v>#N/A Requesting Data...3545984596</v>
         <stp/>
         <stp>BDP|17972898070659838528</stp>
         <tr r="F5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3099497132</v>
+        <v>#N/A Requesting Data...3330295020</v>
         <stp/>
         <stp>BDP|10273073448451041171</stp>
         <tr r="J40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2340570034</v>
+        <v>#N/A Requesting Data...2914795433</v>
         <stp/>
         <stp>BDP|12542464985933816911</stp>
         <tr r="E16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2622985424</v>
+        <v>#N/A Requesting Data...2913749689</v>
         <stp/>
         <stp>BDP|12376158789907716879</stp>
         <tr r="I34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1230631023</v>
+        <v>#N/A Requesting Data...2873403561</v>
         <stp/>
         <stp>BDP|12512055738233224645</stp>
         <tr r="H19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1920017662</v>
+        <v>#N/A Requesting Data...3828310836</v>
         <stp/>
         <stp>BDP|16086337769223844413</stp>
         <tr r="J36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1527132273</v>
+        <v>#N/A Requesting Data...3100594918</v>
         <stp/>
         <stp>BDP|15812641436770962407</stp>
         <tr r="E8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2609940132</v>
+        <v>#N/A Requesting Data...4204828273</v>
         <stp/>
         <stp>BDP|12676164681728373705</stp>
         <tr r="J34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1285847173</v>
+        <v>#N/A Requesting Data...3618183667</v>
         <stp/>
         <stp>BDP|17508287313678428886</stp>
         <tr r="H29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2295466591</v>
+        <v>#N/A Requesting Data...4177726326</v>
         <stp/>
         <stp>BDP|15475268310210523203</stp>
         <tr r="J10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...895865499</v>
+        <v>#N/A Requesting Data...3514053505</v>
         <stp/>
         <stp>BDP|16249415058597238506</stp>
         <tr r="G6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2845984847</v>
+        <v>#N/A Requesting Data...3321638665</v>
         <stp/>
         <stp>BDP|11805032017367497252</stp>
         <tr r="J12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2124603472</v>
+        <v>#N/A Requesting Data...2738657245</v>
         <stp/>
         <stp>BDP|16191576036892589781</stp>
         <tr r="J5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1586518915</v>
+        <v>#N/A Requesting Data...3665637835</v>
         <stp/>
         <stp>BDP|17155835375705157888</stp>
         <tr r="J20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4134501472</v>
+        <v>#N/A Requesting Data...3519693300</v>
         <stp/>
         <stp>BDP|17452163823237710634</stp>
         <tr r="J8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1966417005</v>
+        <v>#N/A Requesting Data...2679708122</v>
         <stp/>
         <stp>BDP|17150364910988446843</stp>
         <tr r="K35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3706757264</v>
+        <v>#N/A Requesting Data...3091010930</v>
         <stp/>
         <stp>BDP|18145031492910129470</stp>
         <tr r="E17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...462552519</v>
+        <v>#N/A Requesting Data...3679475090</v>
         <stp/>
         <stp>BDP|11007870551379462049</stp>
         <tr r="D30" s="2"/>
@@ -1361,1039 +1388,1039 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2767708373</v>
+        <v>#N/A Requesting Data...2802351723</v>
         <stp/>
         <stp>BDP|2214097638384079989</stp>
         <tr r="K5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1145045413</v>
+        <v>#N/A Requesting Data...2491872618</v>
         <stp/>
         <stp>BDP|5899963692130029979</stp>
         <tr r="G33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4233223658</v>
+        <v>#N/A Requesting Data...2950039672</v>
         <stp/>
         <stp>BDP|8442050103152914678</stp>
         <tr r="G9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2657165758</v>
+        <v>#N/A Requesting Data...4126008286</v>
         <stp/>
         <stp>BDP|5534819392900879822</stp>
         <tr r="F18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1227667844</v>
+        <v>#N/A Requesting Data...3855663384</v>
         <stp/>
         <stp>BDP|5830077521959216217</stp>
         <tr r="K39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1151595204</v>
+        <v>#N/A Requesting Data...4193928920</v>
         <stp/>
         <stp>BDP|3980126830294497925</stp>
         <tr r="E15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...540564820</v>
+        <v>#N/A Requesting Data...3344999517</v>
         <stp/>
         <stp>BDP|3846558302852365815</stp>
         <tr r="J37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2366332738</v>
+        <v>#N/A Requesting Data...3776117224</v>
         <stp/>
         <stp>BDP|1150334780213496543</stp>
         <tr r="H18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...712618662</v>
+        <v>#N/A Requesting Data...4210251710</v>
         <stp/>
         <stp>BDP|9251382176928300813</stp>
         <tr r="D36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1504671365</v>
+        <v>#N/A Requesting Data...2653320273</v>
         <stp/>
         <stp>BDP|9113264309795435353</stp>
         <tr r="G20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...865657153</v>
+        <v>#N/A Requesting Data...3478457557</v>
         <stp/>
         <stp>BDP|1133930977272361091</stp>
         <tr r="D4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...972050016</v>
+        <v>#N/A Requesting Data...2555974830</v>
         <stp/>
         <stp>BDP|7034247481765260552</stp>
         <tr r="K9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2660776253</v>
+        <v>#N/A Requesting Data...3925835864</v>
         <stp/>
         <stp>BDP|4801252564088129592</stp>
         <tr r="G11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3717290180</v>
+        <v>#N/A Requesting Data...3626061828</v>
         <stp/>
         <stp>BDP|8366634138075782582</stp>
         <tr r="D11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1544558672</v>
+        <v>#N/A Requesting Data...4293351614</v>
         <stp/>
         <stp>BDP|1035078154500239956</stp>
         <tr r="D40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4014234019</v>
+        <v>#N/A Requesting Data...4051602509</v>
         <stp/>
         <stp>BDP|3972542690298388955</stp>
         <tr r="D14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2770855092</v>
+        <v>#N/A Requesting Data...2435118621</v>
         <stp/>
         <stp>BDP|8507126860821789083</stp>
         <tr r="K6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3328104429</v>
+        <v>#N/A Requesting Data...2767909707</v>
         <stp/>
         <stp>BDP|9093618692120211839</stp>
         <tr r="I33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2731971325</v>
+        <v>#N/A Requesting Data...2773880260</v>
         <stp/>
         <stp>BDP|8636162822711044419</stp>
         <tr r="D19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1945922353</v>
+        <v>#N/A Requesting Data...3530087165</v>
         <stp/>
         <stp>BDP|9967888380780680773</stp>
         <tr r="G40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3113024103</v>
+        <v>#N/A Requesting Data...2751186522</v>
         <stp/>
         <stp>BDP|9017823610266699859</stp>
         <tr r="D13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3653729457</v>
+        <v>#N/A Requesting Data...3280739013</v>
         <stp/>
         <stp>BDP|9087384769370180268</stp>
         <tr r="H7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3799099051</v>
+        <v>#N/A Requesting Data...3879236040</v>
         <stp/>
         <stp>BDP|9062705335924501771</stp>
         <tr r="G8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4113771431</v>
+        <v>#N/A Requesting Data...3649352228</v>
         <stp/>
         <stp>BDP|7538963143317594329</stp>
         <tr r="H12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2309083050</v>
+        <v>#N/A Requesting Data...4169074026</v>
         <stp/>
         <stp>BDP|6491659216467199825</stp>
         <tr r="H13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1709589204</v>
+        <v>#N/A Requesting Data...3840837584</v>
         <stp/>
         <stp>BDP|6395158145898372540</stp>
         <tr r="E4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3935612663</v>
+        <v>#N/A Requesting Data...2531556036</v>
         <stp/>
         <stp>BDP|4877005099876981400</stp>
         <tr r="K12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3184336003</v>
+        <v>#N/A Requesting Data...4280810229</v>
         <stp/>
         <stp>BDP|2795339708417511917</stp>
         <tr r="E10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2119389236</v>
+        <v>#N/A Requesting Data...4288847201</v>
         <stp/>
         <stp>BDP|6831006684939450817</stp>
         <tr r="H28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2697938194</v>
+        <v>#N/A Requesting Data...2597585361</v>
         <stp/>
         <stp>BDP|4843893377524660057</stp>
         <tr r="H8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3623037438</v>
+        <v>#N/A Requesting Data...2949470280</v>
         <stp/>
         <stp>BDP|9709414010132948664</stp>
         <tr r="I36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1149891220</v>
+        <v>#N/A Requesting Data...3012076747</v>
         <stp/>
         <stp>BDP|8903313874813256702</stp>
         <tr r="G22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2414505906</v>
+        <v>#N/A Requesting Data...4103712720</v>
         <stp/>
         <stp>BDP|8716718187516775944</stp>
         <tr r="I7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1050310957</v>
+        <v>#N/A Requesting Data...4155765164</v>
         <stp/>
         <stp>BDP|1229142784860844096</stp>
         <tr r="G10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3557025155</v>
+        <v>#N/A Requesting Data...4191084103</v>
         <stp/>
         <stp>BDP|9368482138260178629</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1514500738</v>
+        <v>#N/A Requesting Data...4202864009</v>
         <stp/>
         <stp>BDP|5394510445864909896</stp>
         <tr r="D17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2036700655</v>
+        <v>#N/A Requesting Data...4232497551</v>
         <stp/>
         <stp>BDP|4105087797586673228</stp>
         <tr r="E32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1377544938</v>
+        <v>#N/A Requesting Data...2923836214</v>
         <stp/>
         <stp>BDP|6953570282776612443</stp>
         <tr r="F34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1931853506</v>
+        <v>#N/A Requesting Data...3573690914</v>
         <stp/>
         <stp>BDP|9833780479477170760</stp>
         <tr r="I16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3984763424</v>
+        <v>#N/A Requesting Data...3155568536</v>
         <stp/>
         <stp>BDP|1876604997501045611</stp>
         <tr r="H3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3755651256</v>
+        <v>#N/A Requesting Data...2909440438</v>
         <stp/>
         <stp>BDP|6062750902370206899</stp>
         <tr r="F38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1853088771</v>
+        <v>#N/A Requesting Data...4024586636</v>
         <stp/>
         <stp>BDP|9903280076974278166</stp>
         <tr r="H5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1377765586</v>
+        <v>#N/A Requesting Data...4207576320</v>
         <stp/>
         <stp>BDP|8840874378148508654</stp>
         <tr r="F16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...917873963</v>
+        <v>#N/A Requesting Data...2870045068</v>
         <stp/>
         <stp>BDP|6441668015430432879</stp>
         <tr r="K2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...614325115</v>
+        <v>#N/A Requesting Data...3572655156</v>
         <stp/>
         <stp>BDP|8032846351955867989</stp>
         <tr r="J16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2459502300</v>
+        <v>#N/A Requesting Data...3976453663</v>
         <stp/>
         <stp>BDP|9258502267732375135</stp>
         <tr r="F25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...587061165</v>
+        <v>#N/A Requesting Data...3916566670</v>
         <stp/>
         <stp>BDP|3203286743086777946</stp>
         <tr r="E34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3105598124</v>
+        <v>#N/A Requesting Data...3153172982</v>
         <stp/>
         <stp>BDP|4508035399213532451</stp>
         <tr r="K31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1175325480</v>
+        <v>#N/A Requesting Data...3727006399</v>
         <stp/>
         <stp>BDP|2355798547803564849</stp>
         <tr r="I14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2007908012</v>
+        <v>#N/A Requesting Data...3111107295</v>
         <stp/>
         <stp>BDP|1100553105106899855</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3530506384</v>
+        <v>#N/A Requesting Data...4254823378</v>
         <stp/>
         <stp>BDP|4254459243278187662</stp>
         <tr r="H22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...521541439</v>
+        <v>#N/A Requesting Data...3663770857</v>
         <stp/>
         <stp>BDP|5647026683564533335</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2689642484</v>
+        <v>#N/A Requesting Data...3272930791</v>
         <stp/>
         <stp>BDP|7659540921093730950</stp>
         <tr r="I37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3017589803</v>
+        <v>#N/A Requesting Data...3749120683</v>
         <stp/>
         <stp>BDP|2730770682281407615</stp>
         <tr r="F40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1464168404</v>
+        <v>#N/A Requesting Data...3364592090</v>
         <stp/>
         <stp>BDP|7144984324134818218</stp>
         <tr r="D27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1770119334</v>
+        <v>#N/A Requesting Data...3282756306</v>
         <stp/>
         <stp>BDP|1524532887684361262</stp>
         <tr r="G16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2778856088</v>
+        <v>#N/A Requesting Data...2733940012</v>
         <stp/>
         <stp>BDP|8018804105199199308</stp>
         <tr r="K37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3298735040</v>
+        <v>#N/A Requesting Data...4094676882</v>
         <stp/>
         <stp>BDP|4907323959211000809</stp>
         <tr r="I10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...794578660</v>
+        <v>#N/A Requesting Data...3047214850</v>
         <stp/>
         <stp>BDP|7741530455129073522</stp>
         <tr r="D24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2562152591</v>
+        <v>#N/A Requesting Data...3851826866</v>
         <stp/>
         <stp>BDP|2214151685538402857</stp>
         <tr r="G37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2963068289</v>
+        <v>#N/A Requesting Data...3502602501</v>
         <stp/>
         <stp>BDP|6161076057888623075</stp>
         <tr r="H15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1730496324</v>
+        <v>#N/A Requesting Data...3998588004</v>
         <stp/>
         <stp>BDP|4165522957456227963</stp>
         <tr r="J38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1715950975</v>
+        <v>#N/A Requesting Data...2555482582</v>
         <stp/>
         <stp>BDP|9963874529541072976</stp>
         <tr r="F26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3190193293</v>
+        <v>#N/A Requesting Data...3635377820</v>
         <stp/>
         <stp>BDP|9638662261722139062</stp>
         <tr r="H4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1061915600</v>
+        <v>#N/A Requesting Data...3289178900</v>
         <stp/>
         <stp>BDP|7416012493186030306</stp>
         <tr r="E18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3759041679</v>
+        <v>#N/A Requesting Data...3198634181</v>
         <stp/>
         <stp>BDP|3205453182504171009</stp>
         <tr r="H17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3107364495</v>
+        <v>#N/A Requesting Data...3758958436</v>
         <stp/>
         <stp>BDP|5877585967875049833</stp>
         <tr r="K28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...528967940</v>
+        <v>#N/A Requesting Data...3668682933</v>
         <stp/>
         <stp>BDP|3561070257234684978</stp>
         <tr r="D20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1100060336</v>
+        <v>#N/A Requesting Data...3416509258</v>
         <stp/>
         <stp>BDP|6611494133221089410</stp>
         <tr r="D15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1733976048</v>
+        <v>#N/A Requesting Data...3800289537</v>
         <stp/>
         <stp>BDP|3412222707162811741</stp>
         <tr r="D3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2011278191</v>
+        <v>#N/A Requesting Data...2823396928</v>
         <stp/>
         <stp>BDP|7146249573466753035</stp>
         <tr r="K40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2188988874</v>
+        <v>#N/A Requesting Data...3721916935</v>
         <stp/>
         <stp>BDP|6758240515151118040</stp>
         <tr r="H11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2361331899</v>
+        <v>#N/A Requesting Data...4293082823</v>
         <stp/>
         <stp>BDP|1117548092580062973</stp>
         <tr r="D23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2258369570</v>
+        <v>#N/A Requesting Data...3019054349</v>
         <stp/>
         <stp>BDP|7448311748061900544</stp>
         <tr r="D18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3666407496</v>
+        <v>#N/A Requesting Data...3769500227</v>
         <stp/>
         <stp>BDP|6810252945971813543</stp>
         <tr r="E19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2643044898</v>
+        <v>#N/A Requesting Data...2588702291</v>
         <stp/>
         <stp>BDP|4621149754255592092</stp>
         <tr r="K34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4009340929</v>
+        <v>#N/A Requesting Data...4181593494</v>
         <stp/>
         <stp>BDP|9957112296381581504</stp>
         <tr r="D25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2916974798</v>
+        <v>#N/A Requesting Data...4234682344</v>
         <stp/>
         <stp>BDP|4246649014087502192</stp>
         <tr r="J21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2803302078</v>
+        <v>#N/A Requesting Data...3191554519</v>
         <stp/>
         <stp>BDP|3901374640344320529</stp>
         <tr r="J3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...816307014</v>
+        <v>#N/A Requesting Data...2615708687</v>
         <stp/>
         <stp>BDP|5078916707761592816</stp>
         <tr r="E38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2124196654</v>
+        <v>#N/A Requesting Data...3134250428</v>
         <stp/>
         <stp>BDP|8049109585957220349</stp>
         <tr r="F30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3702014875</v>
+        <v>#N/A Requesting Data...4068822180</v>
         <stp/>
         <stp>BDP|2645651402385669443</stp>
         <tr r="G15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2495015481</v>
+        <v>#N/A Requesting Data...3477404587</v>
         <stp/>
         <stp>BDP|9278309673611951996</stp>
         <tr r="E28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3744535669</v>
+        <v>#N/A Requesting Data...2805684357</v>
         <stp/>
         <stp>BDP|4376537700681645500</stp>
         <tr r="K18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3942000315</v>
+        <v>#N/A Requesting Data...3502573558</v>
         <stp/>
         <stp>BDP|3268739607168560946</stp>
         <tr r="J11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1363722041</v>
+        <v>#N/A Requesting Data...3807170184</v>
         <stp/>
         <stp>BDP|7229331562665406201</stp>
         <tr r="E13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1697235501</v>
+        <v>#N/A Requesting Data...2568531410</v>
         <stp/>
         <stp>BDP|1605631833387519671</stp>
         <tr r="E24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3877635647</v>
+        <v>#N/A Requesting Data...2803930002</v>
         <stp/>
         <stp>BDP|9887296274749449042</stp>
         <tr r="E30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4171246101</v>
+        <v>#N/A Requesting Data...3012343248</v>
         <stp/>
         <stp>BDP|6633125405451713331</stp>
         <tr r="F9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2930005637</v>
+        <v>#N/A Requesting Data...3583409699</v>
         <stp/>
         <stp>BDP|4869880762279823506</stp>
         <tr r="K21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...620797232</v>
+        <v>#N/A Requesting Data...2809553407</v>
         <stp/>
         <stp>BDP|1601253543542899333</stp>
         <tr r="K30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3742789687</v>
+        <v>#N/A Requesting Data...3219110196</v>
         <stp/>
         <stp>BDP|5388480182316658923</stp>
         <tr r="H33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1548431096</v>
+        <v>#N/A Requesting Data...3805039298</v>
         <stp/>
         <stp>BDP|1094186844260394226</stp>
         <tr r="J26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2311337408</v>
+        <v>#N/A Requesting Data...3529906877</v>
         <stp/>
         <stp>BDP|1741521664583072724</stp>
         <tr r="J24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3657984561</v>
+        <v>#N/A Requesting Data...2582004516</v>
         <stp/>
         <stp>BDP|9738071534788342470</stp>
         <tr r="K7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3626398011</v>
+        <v>#N/A Requesting Data...2729946113</v>
         <stp/>
         <stp>BDP|3141332361879121948</stp>
         <tr r="I30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2206306725</v>
+        <v>#N/A Requesting Data...3997157064</v>
         <stp/>
         <stp>BDP|2757097450678568811</stp>
         <tr r="J29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3657160698</v>
+        <v>#N/A Requesting Data...4223597993</v>
         <stp/>
         <stp>BDP|3842574646657424250</stp>
         <tr r="D33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1084684737</v>
+        <v>#N/A Requesting Data...2536615985</v>
         <stp/>
         <stp>BDP|7816237061564431001</stp>
         <tr r="H23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3582941497</v>
+        <v>#N/A Requesting Data...3798689574</v>
         <stp/>
         <stp>BDP|3060273585559424792</stp>
         <tr r="D10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1459298280</v>
+        <v>#N/A Requesting Data...4086820046</v>
         <stp/>
         <stp>BDP|7060806162689955763</stp>
         <tr r="H40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4254895064</v>
+        <v>#N/A Requesting Data...3556906577</v>
         <stp/>
         <stp>BDP|1672487157546981133</stp>
         <tr r="H36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1586552700</v>
+        <v>#N/A Requesting Data...3893468071</v>
         <stp/>
         <stp>BDP|5516051814371307245</stp>
         <tr r="J23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3776324669</v>
+        <v>#N/A Requesting Data...2933369440</v>
         <stp/>
         <stp>BDP|8639864949886119597</stp>
         <tr r="J30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2608905103</v>
+        <v>#N/A Requesting Data...3346880673</v>
         <stp/>
         <stp>BDP|9954800149216615408</stp>
         <tr r="G5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2796927462</v>
+        <v>#N/A Requesting Data...4112244065</v>
         <stp/>
         <stp>BDP|6442244966480765577</stp>
         <tr r="F36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1961211237</v>
+        <v>#N/A Requesting Data...3716101494</v>
         <stp/>
         <stp>BDP|4939094663971152456</stp>
         <tr r="J32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1636589378</v>
+        <v>#N/A Requesting Data...3776318751</v>
         <stp/>
         <stp>BDP|3491959193587497335</stp>
         <tr r="K29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2741434519</v>
+        <v>#N/A Requesting Data...4125984423</v>
         <stp/>
         <stp>BDP|3617790397889057426</stp>
         <tr r="H2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3087419865</v>
+        <v>#N/A Requesting Data...2525819438</v>
         <stp/>
         <stp>BDP|8700741321044046992</stp>
         <tr r="H32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2184289510</v>
+        <v>#N/A Requesting Data...4232219239</v>
         <stp/>
         <stp>BDP|3439527856423031089</stp>
         <tr r="J35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1784263568</v>
+        <v>#N/A Requesting Data...4264182858</v>
         <stp/>
         <stp>BDP|7143657986591420885</stp>
         <tr r="K15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3933286403</v>
+        <v>#N/A Requesting Data...3920475148</v>
         <stp/>
         <stp>BDP|7620261959194458425</stp>
         <tr r="D26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4034658276</v>
+        <v>#N/A Requesting Data...3280754599</v>
         <stp/>
         <stp>BDP|3089540010182281594</stp>
         <tr r="G7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1411533086</v>
+        <v>#N/A Requesting Data...3840681962</v>
         <stp/>
         <stp>BDP|4831722547472345517</stp>
         <tr r="G31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...708132223</v>
+        <v>#N/A Requesting Data...4190007409</v>
         <stp/>
         <stp>BDP|2426147378070427404</stp>
         <tr r="F19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3361010169</v>
+        <v>#N/A Requesting Data...2846978751</v>
         <stp/>
         <stp>BDP|6668143837075365151</stp>
         <tr r="K25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3004034145</v>
+        <v>#N/A Requesting Data...4054614343</v>
         <stp/>
         <stp>BDP|6120913140769307200</stp>
         <tr r="K19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3592802555</v>
+        <v>#N/A Requesting Data...4156440811</v>
         <stp/>
         <stp>BDP|9673923293369700006</stp>
         <tr r="I9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2317004643</v>
+        <v>#N/A Requesting Data...3253091882</v>
         <stp/>
         <stp>BDP|5674351600362568460</stp>
         <tr r="I4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2798742720</v>
+        <v>#N/A Requesting Data...3572190700</v>
         <stp/>
         <stp>BDP|4389151391634762867</stp>
         <tr r="I32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1672136131</v>
+        <v>#N/A Requesting Data...3689787676</v>
         <stp/>
         <stp>BDP|1363007164777347026</stp>
         <tr r="J14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1707689399</v>
+        <v>#N/A Requesting Data...3287143044</v>
         <stp/>
         <stp>BDP|6570891121399913523</stp>
         <tr r="E12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2670378282</v>
+        <v>#N/A Requesting Data...3719958644</v>
         <stp/>
         <stp>BDP|3180488169709752801</stp>
         <tr r="E33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1674159273</v>
+        <v>#N/A Requesting Data...4129991644</v>
         <stp/>
         <stp>BDP|6088694172623483559</stp>
         <tr r="F4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3610071114</v>
+        <v>#N/A Requesting Data...3067920266</v>
         <stp/>
         <stp>BDP|2152549497607089882</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1600420799</v>
+        <v>#N/A Requesting Data...3018140453</v>
         <stp/>
         <stp>BDP|5451238880898555683</stp>
         <tr r="K22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3274081697</v>
+        <v>#N/A Requesting Data...4167217576</v>
         <stp/>
         <stp>BDP|4762663301374699781</stp>
         <tr r="E9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3694641203</v>
+        <v>#N/A Requesting Data...3257824867</v>
         <stp/>
         <stp>BDP|4200522467422269467</stp>
         <tr r="G38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2405207907</v>
+        <v>#N/A Requesting Data...3195273175</v>
         <stp/>
         <stp>BDP|8820951675676317182</stp>
         <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1317521438</v>
+        <v>#N/A Requesting Data...2866300753</v>
         <stp/>
         <stp>BDP|4491242868133807267</stp>
         <tr r="I22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1380350247</v>
+        <v>#N/A Requesting Data...4146502890</v>
         <stp/>
         <stp>BDP|1334502575085304735</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1141742643</v>
+        <v>#N/A Requesting Data...4092579478</v>
         <stp/>
         <stp>BDP|8823915155091099483</stp>
         <tr r="K11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1294640449</v>
+        <v>#N/A Requesting Data...3174271450</v>
         <stp/>
         <stp>BDP|4152707605242805376</stp>
         <tr r="F22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2293367507</v>
+        <v>#N/A Requesting Data...2893740287</v>
         <stp/>
         <stp>BDP|6313300206097234083</stp>
         <tr r="I15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3096793495</v>
+        <v>#N/A Requesting Data...2973346884</v>
         <stp/>
         <stp>BDP|7202265739744780060</stp>
         <tr r="H38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2557516986</v>
+        <v>#N/A Requesting Data...2562617434</v>
         <stp/>
         <stp>BDP|5934543001395648774</stp>
         <tr r="E20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2230477617</v>
+        <v>#N/A Requesting Data...3653944616</v>
         <stp/>
         <stp>BDP|5897704495699391030</stp>
         <tr r="I5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3691604820</v>
+        <v>#N/A Requesting Data...4038786658</v>
         <stp/>
         <stp>BDP|1191269861077748005</stp>
         <tr r="H31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1232632985</v>
+        <v>#N/A Requesting Data...3758293515</v>
         <stp/>
         <stp>BDP|7898088615521571574</stp>
         <tr r="J22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3684039037</v>
+        <v>#N/A Requesting Data...3892254249</v>
         <stp/>
         <stp>BDP|7930082214057885259</stp>
         <tr r="I40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3406415775</v>
+        <v>#N/A Requesting Data...2830064120</v>
         <stp/>
         <stp>BDP|6585599774337876081</stp>
         <tr r="F23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1712807760</v>
+        <v>#N/A Requesting Data...2806368477</v>
         <stp/>
         <stp>BDP|6303327670891951016</stp>
         <tr r="G21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1400613822</v>
+        <v>#N/A Requesting Data...3426181489</v>
         <stp/>
         <stp>BDP|6373380307233113539</stp>
         <tr r="E7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2432704784</v>
+        <v>#N/A Requesting Data...3203887377</v>
         <stp/>
         <stp>BDP|4244742944204581055</stp>
         <tr r="F27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2957377513</v>
+        <v>#N/A Requesting Data...3193670803</v>
         <stp/>
         <stp>BDP|3386196408039056825</stp>
         <tr r="E6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3060873337</v>
+        <v>#N/A Requesting Data...2815662500</v>
         <stp/>
         <stp>BDP|7397031602083518761</stp>
         <tr r="I23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3254303703</v>
+        <v>#N/A Requesting Data...2620085086</v>
         <stp/>
         <stp>BDP|5181252534336429124</stp>
         <tr r="I6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3289015951</v>
+        <v>#N/A Requesting Data...3387961656</v>
         <stp/>
         <stp>BDP|1298503726586622350</stp>
         <tr r="G23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1112786417</v>
+        <v>#N/A Requesting Data...4211961707</v>
         <stp/>
         <stp>BDP|8597678179608851266</stp>
         <tr r="I25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2025073909</v>
+        <v>#N/A Requesting Data...3919117234</v>
         <stp/>
         <stp>BDP|248078865701908213</stp>
         <tr r="J27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3970279722</v>
+        <v>#N/A Requesting Data...4018966161</v>
         <stp/>
         <stp>BDP|694727994728670286</stp>
         <tr r="J28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3162549001</v>
+        <v>#N/A Requesting Data...2868417815</v>
         <stp/>
         <stp>BDP|231950328448225497</stp>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2899719426</v>
+        <v>#N/A Requesting Data...3459280130</v>
         <stp/>
         <stp>BDP|216490765296499547</stp>
         <tr r="I17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2140539410</v>
+        <v>#N/A Requesting Data...2919576849</v>
         <stp/>
         <stp>BDP|417742120137024217</stp>
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3892139374</v>
+        <v>#N/A Requesting Data...3643743706</v>
         <stp/>
         <stp>BDP|703867115952262892</stp>
         <tr r="E29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1411043377</v>
+        <v>#N/A Requesting Data...3338815299</v>
         <stp/>
         <stp>BDP|219670546364012564</stp>
         <tr r="G24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2886005470</v>
+        <v>#N/A Requesting Data...2951476713</v>
         <stp/>
         <stp>BDP|905756424497015022</stp>
         <tr r="J4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4086494846</v>
+        <v>#N/A Requesting Data...3183510325</v>
         <stp/>
         <stp>BDP|221381961852502555</stp>
         <tr r="E21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1884947795</v>
+        <v>#N/A Requesting Data...2832458019</v>
         <stp/>
         <stp>BDP|867397090809418128</stp>
         <tr r="I11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2783049790</v>
+        <v>#N/A Requesting Data...2660074995</v>
         <stp/>
         <stp>BDP|993117395996018364</stp>
         <tr r="J13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3192615497</v>
+        <v>#N/A Requesting Data...2736191976</v>
         <stp/>
         <stp>BDP|818417412029973163</stp>
         <tr r="K4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3409292137</v>
+        <v>#N/A Requesting Data...3165339277</v>
         <stp/>
         <stp>BDP|963073539767564866</stp>
         <tr r="F35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...845804540</v>
+        <v>#N/A Requesting Data...4222477147</v>
         <stp/>
         <stp>BDP|790641586116186405</stp>
         <tr r="G28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3680490705</v>
+        <v>#N/A Requesting Data...4245879126</v>
         <stp/>
         <stp>BDP|532943154230282053</stp>
         <tr r="H27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4008264487</v>
+        <v>#N/A Requesting Data...3429211279</v>
         <stp/>
         <stp>BDP|338856410464461328</stp>
         <tr r="G18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3472005199</v>
+        <v>#N/A Requesting Data...2827579014</v>
         <stp/>
         <stp>BDP|264869505427491615</stp>
         <tr r="E27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...821131003</v>
+        <v>#N/A Requesting Data...3708393123</v>
         <stp/>
         <stp>BDP|813867508731817124</stp>
         <tr r="I29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1598065358</v>
+        <v>#N/A Requesting Data...3554720803</v>
         <stp/>
         <stp>BDP|297929672332994410</stp>
         <tr r="D35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2873297112</v>
+        <v>#N/A Requesting Data...3687979116</v>
         <stp/>
         <stp>BDP|455400142338284048</stp>
         <tr r="F14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4166595292</v>
+        <v>#N/A Requesting Data...3372246104</v>
         <stp/>
         <stp>BDP|748791461872049867</stp>
         <tr r="I21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1874556401</v>
+        <v>#N/A Requesting Data...3748486335</v>
         <stp/>
         <stp>BDP|774584681411243764</stp>
         <tr r="E11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2039197640</v>
+        <v>#N/A Requesting Data...2900059355</v>
         <stp/>
         <stp>BDP|112397016921832920</stp>
         <tr r="H37" s="2"/>
@@ -2722,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E22B6-F943-4AAF-BA00-25DE4BF4BBFF}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,31 +2817,31 @@
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">_xll.BDP(C2,$E$1)</f>
-        <v>-6.9206620000000001</v>
+        <v>-1.41368</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.BDP(C2,$F$1)</f>
-        <v>-1.8655010000000001</v>
+        <v>3.1217299999999999</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">_xll.BDP(C2,$G$1)</f>
-        <v>-1.136709</v>
+        <v>3.4307089999999998</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">_xll.BDP(C2,$H$1)</f>
-        <v>1.810519</v>
+        <v>5.0197770000000004</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">_xll.BDP(C2,$I$1)</f>
-        <v>3.179373</v>
+        <v>9.2059470000000001</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">_xll.BDP(C2,$J$1)</f>
-        <v>-7.8281809999999998</v>
+        <v>-2.4445429999999999</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">_xll.BDP(C2,$K$1)</f>
-        <v>1.688234</v>
+        <v>5.3529530000000003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2833,31 +2860,31 @@
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(C3,$E$1)</f>
-        <v>-4.8436459999999997</v>
+        <v>-1.7771250000000001</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" ref="F3">_xll.BDP(C3,$F$1)</f>
-        <v>-7.2984210000000003</v>
+        <v>1.772116</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">_xll.BDP(C3,$G$1)</f>
-        <v>-6.1671670000000001</v>
+        <v>-4.3212299999999999</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">_xll.BDP(C3,$H$1)</f>
-        <v>-6.7666240000000002</v>
+        <v>-3.148882</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">_xll.BDP(C3,$I$1)</f>
-        <v>-3.1816970000000002</v>
+        <v>-0.4738716</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3">_xll.BDP(C3,$J$1)</f>
-        <v>-10.50062</v>
+        <v>-7.9974959999999999</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3">_xll.BDP(C3,$K$1)</f>
-        <v>-5.6338600000000003</v>
+        <v>-3.0597340000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2876,31 +2903,31 @@
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(C4,$E$1)</f>
-        <v>-6.6781410000000001</v>
+        <v>-1.97471</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">_xll.BDP(C4,$F$1)</f>
-        <v>-13.345050000000001</v>
+        <v>1.5613760000000001</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">_xll.BDP(C4,$G$1)</f>
-        <v>-3.4028170000000002</v>
+        <v>-3.4465119999999998</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">_xll.BDP(C4,$H$1)</f>
-        <v>-1.489827</v>
+        <v>-0.52733240000000003</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">_xll.BDP(C4,$I$1)</f>
-        <v>8.158785</v>
+        <v>12.88649</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4">_xll.BDP(C4,$J$1)</f>
-        <v>-14.11373</v>
+        <v>-10.359579999999999</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">_xll.BDP(C4,$K$1)</f>
-        <v>-0.50727800000000001</v>
+        <v>1.1904950000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2919,31 +2946,31 @@
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(C5,$E$1)</f>
-        <v>-10.05208</v>
+        <v>-4.8833419999999998</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">_xll.BDP(C5,$F$1)</f>
-        <v>-13.28145</v>
+        <v>7.1357649999999995E-2</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">_xll.BDP(C5,$G$1)</f>
-        <v>-18.025400000000001</v>
+        <v>-15.07812</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">_xll.BDP(C5,$H$1)</f>
-        <v>-5.6670759999999998</v>
+        <v>-10.171670000000001</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">_xll.BDP(C5,$I$1)</f>
-        <v>-11.70757</v>
+        <v>-10.37832</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" ref="J5">_xll.BDP(C5,$J$1)</f>
-        <v>-19.599630000000001</v>
+        <v>-17.844169999999998</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">_xll.BDP(C5,$K$1)</f>
-        <v>-11.270210000000001</v>
+        <v>-9.8631810000000009</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2962,31 +2989,31 @@
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(C6,$E$1)</f>
-        <v>-6.0116849999999999</v>
+        <v>-1.7582420000000001</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.BDP(C6,$F$1)</f>
-        <v>1.917303</v>
+        <v>1.3605480000000001</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">_xll.BDP(C6,$G$1)</f>
-        <v>4.7284579999999998</v>
+        <v>3.643589</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">_xll.BDP(C6,$H$1)</f>
-        <v>3.2426949999999999</v>
+        <v>5.7273160000000001</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">_xll.BDP(C6,$I$1)</f>
-        <v>6.0916329999999999</v>
+        <v>8.6081210000000006</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">_xll.BDP(C6,$J$1)</f>
-        <v>-7.3647530000000003</v>
+        <v>-5.1674509999999998</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">_xll.BDP(C6,$K$1)</f>
-        <v>5.7285940000000002</v>
+        <v>5.5182529999999996</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3005,31 +3032,31 @@
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(C7,$E$1)</f>
-        <v>-13.64073</v>
+        <v>-3.250591</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.BDP(C7,$F$1)</f>
-        <v>-15.41212</v>
+        <v>-9.3576940000000004</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">_xll.BDP(C7,$G$1)</f>
-        <v>-0.53109209999999996</v>
+        <v>-18.149999999999999</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">_xll.BDP(C7,$H$1)</f>
-        <v>21.257079999999998</v>
+        <v>-14.552670000000001</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.BDP(C7,$I$1)</f>
-        <v>-15.94989</v>
+        <v>-23.47607</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">_xll.BDP(C7,$J$1)</f>
-        <v>-29.80949</v>
+        <v>-36.094619999999999</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">_xll.BDP(C7,$K$1)</f>
-        <v>2.0154540000000001</v>
+        <v>-11.315770000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3048,31 +3075,31 @@
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(C8,$E$1)</f>
-        <v>-5.8261310000000002</v>
+        <v>-1.628765</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.BDP(C8,$F$1)</f>
-        <v>-2.1033719999999998</v>
+        <v>1.8885940000000001</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" ref="G8">_xll.BDP(C8,$G$1)</f>
-        <v>-2.2273869999999998</v>
+        <v>0.43928400000000001</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" ref="H8">_xll.BDP(C8,$H$1)</f>
-        <v>2.796894</v>
+        <v>4.0524420000000001</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.BDP(C8,$I$1)</f>
-        <v>5.4417169999999997</v>
+        <v>9.3237749999999995</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" ref="J8">_xll.BDP(C8,$J$1)</f>
-        <v>-6.8209239999999998</v>
+        <v>-3.3903449999999999</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" ref="K8">_xll.BDP(C8,$K$1)</f>
-        <v>1.5223439999999999</v>
+        <v>3.3625910000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3091,31 +3118,31 @@
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(C9,$E$1)</f>
-        <v>-5.3973649999999997</v>
+        <v>-2.3098830000000001</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.BDP(C9,$F$1)</f>
-        <v>-6.3525489999999998</v>
+        <v>2.3878010000000001</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" ref="G9">_xll.BDP(C9,$G$1)</f>
-        <v>-5.195913</v>
+        <v>-3.641286</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" ref="H9">_xll.BDP(C9,$H$1)</f>
-        <v>-0.91253130000000005</v>
+        <v>-1.3106040000000001</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.BDP(C9,$I$1)</f>
-        <v>2.651605</v>
+        <v>6.7788820000000003</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">_xll.BDP(C9,$J$1)</f>
-        <v>-8.6300629999999998</v>
+        <v>-4.9563860000000002</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" ref="K9">_xll.BDP(C9,$K$1)</f>
-        <v>-1.561323</v>
+        <v>0.63371129999999998</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3134,31 +3161,31 @@
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xll.BDP(C10,$E$1)</f>
-        <v>-3.8046410000000002</v>
+        <v>-0.94249419999999995</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.BDP(C10,$F$1)</f>
-        <v>-1.952693</v>
+        <v>-0.1377043</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10">_xll.BDP(C10,$G$1)</f>
-        <v>-3.8694869999999999</v>
+        <v>-7.1090070000000001</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" ref="H10">_xll.BDP(C10,$H$1)</f>
-        <v>-3.33514</v>
+        <v>-3.870628</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.BDP(C10,$I$1)</f>
-        <v>-12.91072</v>
+        <v>-11.42055</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" ref="J10">_xll.BDP(C10,$J$1)</f>
-        <v>-20.77778</v>
+        <v>-15.35948</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" ref="K10">_xll.BDP(C10,$K$1)</f>
-        <v>-4.3315799999999998</v>
+        <v>-2.9488729999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3177,31 +3204,31 @@
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xll.BDP(C11,$E$1)</f>
-        <v>-3.466777</v>
+        <v>-1.6255269999999999</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.BDP(C11,$F$1)</f>
-        <v>-5.1884880000000004</v>
+        <v>3.4177179999999998</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">_xll.BDP(C11,$G$1)</f>
-        <v>2.7228789999999998</v>
+        <v>3.8779430000000001</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" ref="H11">_xll.BDP(C11,$H$1)</f>
-        <v>5.7414059999999996</v>
+        <v>7.3822530000000004</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.BDP(C11,$I$1)</f>
-        <v>10.748100000000001</v>
+        <v>16.051130000000001</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" ref="J11">_xll.BDP(C11,$J$1)</f>
-        <v>-6.7941820000000002</v>
+        <v>-2.3700429999999999</v>
       </c>
       <c r="K11" cm="1">
         <f t="array" ref="K11">_xll.BDP(C11,$K$1)</f>
-        <v>5.3259420000000004</v>
+        <v>7.0804879999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3220,31 +3247,31 @@
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(C12,$E$1)</f>
-        <v>-6.6804690000000004</v>
+        <v>-2.4473150000000001</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.BDP(C12,$F$1)</f>
-        <v>-10.61608</v>
+        <v>1.657691</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" ref="G12">_xll.BDP(C12,$G$1)</f>
-        <v>-6.7062249999999999</v>
+        <v>0.34965030000000002</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" ref="H12">_xll.BDP(C12,$H$1)</f>
-        <v>-5.7962889999999998</v>
+        <v>-2.9356040000000001</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.BDP(C12,$I$1)</f>
-        <v>0.1184677</v>
+        <v>6.2490759999999996</v>
       </c>
       <c r="J12" cm="1">
         <f t="array" ref="J12">_xll.BDP(C12,$J$1)</f>
-        <v>-11.412470000000001</v>
+        <v>-5.9879449999999999</v>
       </c>
       <c r="K12" cm="1">
         <f t="array" ref="K12">_xll.BDP(C12,$K$1)</f>
-        <v>-3.393659</v>
+        <v>0.26880749999999998</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3263,31 +3290,31 @@
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(C13,$E$1)</f>
-        <v>-6.951136</v>
+        <v>-4.5192730000000001</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.BDP(C13,$F$1)</f>
-        <v>-9.2617469999999997</v>
+        <v>1.126234</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" ref="G13">_xll.BDP(C13,$G$1)</f>
-        <v>-7.1641079999999997</v>
+        <v>0</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" ref="H13">_xll.BDP(C13,$H$1)</f>
-        <v>-12.378489999999999</v>
+        <v>-5.1913749999999999</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.BDP(C13,$I$1)</f>
-        <v>-8.0480630000000009</v>
+        <v>-2.2897319999999999</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" ref="J13">_xll.BDP(C13,$J$1)</f>
-        <v>-17.42671</v>
+        <v>-12.255699999999999</v>
       </c>
       <c r="K13" cm="1">
         <f t="array" ref="K13">_xll.BDP(C13,$K$1)</f>
-        <v>-6.8334510000000002</v>
+        <v>-2.62094</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3306,31 +3333,31 @@
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(C14,$E$1)</f>
-        <v>-5.299372</v>
+        <v>-1.7215309999999999</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.BDP(C14,$F$1)</f>
-        <v>-6.6404839999999998</v>
+        <v>3.1497989999999998</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" ref="G14">_xll.BDP(C14,$G$1)</f>
-        <v>-4.1305100000000001</v>
+        <v>2.3500890000000001</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" ref="H14">_xll.BDP(C14,$H$1)</f>
-        <v>-2.7881</v>
+        <v>4.1543330000000003</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.BDP(C14,$I$1)</f>
-        <v>1.004246</v>
+        <v>8.7807359999999992</v>
       </c>
       <c r="J14" cm="1">
         <f t="array" ref="J14">_xll.BDP(C14,$J$1)</f>
-        <v>-8.4597420000000003</v>
+        <v>-2.5827279999999999</v>
       </c>
       <c r="K14" cm="1">
         <f t="array" ref="K14">_xll.BDP(C14,$K$1)</f>
-        <v>-0.89854590000000001</v>
+        <v>4.1698130000000004</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3349,31 +3376,31 @@
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(C15,$E$1)</f>
-        <v>-5.265231</v>
+        <v>-1.1440729999999999</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.BDP(C15,$F$1)</f>
-        <v>-3.452429</v>
+        <v>1.391732</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" ref="G15">_xll.BDP(C15,$G$1)</f>
-        <v>-2.0898349999999999</v>
+        <v>-0.69490580000000002</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" ref="H15">_xll.BDP(C15,$H$1)</f>
-        <v>-3.4395090000000001</v>
+        <v>1.990121</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.BDP(C15,$I$1)</f>
-        <v>-3.452429</v>
+        <v>-0.56202390000000002</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">_xll.BDP(C15,$J$1)</f>
-        <v>-6.794988</v>
+        <v>-4.0046499999999998</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">_xll.BDP(C15,$K$1)</f>
-        <v>-1.163573</v>
+        <v>0.52148000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3392,31 +3419,31 @@
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(C16,$E$1)</f>
-        <v>-6.2073320000000001</v>
+        <v>-0.32234069999999998</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.BDP(C16,$F$1)</f>
-        <v>-6.995107</v>
+        <v>4.9060550000000003</v>
       </c>
       <c r="G16" cm="1">
         <f t="array" ref="G16">_xll.BDP(C16,$G$1)</f>
-        <v>-0.7889794</v>
+        <v>2.0045679999999999</v>
       </c>
       <c r="H16" cm="1">
         <f t="array" ref="H16">_xll.BDP(C16,$H$1)</f>
-        <v>4.8770179999999996</v>
+        <v>8.166283</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.BDP(C16,$I$1)</f>
-        <v>12.956759999999999</v>
+        <v>22.41169</v>
       </c>
       <c r="J16" cm="1">
         <f t="array" ref="J16">_xll.BDP(C16,$J$1)</f>
-        <v>-11.27721</v>
+        <v>-3.8507549999999999</v>
       </c>
       <c r="K16" cm="1">
         <f t="array" ref="K16">_xll.BDP(C16,$K$1)</f>
-        <v>3.6706759999999998</v>
+        <v>9.0678920000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3435,31 +3462,31 @@
       </c>
       <c r="E17" cm="1">
         <f t="array" ref="E17">_xll.BDP(C17,$E$1)</f>
-        <v>-5.3978849999999996</v>
+        <v>-1.84582</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.BDP(C17,$F$1)</f>
-        <v>-6.7599070000000001</v>
+        <v>2.6689349999999998</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" ref="G17">_xll.BDP(C17,$G$1)</f>
-        <v>-4.252319</v>
+        <v>-0.41311310000000001</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" ref="H17">_xll.BDP(C17,$H$1)</f>
-        <v>4.4065760000000003</v>
+        <v>5.8083419999999997</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.BDP(C17,$I$1)</f>
-        <v>8.9045509999999997</v>
+        <v>15.82319</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">_xll.BDP(C17,$J$1)</f>
-        <v>-8.9448319999999999</v>
+        <v>-3.1601509999999999</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">_xll.BDP(C17,$K$1)</f>
-        <v>1.700412</v>
+        <v>5.1846959999999997</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3478,31 +3505,31 @@
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xll.BDP(C18,$E$1)</f>
-        <v>-9.4503380000000003</v>
+        <v>-3.9806550000000001</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.BDP(C18,$F$1)</f>
-        <v>-15.746980000000001</v>
+        <v>1.2686379999999999</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" ref="G18">_xll.BDP(C18,$G$1)</f>
-        <v>-10.014379999999999</v>
+        <v>-11.49845</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" ref="H18">_xll.BDP(C18,$H$1)</f>
-        <v>-3.8648570000000002</v>
+        <v>-7.0802849999999999</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.BDP(C18,$I$1)</f>
-        <v>1.472378</v>
+        <v>4.5927340000000001</v>
       </c>
       <c r="J18" cm="1">
         <f t="array" ref="J18">_xll.BDP(C18,$J$1)</f>
-        <v>-17.649640000000002</v>
+        <v>-15.1173</v>
       </c>
       <c r="K18" cm="1">
         <f t="array" ref="K18">_xll.BDP(C18,$K$1)</f>
-        <v>-5.4288410000000002</v>
+        <v>-4.2260859999999996</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3521,31 +3548,31 @@
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.BDP(C19,$E$1)</f>
-        <v>-5.1278230000000002</v>
+        <v>-0.45949210000000001</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.BDP(C19,$F$1)</f>
-        <v>-0.46869939999999999</v>
+        <v>5.2039650000000002</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" ref="G19">_xll.BDP(C19,$G$1)</f>
-        <v>2.2797770000000002</v>
+        <v>8.0882299999999994</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" ref="H19">_xll.BDP(C19,$H$1)</f>
-        <v>9.4616319999999998</v>
+        <v>15.52712</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.BDP(C19,$I$1)</f>
-        <v>9.2239159999999991</v>
+        <v>17.61345</v>
       </c>
       <c r="J19" cm="1">
         <f t="array" ref="J19">_xll.BDP(C19,$J$1)</f>
-        <v>-6.6112909999999996</v>
+        <v>-0.60371889999999995</v>
       </c>
       <c r="K19" cm="1">
         <f t="array" ref="K19">_xll.BDP(C19,$K$1)</f>
-        <v>6.2501709999999999</v>
+        <v>11.5213</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3564,31 +3591,31 @@
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(C20,$E$1)</f>
-        <v>-4.1485219999999998</v>
+        <v>-0.50952589999999998</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.BDP(C20,$F$1)</f>
-        <v>-1.2980860000000001</v>
+        <v>5.348344</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" ref="G20">_xll.BDP(C20,$G$1)</f>
-        <v>-1.2747889999999999</v>
+        <v>5.0035059999999998</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" ref="H20">_xll.BDP(C20,$H$1)</f>
-        <v>1.8757630000000001</v>
+        <v>6.9540319999999998</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.BDP(C20,$I$1)</f>
-        <v>2.5251260000000002</v>
+        <v>10.10051</v>
       </c>
       <c r="J20" cm="1">
         <f t="array" ref="J20">_xll.BDP(C20,$J$1)</f>
-        <v>-4.8247590000000002</v>
+        <v>-1.079299</v>
       </c>
       <c r="K20" cm="1">
         <f t="array" ref="K20">_xll.BDP(C20,$K$1)</f>
-        <v>1.9077630000000001</v>
+        <v>6.9758209999999998</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3607,31 +3634,31 @@
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(C21,$E$1)</f>
-        <v>-4.2493670000000003</v>
+        <v>-2.257336</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.BDP(C21,$F$1)</f>
-        <v>-3.7235510000000001</v>
+        <v>1.5030380000000001</v>
       </c>
       <c r="G21" cm="1">
         <f t="array" ref="G21">_xll.BDP(C21,$G$1)</f>
-        <v>1.8563130000000001</v>
+        <v>5.337726</v>
       </c>
       <c r="H21" cm="1">
         <f t="array" ref="H21">_xll.BDP(C21,$H$1)</f>
-        <v>25.226479999999999</v>
+        <v>22.519970000000001</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.BDP(C21,$I$1)</f>
-        <v>14.65944</v>
+        <v>17.419049999999999</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" ref="J21">_xll.BDP(C21,$J$1)</f>
-        <v>-10.15</v>
+        <v>-7.9874989999999997</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" ref="K21">_xll.BDP(C21,$K$1)</f>
-        <v>10.898110000000001</v>
+        <v>9.8633819999999996</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3650,31 +3677,31 @@
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(C22,$E$1)</f>
-        <v>-6.6115700000000004</v>
+        <v>-2.7716620000000001</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.BDP(C22,$F$1)</f>
-        <v>-7.6775200000000003</v>
+        <v>-2.3543210000000001</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" ref="G22">_xll.BDP(C22,$G$1)</f>
-        <v>-11.423629999999999</v>
+        <v>-17.314689999999999</v>
       </c>
       <c r="H22" cm="1">
         <f t="array" ref="H22">_xll.BDP(C22,$H$1)</f>
-        <v>-8.6868680000000005</v>
+        <v>-11.630369999999999</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.BDP(C22,$I$1)</f>
-        <v>-10.75493</v>
+        <v>-12.81068</v>
       </c>
       <c r="J22" cm="1">
         <f t="array" ref="J22">_xll.BDP(C22,$J$1)</f>
-        <v>-18.970790000000001</v>
+        <v>-20.837289999999999</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" ref="K22">_xll.BDP(C22,$K$1)</f>
-        <v>-8.5898099999999999</v>
+        <v>-10.547359999999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3693,31 +3720,31 @@
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(C23,$E$1)</f>
-        <v>-5.6571730000000002</v>
+        <v>-2.2634020000000001</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.BDP(C23,$F$1)</f>
-        <v>-7.470529</v>
+        <v>0.9018853</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" ref="G23">_xll.BDP(C23,$G$1)</f>
-        <v>-0.55088910000000002</v>
+        <v>-3.28749</v>
       </c>
       <c r="H23" cm="1">
         <f t="array" ref="H23">_xll.BDP(C23,$H$1)</f>
-        <v>3.4675440000000002</v>
+        <v>2.1724139999999998</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.BDP(C23,$I$1)</f>
-        <v>7.3275880000000004</v>
+        <v>9.750299</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" ref="J23">_xll.BDP(C23,$J$1)</f>
-        <v>-9.0668729999999993</v>
+        <v>-7.0142389999999999</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" ref="K23">_xll.BDP(C23,$K$1)</f>
-        <v>2.0422570000000002</v>
+        <v>2.0131890000000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3736,31 +3763,31 @@
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(C24,$E$1)</f>
-        <v>-5.5481579999999999</v>
+        <v>-1.9561550000000001</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.BDP(C24,$F$1)</f>
-        <v>-7.858841</v>
+        <v>0.70438979999999995</v>
       </c>
       <c r="G24" cm="1">
         <f t="array" ref="G24">_xll.BDP(C24,$G$1)</f>
-        <v>-4.9469599999999998</v>
+        <v>-2.9814210000000001</v>
       </c>
       <c r="H24" cm="1">
         <f t="array" ref="H24">_xll.BDP(C24,$H$1)</f>
-        <v>-1.9580740000000001</v>
+        <v>-1.5910660000000001</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.BDP(C24,$I$1)</f>
-        <v>0.44843300000000003</v>
+        <v>2.9148010000000002</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" ref="J24">_xll.BDP(C24,$J$1)</f>
-        <v>-8.747852</v>
+        <v>-6.5072900000000002</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" ref="K24">_xll.BDP(C24,$K$1)</f>
-        <v>-2.4975230000000002</v>
+        <v>-1.168499</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3779,31 +3806,31 @@
       </c>
       <c r="E25" cm="1">
         <f t="array" ref="E25">_xll.BDP(C25,$E$1)</f>
-        <v>-6.7966170000000004</v>
+        <v>-4.8187769999999999</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.BDP(C25,$F$1)</f>
-        <v>-9.3034920000000003</v>
+        <v>0</v>
       </c>
       <c r="G25" cm="1">
         <f t="array" ref="G25">_xll.BDP(C25,$G$1)</f>
-        <v>-12.728149999999999</v>
+        <v>-10.650740000000001</v>
       </c>
       <c r="H25" cm="1">
         <f t="array" ref="H25">_xll.BDP(C25,$H$1)</f>
-        <v>-12.04866</v>
+        <v>-15.43253</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.BDP(C25,$I$1)</f>
-        <v>-10.943580000000001</v>
+        <v>-9.6821859999999997</v>
       </c>
       <c r="J25" cm="1">
         <f t="array" ref="J25">_xll.BDP(C25,$J$1)</f>
-        <v>-18.84149</v>
+        <v>-17.691960000000002</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" ref="K25">_xll.BDP(C25,$K$1)</f>
-        <v>-10.7211</v>
+        <v>-9.4662140000000008</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3822,31 +3849,31 @@
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.BDP(C26,$E$1)</f>
-        <v>-6.588997</v>
+        <v>-3.0971129999999998</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.BDP(C26,$F$1)</f>
-        <v>-9.6531859999999998</v>
+        <v>-0.1082278</v>
       </c>
       <c r="G26" cm="1">
         <f t="array" ref="G26">_xll.BDP(C26,$G$1)</f>
-        <v>-5.0526299999999997</v>
+        <v>-5.5633679999999996</v>
       </c>
       <c r="H26" cm="1">
         <f t="array" ref="H26">_xll.BDP(C26,$H$1)</f>
-        <v>-2.3545310000000002</v>
+        <v>-6.5553020000000002</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.BDP(C26,$I$1)</f>
-        <v>3.5888589999999998</v>
+        <v>6.0005730000000002</v>
       </c>
       <c r="J26" cm="1">
         <f t="array" ref="J26">_xll.BDP(C26,$J$1)</f>
-        <v>-11.64442</v>
+        <v>-9.5873640000000009</v>
       </c>
       <c r="K26" cm="1">
         <f t="array" ref="K26">_xll.BDP(C26,$K$1)</f>
-        <v>-1.213473</v>
+        <v>-1.392574</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3865,31 +3892,31 @@
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xll.BDP(C27,$E$1)</f>
-        <v>-4.4043200000000002</v>
+        <v>-1.368959</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.BDP(C27,$F$1)</f>
-        <v>-1.3409930000000001</v>
+        <v>1.287261</v>
       </c>
       <c r="G27" cm="1">
         <f t="array" ref="G27">_xll.BDP(C27,$G$1)</f>
-        <v>-1.5809610000000001</v>
+        <v>3.0146440000000001</v>
       </c>
       <c r="H27" cm="1">
         <f t="array" ref="H27">_xll.BDP(C27,$H$1)</f>
-        <v>14.46757</v>
+        <v>8.5299490000000002</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.BDP(C27,$I$1)</f>
-        <v>24.23246</v>
+        <v>31.140360000000001</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">_xll.BDP(C27,$J$1)</f>
-        <v>-6.1775409999999997</v>
+        <v>-4.0744319999999998</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">_xll.BDP(C27,$K$1)</f>
-        <v>7.8490919999999997</v>
+        <v>9.9247560000000004</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3908,31 +3935,31 @@
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xll.BDP(C28,$E$1)</f>
-        <v>-4.2020369999999998</v>
+        <v>-1.2820510000000001</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.BDP(C28,$F$1)</f>
-        <v>-3.7800220000000002</v>
+        <v>3.3333360000000001</v>
       </c>
       <c r="G28" cm="1">
         <f t="array" ref="G28">_xll.BDP(C28,$G$1)</f>
-        <v>-2.882962</v>
+        <v>0.54759590000000002</v>
       </c>
       <c r="H28" cm="1">
         <f t="array" ref="H28">_xll.BDP(C28,$H$1)</f>
-        <v>1.0446169999999999</v>
+        <v>4.8616200000000003</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.BDP(C28,$I$1)</f>
-        <v>3.075053</v>
+        <v>9.0120299999999993</v>
       </c>
       <c r="J28" cm="1">
         <f t="array" ref="J28">_xll.BDP(C28,$J$1)</f>
-        <v>-6.3485490000000002</v>
+        <v>-1.9578329999999999</v>
       </c>
       <c r="K28" cm="1">
         <f t="array" ref="K28">_xll.BDP(C28,$K$1)</f>
-        <v>0.43051440000000002</v>
+        <v>4.2292839999999998</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3951,31 +3978,31 @@
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(C29,$E$1)</f>
-        <v>-5.7921269999999998</v>
+        <v>-1.2974049999999999</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.BDP(C29,$F$1)</f>
-        <v>-6.404515</v>
+        <v>-0.62520900000000001</v>
       </c>
       <c r="G29" cm="1">
         <f t="array" ref="G29">_xll.BDP(C29,$G$1)</f>
-        <v>-5.8829830000000003</v>
+        <v>-6.932245</v>
       </c>
       <c r="H29" cm="1">
         <f t="array" ref="H29">_xll.BDP(C29,$H$1)</f>
-        <v>0.36567</v>
+        <v>-2.283452</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.BDP(C29,$I$1)</f>
-        <v>6.6415730000000002</v>
+        <v>8.0743069999999992</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">_xll.BDP(C29,$J$1)</f>
-        <v>-8.3863570000000003</v>
+        <v>-7.1555239999999998</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">_xll.BDP(C29,$K$1)</f>
-        <v>-2.0543749999999998</v>
+        <v>-1.361937</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3994,31 +4021,31 @@
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(C30,$E$1)</f>
-        <v>-5.1148999999999996</v>
+        <v>-1.3265309999999999</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.BDP(C30,$F$1)</f>
-        <v>-5.5211069999999998</v>
+        <v>4.250731</v>
       </c>
       <c r="G30" cm="1">
         <f t="array" ref="G30">_xll.BDP(C30,$G$1)</f>
-        <v>-4.9599000000000002</v>
+        <v>-0.58745239999999999</v>
       </c>
       <c r="H30" cm="1">
         <f t="array" ref="H30">_xll.BDP(C30,$H$1)</f>
-        <v>-4.8327140000000002</v>
+        <v>-0.82051280000000004</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.BDP(C30,$I$1)</f>
-        <v>-2.0058150000000001</v>
+        <v>3.6441629999999998</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" ref="J30">_xll.BDP(C30,$J$1)</f>
-        <v>-8.5714290000000002</v>
+        <v>-3.2999969999999998</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" ref="K30">_xll.BDP(C30,$K$1)</f>
-        <v>-3.582144</v>
+        <v>1.152441</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4037,31 +4064,31 @@
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(C31,$E$1)</f>
-        <v>-2.9307859999999999</v>
+        <v>-1.2377849999999999</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.BDP(C31,$F$1)</f>
-        <v>-4.603313</v>
+        <v>1.0397270000000001</v>
       </c>
       <c r="G31" cm="1">
         <f t="array" ref="G31">_xll.BDP(C31,$G$1)</f>
-        <v>-2.420096</v>
+        <v>-1.430431</v>
       </c>
       <c r="H31" cm="1">
         <f t="array" ref="H31">_xll.BDP(C31,$H$1)</f>
-        <v>1.9513579999999999</v>
+        <v>2.557159</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.BDP(C31,$I$1)</f>
-        <v>2.4582190000000002</v>
+        <v>4.6816690000000003</v>
       </c>
       <c r="J31" cm="1">
         <f t="array" ref="J31">_xll.BDP(C31,$J$1)</f>
-        <v>-5.2732349999999997</v>
+        <v>-3.217565</v>
       </c>
       <c r="K31" cm="1">
         <f t="array" ref="K31">_xll.BDP(C31,$K$1)</f>
-        <v>0.64976420000000001</v>
+        <v>1.613351</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4080,31 +4107,31 @@
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(C32,$E$1)</f>
-        <v>-9.6816820000000003</v>
+        <v>-5.2544950000000004</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.BDP(C32,$F$1)</f>
-        <v>-11.87294</v>
+        <v>-2.2851919999999999</v>
       </c>
       <c r="G32" cm="1">
         <f t="array" ref="G32">_xll.BDP(C32,$G$1)</f>
-        <v>-13.901289999999999</v>
+        <v>-13.4413</v>
       </c>
       <c r="H32" cm="1">
         <f t="array" ref="H32">_xll.BDP(C32,$H$1)</f>
-        <v>-17.509599999999999</v>
+        <v>-17.69688</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.BDP(C32,$I$1)</f>
-        <v>-18.253969999999999</v>
+        <v>-18.64536</v>
       </c>
       <c r="J32" cm="1">
         <f t="array" ref="J32">_xll.BDP(C32,$J$1)</f>
-        <v>-20.171990000000001</v>
+        <v>-20.554200000000002</v>
       </c>
       <c r="K32" cm="1">
         <f t="array" ref="K32">_xll.BDP(C32,$K$1)</f>
-        <v>-12.99136</v>
+        <v>-13.47167</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4123,31 +4150,31 @@
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(C33,$E$1)</f>
-        <v>-8.6439330000000005</v>
+        <v>-0.86942260000000005</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.BDP(C33,$F$1)</f>
-        <v>-4.4142020000000004</v>
+        <v>3.0525250000000002</v>
       </c>
       <c r="G33" cm="1">
         <f t="array" ref="G33">_xll.BDP(C33,$G$1)</f>
-        <v>-4.3030379999999999</v>
+        <v>1.2227790000000001</v>
       </c>
       <c r="H33" cm="1">
         <f t="array" ref="H33">_xll.BDP(C33,$H$1)</f>
-        <v>2.8204199999999999</v>
+        <v>3.5469490000000001</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.BDP(C33,$I$1)</f>
-        <v>4.4992760000000001</v>
+        <v>9.6335289999999993</v>
       </c>
       <c r="J33" cm="1">
         <f t="array" ref="J33">_xll.BDP(C33,$J$1)</f>
-        <v>-9.9577969999999993</v>
+        <v>-5.5338450000000003</v>
       </c>
       <c r="K33" cm="1">
         <f t="array" ref="K33">_xll.BDP(C33,$K$1)</f>
-        <v>1.4198820000000001</v>
+        <v>3.6466750000000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4166,31 +4193,31 @@
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(C34,$E$1)</f>
-        <v>-8.2085790000000003</v>
+        <v>-3.4938940000000001</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.BDP(C34,$F$1)</f>
-        <v>-11.297140000000001</v>
+        <v>1.191532</v>
       </c>
       <c r="G34" cm="1">
         <f t="array" ref="G34">_xll.BDP(C34,$G$1)</f>
-        <v>-9.5324939999999998</v>
+        <v>-5.7634999999999996</v>
       </c>
       <c r="H34" cm="1">
         <f t="array" ref="H34">_xll.BDP(C34,$H$1)</f>
-        <v>-9.5324939999999998</v>
+        <v>-10.067959999999999</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.BDP(C34,$I$1)</f>
-        <v>-8.1158459999999994</v>
+        <v>-4.1926269999999999</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" ref="J34">_xll.BDP(C34,$J$1)</f>
-        <v>-14.8674</v>
+        <v>-11.23245</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" ref="K34">_xll.BDP(C34,$K$1)</f>
-        <v>-7.6885969999999997</v>
+        <v>-5.1552850000000001</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4209,31 +4236,31 @@
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(C35,$E$1)</f>
-        <v>-8.1282429999999994</v>
+        <v>-5.2711259999999998</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.BDP(C35,$F$1)</f>
-        <v>-21.047219999999999</v>
+        <v>-3.5589219999999999</v>
       </c>
       <c r="G35" cm="1">
         <f t="array" ref="G35">_xll.BDP(C35,$G$1)</f>
-        <v>-6.2576330000000002</v>
+        <v>-17.628050000000002</v>
       </c>
       <c r="H35" cm="1">
         <f t="array" ref="H35">_xll.BDP(C35,$H$1)</f>
-        <v>3.074627</v>
+        <v>-10.945790000000001</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.BDP(C35,$I$1)</f>
-        <v>13.660310000000001</v>
+        <v>13.28177</v>
       </c>
       <c r="J35" cm="1">
         <f t="array" ref="J35">_xll.BDP(C35,$J$1)</f>
-        <v>-24.30951</v>
+        <v>-24.561589999999999</v>
       </c>
       <c r="K35" cm="1">
         <f t="array" ref="K35">_xll.BDP(C35,$K$1)</f>
-        <v>-1.607748</v>
+        <v>-5.5056079999999996</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4252,31 +4279,31 @@
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(C36,$E$1)</f>
-        <v>-9.3449969999999993</v>
+        <v>-0.61820509999999995</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.BDP(C36,$F$1)</f>
-        <v>-0.25821240000000001</v>
+        <v>4.7875889999999997</v>
       </c>
       <c r="G36" cm="1">
         <f t="array" ref="G36">_xll.BDP(C36,$G$1)</f>
-        <v>4.706747</v>
+        <v>11.744960000000001</v>
       </c>
       <c r="H36" cm="1">
         <f t="array" ref="H36">_xll.BDP(C36,$H$1)</f>
-        <v>8.0181039999999992</v>
+        <v>14.9125</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.BDP(C36,$I$1)</f>
-        <v>-3.2999510000000001</v>
+        <v>6.0992300000000004</v>
       </c>
       <c r="J36" cm="1">
         <f t="array" ref="J36">_xll.BDP(C36,$J$1)</f>
-        <v>-11.901300000000001</v>
+        <v>-9.7386300000000006</v>
       </c>
       <c r="K36" cm="1">
         <f t="array" ref="K36">_xll.BDP(C36,$K$1)</f>
-        <v>3.3513890000000002</v>
+        <v>10.75089</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -4295,31 +4322,31 @@
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(C37,$E$1)</f>
-        <v>-11.463839999999999</v>
+        <v>-2.3622049999999999</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.BDP(C37,$F$1)</f>
-        <v>-20.585329999999999</v>
+        <v>-6.7898930000000002</v>
       </c>
       <c r="G37" cm="1">
         <f t="array" ref="G37">_xll.BDP(C37,$G$1)</f>
-        <v>-28.105979999999999</v>
+        <v>-29.45346</v>
       </c>
       <c r="H37" cm="1">
         <f t="array" ref="H37">_xll.BDP(C37,$H$1)</f>
-        <v>-30.818259999999999</v>
+        <v>-23.13008</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.BDP(C37,$I$1)</f>
-        <v>-15.3992</v>
+        <v>-20.32863</v>
       </c>
       <c r="J37" cm="1">
         <f t="array" ref="J37">_xll.BDP(C37,$J$1)</f>
-        <v>-32.943730000000002</v>
+        <v>-36.85089</v>
       </c>
       <c r="K37" cm="1">
         <f t="array" ref="K37">_xll.BDP(C37,$K$1)</f>
-        <v>-20.862590000000001</v>
+        <v>-24.482939999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4338,31 +4365,31 @@
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(C38,$E$1)</f>
-        <v>27.233969999999999</v>
+        <v>8.2480820000000001</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.BDP(C38,$F$1)</f>
-        <v>34.144970000000001</v>
+        <v>-13.91525</v>
       </c>
       <c r="G38" cm="1">
         <f t="array" ref="G38">_xll.BDP(C38,$G$1)</f>
-        <v>23.16423</v>
+        <v>-7.215929</v>
       </c>
       <c r="H38" cm="1">
         <f t="array" ref="H38">_xll.BDP(C38,$H$1)</f>
-        <v>12.30986</v>
+        <v>-20.204239999999999</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.BDP(C38,$I$1)</f>
-        <v>8.9940610000000003</v>
+        <v>-22.705829999999999</v>
       </c>
       <c r="J38" cm="1">
         <f t="array" ref="J38">_xll.BDP(C38,$J$1)</f>
-        <v>-25.02094</v>
+        <v>-46.827889999999996</v>
       </c>
       <c r="K38" cm="1">
         <f t="array" ref="K38">_xll.BDP(C38,$K$1)</f>
-        <v>13.11303</v>
+        <v>-14.81183</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4381,31 +4408,31 @@
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(C39,$E$1)</f>
-        <v>-6.2463100000000003</v>
+        <v>-2.4372319999999998</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.BDP(C39,$F$1)</f>
-        <v>-1.170032</v>
+        <v>-0.2004494</v>
       </c>
       <c r="G39" cm="1">
         <f t="array" ref="G39">_xll.BDP(C39,$G$1)</f>
-        <v>-3.932248</v>
+        <v>-3.125375</v>
       </c>
       <c r="H39" cm="1">
         <f t="array" ref="H39">_xll.BDP(C39,$H$1)</f>
-        <v>6.5057020000000003</v>
+        <v>-1.3254049999999999</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.BDP(C39,$I$1)</f>
-        <v>3.9539140000000002</v>
+        <v>4.2943179999999996</v>
       </c>
       <c r="J39" cm="1">
         <f t="array" ref="J39">_xll.BDP(C39,$J$1)</f>
-        <v>-8.0273400000000006</v>
+        <v>-7.7261699999999998</v>
       </c>
       <c r="K39" cm="1">
         <f t="array" ref="K39">_xll.BDP(C39,$K$1)</f>
-        <v>1.8384119999999999</v>
+        <v>0.13116639999999999</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4424,31 +4451,31 @@
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(C40,$E$1)</f>
-        <v>-5.7621890000000002</v>
+        <v>-1.235052</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.BDP(C40,$F$1)</f>
-        <v>-1.945055</v>
+        <v>2.3359749999999999</v>
       </c>
       <c r="G40" cm="1">
         <f t="array" ref="G40">_xll.BDP(C40,$G$1)</f>
-        <v>-8.1517680000000006</v>
+        <v>-2.3643380000000001</v>
       </c>
       <c r="H40" cm="1">
         <f t="array" ref="H40">_xll.BDP(C40,$H$1)</f>
-        <v>0.76241749999999997</v>
+        <v>-1.2544109999999999</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.BDP(C40,$I$1)</f>
-        <v>-4.9008130000000003</v>
+        <v>-2.0225559999999998</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" ref="J40">_xll.BDP(C40,$J$1)</f>
-        <v>-10.79898</v>
+        <v>-8.0992309999999996</v>
       </c>
       <c r="K40" cm="1">
         <f t="array" ref="K40">_xll.BDP(C40,$K$1)</f>
-        <v>-3.7416740000000002</v>
+        <v>-1.3623879999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4458,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70A003-92E4-4A19-8968-87BE0D9EE130}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,18 +4521,45 @@
         <v>RIM GLOBAL BIOSCIENCE ACCU-B</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3">_xll.BDP(B3,"NAME")</f>
+        <v>POLAR CAP-INSURANCE-IEA</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4686,15 +4740,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6399BF-3D73-4F3C-8A62-9BB1BBC56356}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11857787-42C7-4100-AA8A-33FA0A9EA44F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4719,10 +4777,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11857787-42C7-4100-AA8A-33FA0A9EA44F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6399BF-3D73-4F3C-8A62-9BB1BBC56356}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/megatrends.xlsx
+++ b/megatrends.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\megatrends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A02FBD2-4FFD-427F-94B3-CD49FA5EDBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E08F1B-2873-4C9C-B5AB-70E697E5D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57030" yWindow="0" windowWidth="28290" windowHeight="15480" xr2:uid="{EC6E5755-4190-4D69-BA31-43985C92D729}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EC6E5755-4190-4D69-BA31-43985C92D729}"/>
   </bookViews>
   <sheets>
     <sheet name="Themes" sheetId="2" r:id="rId1"/>
-    <sheet name="Active Fonds" sheetId="3" r:id="rId2"/>
+    <sheet name="TopPerformers" sheetId="4" r:id="rId2"/>
+    <sheet name="Active Fonds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="144">
   <si>
     <t>Ageing Population</t>
   </si>
@@ -430,9 +431,6 @@
     <t>CHG_PCT_6M</t>
   </si>
   <si>
-    <t>CHG_PCT_HIGH_52WEEK</t>
-  </si>
-  <si>
     <t>SECURITY_NAME</t>
   </si>
   <si>
@@ -448,9 +446,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CHG_PCT_MOV_AVG_200D</t>
-  </si>
-  <si>
     <t>PCFIIEA ID Equity</t>
   </si>
   <si>
@@ -461,6 +456,42 @@
   </si>
   <si>
     <t>Empureon</t>
+  </si>
+  <si>
+    <t>6762 JP Equity</t>
+  </si>
+  <si>
+    <t>267260 KS Equity</t>
+  </si>
+  <si>
+    <t>2308 TT Equity</t>
+  </si>
+  <si>
+    <t>ABBN SW Equity</t>
+  </si>
+  <si>
+    <t>1211 HK Equity</t>
+  </si>
+  <si>
+    <t>WRT1V FH Equity</t>
+  </si>
+  <si>
+    <t>6674 JP Equity</t>
+  </si>
+  <si>
+    <t>5802 JP Equity</t>
+  </si>
+  <si>
+    <t>5333 JP Equity</t>
+  </si>
+  <si>
+    <t>004490 KS Equity</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>% Change</t>
   </si>
 </sst>
 </file>
@@ -540,847 +571,625 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3350019335</v>
+        <v>#N/A Requesting Data...2185603607</v>
         <stp/>
         <stp>BDP|15846738591531099025</stp>
         <tr r="H20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4142671605</v>
+        <v>#N/A Requesting Data...2436145321</v>
         <stp/>
         <stp>BDP|13724495308188809554</stp>
         <tr r="D29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3678543852</v>
         <stp/>
         <stp>BDP|13981659744853632820</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2477169817</v>
+        <v>#N/A Requesting Data...2770703191</v>
         <stp/>
         <stp>BDP|13957917932485292699</stp>
         <tr r="G27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3111376277</v>
-        <stp/>
-        <stp>BDP|13286114453828392528</stp>
-        <tr r="J7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3900433181</v>
+        <v>#N/A Requesting Data...3019895684</v>
         <stp/>
         <stp>BDP|15750803960131729004</stp>
         <tr r="E5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2518249499</v>
+        <v>#N/A Requesting Data...2852603671</v>
         <stp/>
         <stp>BDP|13222288948239031607</stp>
         <tr r="F13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4019210635</v>
+        <v>#N/A Requesting Data...3108070554</v>
         <stp/>
         <stp>BDP|13604027487649483826</stp>
         <tr r="G34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3336972107</v>
+        <v>#N/A Requesting Data...2043048722</v>
         <stp/>
         <stp>BDP|11365245589516536623</stp>
         <tr r="I39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2364048603</v>
-        <stp/>
-        <stp>BDP|11794883239871752090</stp>
-        <tr r="J39" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3454916326</v>
+        <v>#N/A Requesting Data...2952645459</v>
         <stp/>
         <stp>BDP|13254085681685784513</stp>
         <tr r="G30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3396425372</v>
+        <v>#N/A Requesting Data...3466162057</v>
         <stp/>
         <stp>BDP|11427706444108833174</stp>
         <tr r="G36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3629396721</v>
+        <v>#N/A Requesting Data...3565424670</v>
         <stp/>
         <stp>BDP|13359624940862828871</stp>
         <tr r="G25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3700268606</v>
-        <stp/>
-        <stp>BDP|13825440892857886273</stp>
-        <tr r="K20" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2384510171</v>
+        <v>#N/A Requesting Data...2450735370</v>
         <stp/>
         <stp>BDP|10085804158323141595</stp>
         <tr r="F33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3116621229</v>
-        <stp/>
-        <stp>BDP|18375491469133216250</stp>
-        <tr r="K36" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3744037438</v>
+        <v>#N/A Requesting Data...2567987323</v>
         <stp/>
         <stp>BDP|11378380675815021845</stp>
         <tr r="I18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2979364141</v>
+        <v>#N/A Requesting Data...2334580339</v>
         <stp/>
         <stp>BDP|16894218481320451469</stp>
         <tr r="H16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263627345</v>
+        <v>#N/A Requesting Data...3520642022</v>
         <stp/>
         <stp>BDP|11545978750337942264</stp>
         <tr r="I2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4272410454</v>
+        <v>#N/A Requesting Data...2458032216</v>
         <stp/>
         <stp>BDP|17501349875673823800</stp>
         <tr r="I38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3776878593</v>
+        <v>#N/A Requesting Data...4285701877</v>
         <stp/>
         <stp>BDP|16554971571640288001</stp>
         <tr r="D34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3492927260</v>
+        <v>#N/A Requesting Data...3477183215</v>
         <stp/>
         <stp>BDP|13438412086682324512</stp>
         <tr r="G39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2889078948</v>
-        <stp/>
-        <stp>BDP|10219633224185239923</stp>
-        <tr r="J2" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2663502928</v>
+        <v>#N/A Requesting Data...2556973914</v>
         <stp/>
         <stp>BDP|17123623106699860106</stp>
         <tr r="I35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4165652726</v>
-        <stp/>
-        <stp>BDP|16868303492495208047</stp>
-        <tr r="K32" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4188497029</v>
+        <v>#N/A Requesting Data...3493108847</v>
         <stp/>
         <stp>BDP|18212865830352986824</stp>
         <tr r="H14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2655537975</v>
+        <v>#N/A Requesting Data...3592592076</v>
         <stp/>
         <stp>BDP|16948702666927902988</stp>
         <tr r="G32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3252261990</v>
+        <v>#N/A Requesting Data...2924621436</v>
         <stp/>
         <stp>BDP|15326480282658500889</stp>
         <tr r="G35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3040842005</v>
+        <v>#N/A Requesting Data...4206543852</v>
         <stp/>
         <stp>BDP|12476998175800923552</stp>
         <tr r="G12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2395971981</v>
+        <v>#N/A Requesting Data...2750199163</v>
         <stp/>
         <stp>BDP|13264306770587637938</stp>
         <tr r="F8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2427050749</v>
+        <v>#N/A Requesting Data...3130910680</v>
         <stp/>
         <stp>BDP|18201107262367705105</stp>
         <tr r="I13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4007327579</v>
+        <v>#N/A Requesting Data...2681369217</v>
         <stp/>
         <stp>BDP|16460204866288758323</stp>
         <tr r="E36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2491920248</v>
+        <v>#N/A Requesting Data...3320135678</v>
         <stp/>
         <stp>BDP|10696490135669588048</stp>
         <tr r="D2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3028469181</v>
+        <v>#N/A Requesting Data...2516780593</v>
         <stp/>
         <stp>BDP|11857986118173476405</stp>
         <tr r="D6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2397893652</v>
-        <stp/>
-        <stp>BDP|12232682117172321900</stp>
-        <tr r="K10" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4066268617</v>
-        <stp/>
-        <stp>BDP|18305523779857843317</stp>
-        <tr r="K33" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2462510835</v>
-        <stp/>
-        <stp>BDP|14133112174204746822</stp>
-        <tr r="K27" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3535668922</v>
+        <v>#N/A Requesting Data...3996576734</v>
         <stp/>
         <stp>BDP|11675960752754124704</stp>
         <tr r="F28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2674148486</v>
+        <v>#N/A Requesting Data...2002825167</v>
         <stp/>
         <stp>BDP|16399801546706575229</stp>
         <tr r="E39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2517996132</v>
+        <v>#N/A Requesting Data...2506829691</v>
         <stp/>
         <stp>BDP|16669428213185627854</stp>
         <tr r="F21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3643656908</v>
-        <stp/>
-        <stp>BDP|16228364846576662932</stp>
-        <tr r="K24" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2454191101</v>
+        <v>#N/A Requesting Data...2913722297</v>
         <stp/>
         <stp>BDP|16086251193572642091</stp>
         <tr r="I12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3461643556</v>
-        <stp/>
-        <stp>BDP|11056409192081858265</stp>
-        <tr r="K17" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3575916681</v>
+        <v>#N/A Requesting Data...3414104700</v>
         <stp/>
         <stp>BDP|17600972052692525694</stp>
         <tr r="E37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3524036899</v>
+        <v>#N/A Requesting Data...2454866039</v>
         <stp/>
         <stp>BDP|14965235187760316107</stp>
         <tr r="E40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2943408897</v>
+        <v>#N/A Requesting Data...2411630183</v>
         <stp/>
         <stp>BDP|12152621898851960332</stp>
         <tr r="G29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3388072816</v>
+        <v>#N/A Requesting Data...3868125816</v>
         <stp/>
         <stp>BDP|13240072722626309849</stp>
         <tr r="G14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2798390514</v>
+        <v>#N/A Requesting Data...2958960100</v>
         <stp/>
         <stp>BDP|17343158082526520734</stp>
         <tr r="H24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2751875630</v>
+        <v>#N/A Requesting Data...2082411169</v>
         <stp/>
         <stp>BDP|10286148726479429515</stp>
         <tr r="F32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2593440198</v>
-        <stp/>
-        <stp>BDP|17057269233991342820</stp>
-        <tr r="J9" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3989523796</v>
+        <v>#N/A Requesting Data...3047157582</v>
         <stp/>
         <stp>BDP|15657871464785675148</stp>
         <tr r="F31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3873973386</v>
+        <v>#N/A Requesting Data...3246308044</v>
         <stp/>
         <stp>BDP|15914228082869819963</stp>
         <tr r="E35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2853964627</v>
+        <v>#N/A Requesting Data...3949298978</v>
         <stp/>
         <stp>BDP|16087657399014240165</stp>
         <tr r="H26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3870919897</v>
+        <v>#N/A Requesting Data...3834234571</v>
         <stp/>
         <stp>BDP|10185699863609124506</stp>
         <tr r="I20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3878667655</v>
-        <stp/>
-        <stp>BDP|14793748508646622976</stp>
-        <tr r="K16" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2662316717</v>
+        <v>#N/A Requesting Data...4011716478</v>
         <stp/>
         <stp>BDP|14368195591748820891</stp>
         <tr r="I19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2559783710</v>
-        <stp/>
-        <stp>BDP|11040222196560914629</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3898045645</v>
+        <v>#N/A Requesting Data...2266741939</v>
         <stp/>
         <stp>BDP|17306826736853072349</stp>
         <tr r="D7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3527934558</v>
-        <stp/>
-        <stp>BDP|15196896594361079984</stp>
-        <tr r="J17" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2428805100</v>
+        <v>#N/A Requesting Data...2420850620</v>
         <stp/>
         <stp>BDP|13814661179808047601</stp>
         <tr r="F24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3306058589</v>
+        <v>#N/A Requesting Data...2297706461</v>
         <stp/>
         <stp>BDP|11007430928803701978</stp>
         <tr r="H25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2383016514</v>
-        <stp/>
-        <stp>BDP|11723367629685712801</stp>
-        <tr r="K38" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3851920296</v>
+        <v>#N/A Requesting Data...2868598126</v>
         <stp/>
         <stp>BDP|15601961462356535183</stp>
         <tr r="F15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3582415566</v>
+        <v>#N/A Requesting Data...2362507423</v>
         <stp/>
         <stp>BDP|18202762449704162231</stp>
         <tr r="H9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3145661529</v>
+        <v>#N/A Requesting Data...3906984127</v>
         <stp/>
         <stp>BDP|17983580872308353016</stp>
         <tr r="H10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3094495279</v>
+        <v>#N/A Requesting Data...2469641441</v>
         <stp/>
         <stp>BDP|10333985114621868468</stp>
         <tr r="D5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2655695096</v>
+        <v>#N/A Requesting Data...4262054514</v>
         <stp/>
         <stp>BDP|15895505836356281888</stp>
         <tr r="G2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3199431623</v>
-        <stp/>
-        <stp>BDP|16807042948790960069</stp>
-        <tr r="J31" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2772586328</v>
-        <stp/>
-        <stp>BDP|16148642647385628390</stp>
-        <tr r="J18" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3015573328</v>
+        <v>#N/A Requesting Data...3529544874</v>
         <stp/>
         <stp>BDP|11525878302248829371</stp>
         <tr r="H34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2609858472</v>
-        <stp/>
-        <stp>BDP|13600680289478741702</stp>
-        <tr r="J19" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3139635634</v>
+        <v>#N/A Requesting Data...2414206061</v>
         <stp/>
         <stp>BDP|10168046458075884275</stp>
         <tr r="I24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4081293286</v>
+        <v>#N/A Requesting Data...2597130571</v>
         <stp/>
         <stp>BDP|12414291348027057123</stp>
         <tr r="G19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3321826486</v>
+        <v>#N/A Requesting Data...2988085128</v>
         <stp/>
         <stp>BDP|10533758059147427650</stp>
         <tr r="H6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3501920682</v>
+        <v>#N/A Requesting Data...2548241050</v>
         <stp/>
         <stp>BDP|13391457112911941452</stp>
         <tr r="F37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2424516014</v>
+        <v>#N/A Requesting Data...2033606810</v>
         <stp/>
         <stp>BDP|17131588762370323753</stp>
         <tr r="F7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2564039209</v>
-        <stp/>
-        <stp>BDP|10406205048070773574</stp>
-        <tr r="K14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2980743872</v>
+        <v>#N/A Requesting Data...2501466368</v>
         <stp/>
         <stp>BDP|15925200263062560014</stp>
         <tr r="D32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4049777268</v>
+        <v>#N/A Requesting Data...3712793372</v>
         <stp/>
         <stp>BDP|16033047627795788275</stp>
         <tr r="E22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2789296652</v>
+        <v>#N/A Requesting Data...4005596884</v>
         <stp/>
         <stp>BDP|16786560416766485704</stp>
         <tr r="H35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2770386815</v>
+        <v>#N/A Requesting Data...3437617043</v>
         <stp/>
         <stp>BDP|16062888788183168662</stp>
         <tr r="D31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2532386315</v>
+        <v>#N/A Requesting Data...2414572635</v>
         <stp/>
         <stp>BDP|13551063545296805297</stp>
         <tr r="H21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3866025078</v>
-        <stp/>
-        <stp>BDP|16737173078421189105</stp>
-        <tr r="J15" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3452590088</v>
+        <v>#N/A Requesting Data...2687527447</v>
         <stp/>
         <stp>BDP|14762635370641503480</stp>
         <tr r="D9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2521067382</v>
+        <v>#N/A Requesting Data...2389485207</v>
         <stp/>
         <stp>BDP|14133255916194837329</stp>
         <tr r="I27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4185384577</v>
+        <v>#N/A Requesting Data...3476281475</v>
         <stp/>
         <stp>BDP|13656537959915001676</stp>
         <tr r="D22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2461374198</v>
+        <v>#N/A Requesting Data...3840672518</v>
         <stp/>
         <stp>BDP|10165802098883461216</stp>
         <tr r="F12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3287209515</v>
+        <v>#N/A Requesting Data...3527959291</v>
         <stp/>
         <stp>BDP|13056517404174217281</stp>
         <tr r="G13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3874146220</v>
-        <stp/>
-        <stp>BDP|13430504808454503299</stp>
-        <tr r="J6" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3931106717</v>
+        <v>#N/A Requesting Data...4227851689</v>
         <stp/>
         <stp>BDP|10003894789129243912</stp>
         <tr r="E14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2817630541</v>
+        <v>#N/A Requesting Data...2404040268</v>
         <stp/>
         <stp>BDP|16324617634546577487</stp>
         <tr r="D12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2389612949</v>
-        <stp/>
-        <stp>BDP|13078692413307352235</stp>
-        <tr r="J25" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2943917432</v>
+        <v>#N/A Requesting Data...3014403552</v>
         <stp/>
         <stp>BDP|11345618822983900733</stp>
         <tr r="F6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3211181670</v>
-        <stp/>
-        <stp>BDP|12307046003915024688</stp>
-        <tr r="K13" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3331482650</v>
+        <v>#N/A Requesting Data...2114706981</v>
         <stp/>
         <stp>BDP|17005184358307286520</stp>
         <tr r="F29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2414094667</v>
+        <v>#N/A Requesting Data...3837023957</v>
         <stp/>
         <stp>BDP|13137496149581130334</stp>
         <tr r="E26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2429134548</v>
+        <v>#N/A Requesting Data...2192697204</v>
         <stp/>
         <stp>BDP|10724110998869384080</stp>
         <tr r="I31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2977431743</v>
+        <v>#N/A Requesting Data...2516232942</v>
         <stp/>
         <stp>BDP|13095956520070822993</stp>
         <tr r="D37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2537688182</v>
+        <v>#N/A Requesting Data...3901236139</v>
         <stp/>
         <stp>BDP|18111210020269435005</stp>
         <tr r="F2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3138142245</v>
+        <v>#N/A Requesting Data...3303056337</v>
         <stp/>
         <stp>BDP|11966868690816835709</stp>
         <tr r="E2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3846142886</v>
+        <v>#N/A Requesting Data...2185490296</v>
         <stp/>
         <stp>BDP|14234239965246219709</stp>
         <tr r="E25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2938511631</v>
+        <v>#N/A Requesting Data...2449400695</v>
         <stp/>
         <stp>BDP|17666650128712422094</stp>
         <tr r="F39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3257405585</v>
+        <v>#N/A Requesting Data...2408969582</v>
         <stp/>
         <stp>BDP|17222801784731628098</stp>
         <tr r="F11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4230409891</v>
-        <stp/>
-        <stp>BDP|16154874497550015180</stp>
-        <tr r="K23" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3722333470</v>
-        <stp/>
-        <stp>BDP|10591279866101892340</stp>
-        <tr r="K8" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2974026898</v>
+        <v>#N/A Requesting Data...3723254622</v>
         <stp/>
         <stp>BDP|16831540753484501445</stp>
         <tr r="G4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2419513895</v>
-        <stp/>
-        <stp>BDP|17180358253002768503</stp>
-        <tr r="K26" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3248805074</v>
+        <v>#N/A Requesting Data...4135868284</v>
         <stp/>
         <stp>BDP|14746354412071154135</stp>
         <tr r="I26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2681733331</v>
+        <v>#N/A Requesting Data...3303817288</v>
         <stp/>
         <stp>BDP|16920197560306043151</stp>
         <tr r="F20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2791908674</v>
+        <v>#N/A Requesting Data...3437944419</v>
         <stp/>
         <stp>BDP|18357935525425834093</stp>
         <tr r="E23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3934155973</v>
+        <v>#N/A Requesting Data...3499725580</v>
         <stp/>
         <stp>BDP|15145034938771755058</stp>
         <tr r="D16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3817262301</v>
+        <v>#N/A Requesting Data...2264756652</v>
         <stp/>
         <stp>BDP|12881198314797893209</stp>
         <tr r="I8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2492500876</v>
-        <stp/>
-        <stp>BDP|14480032740422365580</stp>
-        <tr r="J33" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2745910538</v>
+        <v>#N/A Requesting Data...3422471007</v>
         <stp/>
         <stp>BDP|16642682969724949522</stp>
         <tr r="E31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4191549449</v>
+        <v>#N/A Requesting Data...3205903503</v>
         <stp/>
         <stp>BDP|16717124719827248601</stp>
         <tr r="I28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2654046796</v>
+        <v>#N/A Requesting Data...3398151973</v>
         <stp/>
         <stp>BDP|10220805233938732471</stp>
         <tr r="F10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3067763603</v>
+        <v>#N/A Requesting Data...2859993966</v>
         <stp/>
         <stp>BDP|16560809975647531961</stp>
         <tr r="H30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3233151422</v>
+        <v>#N/A Requesting Data...2085808228</v>
         <stp/>
         <stp>BDP|10358355578190820358</stp>
         <tr r="D8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4123960791</v>
+        <v>#N/A Requesting Data...3937411759</v>
         <stp/>
         <stp>BDP|14757582569115504565</stp>
         <tr r="D21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2989590796</v>
+        <v>#N/A Requesting Data...2956499001</v>
         <stp/>
         <stp>BDP|16401739063776285628</stp>
         <tr r="G17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4186299507</v>
+        <v>#N/A Requesting Data...2390146529</v>
         <stp/>
         <stp>BDP|12884875764398959355</stp>
         <tr r="G26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3604394630</v>
+        <v>#N/A Requesting Data...3804429752</v>
         <stp/>
         <stp>BDP|17020884307051083993</stp>
         <tr r="F17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4046426235</v>
+        <v>#N/A Requesting Data...3735235971</v>
         <stp/>
         <stp>BDP|12950708020866091505</stp>
         <tr r="G3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3545984596</v>
+        <v>#N/A Requesting Data...2885862240</v>
         <stp/>
         <stp>BDP|17972898070659838528</stp>
         <tr r="F5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3330295020</v>
-        <stp/>
-        <stp>BDP|10273073448451041171</stp>
-        <tr r="J40" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2914795433</v>
+        <v>#N/A Requesting Data...4230029124</v>
         <stp/>
         <stp>BDP|12542464985933816911</stp>
         <tr r="E16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2913749689</v>
+        <v>#N/A Requesting Data...2065035921</v>
         <stp/>
         <stp>BDP|12376158789907716879</stp>
         <tr r="I34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2873403561</v>
+        <v>#N/A Requesting Data...2986627683</v>
         <stp/>
         <stp>BDP|12512055738233224645</stp>
         <tr r="H19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3828310836</v>
-        <stp/>
-        <stp>BDP|16086337769223844413</stp>
-        <tr r="J36" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3100594918</v>
+        <v>#N/A Requesting Data...2773583912</v>
         <stp/>
         <stp>BDP|15812641436770962407</stp>
         <tr r="E8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4204828273</v>
-        <stp/>
-        <stp>BDP|12676164681728373705</stp>
-        <tr r="J34" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3618183667</v>
+        <v>#N/A Requesting Data...2207463902</v>
         <stp/>
         <stp>BDP|17508287313678428886</stp>
         <tr r="H29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4177726326</v>
-        <stp/>
-        <stp>BDP|15475268310210523203</stp>
-        <tr r="J10" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3514053505</v>
+        <v>#N/A Requesting Data...3796552722</v>
         <stp/>
         <stp>BDP|16249415058597238506</stp>
         <tr r="G6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3321638665</v>
-        <stp/>
-        <stp>BDP|11805032017367497252</stp>
-        <tr r="J12" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2738657245</v>
-        <stp/>
-        <stp>BDP|16191576036892589781</stp>
-        <tr r="J5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3665637835</v>
-        <stp/>
-        <stp>BDP|17155835375705157888</stp>
-        <tr r="J20" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3519693300</v>
-        <stp/>
-        <stp>BDP|17452163823237710634</stp>
-        <tr r="J8" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2679708122</v>
-        <stp/>
-        <stp>BDP|17150364910988446843</stp>
-        <tr r="K35" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3091010930</v>
+        <v>#N/A Requesting Data...3760150506</v>
         <stp/>
         <stp>BDP|18145031492910129470</stp>
         <tr r="E17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3679475090</v>
+        <v>#N/A Requesting Data...3302093543</v>
         <stp/>
         <stp>BDP|11007870551379462049</stp>
         <tr r="D30" s="2"/>
@@ -1388,1039 +1197,793 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2802351723</v>
-        <stp/>
-        <stp>BDP|2214097638384079989</stp>
-        <tr r="K5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2491872618</v>
+        <v>#N/A Requesting Data...2614890656</v>
         <stp/>
         <stp>BDP|5899963692130029979</stp>
         <tr r="G33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2950039672</v>
+        <v>#N/A Requesting Data...3877912438</v>
         <stp/>
         <stp>BDP|8442050103152914678</stp>
         <tr r="G9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4126008286</v>
+        <v>#N/A Requesting Data...3972036752</v>
         <stp/>
         <stp>BDP|5534819392900879822</stp>
         <tr r="F18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3855663384</v>
-        <stp/>
-        <stp>BDP|5830077521959216217</stp>
-        <tr r="K39" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4193928920</v>
+        <v>#N/A Requesting Data...3128496233</v>
         <stp/>
         <stp>BDP|3980126830294497925</stp>
         <tr r="E15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3344999517</v>
-        <stp/>
-        <stp>BDP|3846558302852365815</stp>
-        <tr r="J37" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3776117224</v>
+        <v>#N/A Requesting Data...2074518883</v>
         <stp/>
         <stp>BDP|1150334780213496543</stp>
         <tr r="H18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4210251710</v>
+        <v>#N/A Requesting Data...2606270791</v>
         <stp/>
         <stp>BDP|9251382176928300813</stp>
         <tr r="D36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2653320273</v>
+        <v>#N/A Requesting Data...3135167082</v>
         <stp/>
         <stp>BDP|9113264309795435353</stp>
         <tr r="G20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3478457557</v>
+        <v>#N/A Requesting Data...2491577589</v>
         <stp/>
         <stp>BDP|1133930977272361091</stp>
         <tr r="D4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2555974830</v>
-        <stp/>
-        <stp>BDP|7034247481765260552</stp>
-        <tr r="K9" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3925835864</v>
+        <v>#N/A Requesting Data...2422395449</v>
         <stp/>
         <stp>BDP|4801252564088129592</stp>
         <tr r="G11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3626061828</v>
+        <v>#N/A Requesting Data...3142308571</v>
         <stp/>
         <stp>BDP|8366634138075782582</stp>
         <tr r="D11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4293351614</v>
+        <v>#N/A Requesting Data...2627482812</v>
         <stp/>
         <stp>BDP|1035078154500239956</stp>
         <tr r="D40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4051602509</v>
+        <v>#N/A Requesting Data...2613486177</v>
         <stp/>
         <stp>BDP|3972542690298388955</stp>
         <tr r="D14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2435118621</v>
-        <stp/>
-        <stp>BDP|8507126860821789083</stp>
-        <tr r="K6" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2767909707</v>
+        <v>#N/A Requesting Data...3759999843</v>
         <stp/>
         <stp>BDP|9093618692120211839</stp>
         <tr r="I33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2773880260</v>
+        <v>#N/A Requesting Data...3662627200</v>
         <stp/>
         <stp>BDP|8636162822711044419</stp>
         <tr r="D19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3530087165</v>
+        <v>#N/A Requesting Data...4188809633</v>
         <stp/>
         <stp>BDP|9967888380780680773</stp>
         <tr r="G40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2751186522</v>
+        <v>#N/A Requesting Data...2979458480</v>
         <stp/>
         <stp>BDP|9017823610266699859</stp>
         <tr r="D13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3280739013</v>
+        <v>#N/A Requesting Data...3935861087</v>
         <stp/>
         <stp>BDP|9087384769370180268</stp>
         <tr r="H7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3879236040</v>
+        <v>#N/A Requesting Data...2251310724</v>
         <stp/>
         <stp>BDP|9062705335924501771</stp>
         <tr r="G8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3649352228</v>
+        <v>#N/A Requesting Data...2614090967</v>
         <stp/>
         <stp>BDP|7538963143317594329</stp>
         <tr r="H12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4169074026</v>
+        <v>#N/A Requesting Data...2326817535</v>
         <stp/>
         <stp>BDP|6491659216467199825</stp>
         <tr r="H13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3840837584</v>
+        <v>#N/A Requesting Data...3693391846</v>
         <stp/>
         <stp>BDP|6395158145898372540</stp>
         <tr r="E4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2531556036</v>
-        <stp/>
-        <stp>BDP|4877005099876981400</stp>
-        <tr r="K12" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4280810229</v>
+        <v>#N/A Requesting Data...2148015834</v>
         <stp/>
         <stp>BDP|2795339708417511917</stp>
         <tr r="E10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4288847201</v>
+        <v>#N/A Requesting Data...2956293322</v>
         <stp/>
         <stp>BDP|6831006684939450817</stp>
         <tr r="H28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2597585361</v>
+        <v>#N/A Requesting Data...4284383536</v>
         <stp/>
         <stp>BDP|4843893377524660057</stp>
         <tr r="H8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2949470280</v>
+        <v>#N/A Requesting Data...3307340520</v>
         <stp/>
         <stp>BDP|9709414010132948664</stp>
         <tr r="I36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3012076747</v>
+        <v>#N/A Requesting Data...3182683968</v>
         <stp/>
         <stp>BDP|8903313874813256702</stp>
         <tr r="G22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4103712720</v>
+        <v>#N/A Requesting Data...2648223697</v>
         <stp/>
         <stp>BDP|8716718187516775944</stp>
         <tr r="I7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4155765164</v>
+        <v>#N/A Requesting Data...4230859322</v>
         <stp/>
         <stp>BDP|1229142784860844096</stp>
         <tr r="G10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4191084103</v>
+        <v>#N/A Requesting Data...2320822889</v>
         <stp/>
         <stp>BDP|9368482138260178629</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4202864009</v>
+        <v>#N/A Requesting Data...3153844536</v>
         <stp/>
         <stp>BDP|5394510445864909896</stp>
         <tr r="D17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4232497551</v>
+        <v>#N/A Requesting Data...3761057770</v>
         <stp/>
         <stp>BDP|4105087797586673228</stp>
         <tr r="E32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2923836214</v>
+        <v>#N/A Requesting Data...2425144103</v>
         <stp/>
         <stp>BDP|6953570282776612443</stp>
         <tr r="F34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3573690914</v>
+        <v>#N/A Requesting Data...4077338971</v>
         <stp/>
         <stp>BDP|9833780479477170760</stp>
         <tr r="I16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3155568536</v>
+        <v>#N/A Requesting Data...3636849825</v>
         <stp/>
         <stp>BDP|1876604997501045611</stp>
         <tr r="H3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2909440438</v>
+        <v>#N/A Requesting Data...2547681377</v>
         <stp/>
         <stp>BDP|6062750902370206899</stp>
         <tr r="F38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4024586636</v>
+        <v>#N/A Requesting Data...4124265990</v>
         <stp/>
         <stp>BDP|9903280076974278166</stp>
         <tr r="H5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4207576320</v>
+        <v>#N/A Requesting Data...2112599939</v>
         <stp/>
         <stp>BDP|8840874378148508654</stp>
         <tr r="F16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2870045068</v>
-        <stp/>
-        <stp>BDP|6441668015430432879</stp>
-        <tr r="K2" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3572655156</v>
-        <stp/>
-        <stp>BDP|8032846351955867989</stp>
-        <tr r="J16" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3976453663</v>
+        <v>#N/A Requesting Data...2665100325</v>
         <stp/>
         <stp>BDP|9258502267732375135</stp>
         <tr r="F25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3916566670</v>
+        <v>#N/A Requesting Data...4095523106</v>
         <stp/>
         <stp>BDP|3203286743086777946</stp>
         <tr r="E34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3153172982</v>
-        <stp/>
-        <stp>BDP|4508035399213532451</stp>
-        <tr r="K31" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3727006399</v>
+        <v>#N/A Requesting Data...3011751062</v>
         <stp/>
         <stp>BDP|2355798547803564849</stp>
         <tr r="I14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3111107295</v>
+        <v>#N/A Requesting Data...2597872187</v>
         <stp/>
         <stp>BDP|1100553105106899855</stp>
         <tr r="D38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4254823378</v>
+        <v>#N/A Requesting Data...3371903387</v>
         <stp/>
         <stp>BDP|4254459243278187662</stp>
         <tr r="H22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3663770857</v>
+        <v>#N/A Requesting Data...4236052404</v>
         <stp/>
         <stp>BDP|5647026683564533335</stp>
         <tr r="D39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3272930791</v>
+        <v>#N/A Requesting Data...2697676411</v>
         <stp/>
         <stp>BDP|7659540921093730950</stp>
         <tr r="I37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3749120683</v>
+        <v>#N/A Requesting Data...2370462560</v>
         <stp/>
         <stp>BDP|2730770682281407615</stp>
         <tr r="F40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3364592090</v>
+        <v>#N/A Requesting Data...3939162586</v>
         <stp/>
         <stp>BDP|7144984324134818218</stp>
         <tr r="D27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3282756306</v>
+        <v>#N/A Requesting Data...2323944323</v>
         <stp/>
         <stp>BDP|1524532887684361262</stp>
         <tr r="G16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2733940012</v>
-        <stp/>
-        <stp>BDP|8018804105199199308</stp>
-        <tr r="K37" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4094676882</v>
+        <v>#N/A Requesting Data...2584928029</v>
         <stp/>
         <stp>BDP|4907323959211000809</stp>
         <tr r="I10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3047214850</v>
+        <v>#N/A Requesting Data...2842366690</v>
         <stp/>
         <stp>BDP|7741530455129073522</stp>
         <tr r="D24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3851826866</v>
+        <v>#N/A Requesting Data...3620601159</v>
         <stp/>
         <stp>BDP|2214151685538402857</stp>
         <tr r="G37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3502602501</v>
+        <v>#N/A Requesting Data...3807932917</v>
         <stp/>
         <stp>BDP|6161076057888623075</stp>
         <tr r="H15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3998588004</v>
-        <stp/>
-        <stp>BDP|4165522957456227963</stp>
-        <tr r="J38" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2555482582</v>
+        <v>#N/A Requesting Data...3509049614</v>
         <stp/>
         <stp>BDP|9963874529541072976</stp>
         <tr r="F26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3635377820</v>
+        <v>#N/A Requesting Data...3164945312</v>
         <stp/>
         <stp>BDP|9638662261722139062</stp>
         <tr r="H4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3289178900</v>
+        <v>#N/A Requesting Data...3245842091</v>
         <stp/>
         <stp>BDP|7416012493186030306</stp>
         <tr r="E18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3198634181</v>
+        <v>#N/A Requesting Data...4244433199</v>
         <stp/>
         <stp>BDP|3205453182504171009</stp>
         <tr r="H17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3758958436</v>
-        <stp/>
-        <stp>BDP|5877585967875049833</stp>
-        <tr r="K28" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3668682933</v>
+        <v>#N/A Requesting Data...2935495271</v>
         <stp/>
         <stp>BDP|3561070257234684978</stp>
         <tr r="D20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3416509258</v>
+        <v>#N/A Requesting Data...4092173096</v>
         <stp/>
         <stp>BDP|6611494133221089410</stp>
         <tr r="D15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3800289537</v>
+        <v>#N/A Requesting Data...4145910783</v>
         <stp/>
         <stp>BDP|3412222707162811741</stp>
         <tr r="D3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2823396928</v>
-        <stp/>
-        <stp>BDP|7146249573466753035</stp>
-        <tr r="K40" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3721916935</v>
+        <v>#N/A Requesting Data...3476376059</v>
         <stp/>
         <stp>BDP|6758240515151118040</stp>
         <tr r="H11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4293082823</v>
+        <v>#N/A Requesting Data...4142159564</v>
         <stp/>
         <stp>BDP|1117548092580062973</stp>
         <tr r="D23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3019054349</v>
+        <v>#N/A Requesting Data...3942905289</v>
         <stp/>
         <stp>BDP|7448311748061900544</stp>
         <tr r="D18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3769500227</v>
+        <v>#N/A Requesting Data...2266350950</v>
         <stp/>
         <stp>BDP|6810252945971813543</stp>
         <tr r="E19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2588702291</v>
-        <stp/>
-        <stp>BDP|4621149754255592092</stp>
-        <tr r="K34" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4181593494</v>
+        <v>#N/A Requesting Data...4129489533</v>
         <stp/>
         <stp>BDP|9957112296381581504</stp>
         <tr r="D25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4234682344</v>
-        <stp/>
-        <stp>BDP|4246649014087502192</stp>
-        <tr r="J21" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3191554519</v>
-        <stp/>
-        <stp>BDP|3901374640344320529</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2615708687</v>
+        <v>#N/A Requesting Data...2326039475</v>
         <stp/>
         <stp>BDP|5078916707761592816</stp>
         <tr r="E38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3134250428</v>
+        <v>#N/A Requesting Data...3140185270</v>
         <stp/>
         <stp>BDP|8049109585957220349</stp>
         <tr r="F30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4068822180</v>
+        <v>#N/A Requesting Data...3889095691</v>
         <stp/>
         <stp>BDP|2645651402385669443</stp>
         <tr r="G15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3477404587</v>
+        <v>#N/A Requesting Data...2395175275</v>
         <stp/>
         <stp>BDP|9278309673611951996</stp>
         <tr r="E28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2805684357</v>
-        <stp/>
-        <stp>BDP|4376537700681645500</stp>
-        <tr r="K18" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3502573558</v>
-        <stp/>
-        <stp>BDP|3268739607168560946</stp>
-        <tr r="J11" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3807170184</v>
+        <v>#N/A Requesting Data...3636901260</v>
         <stp/>
         <stp>BDP|7229331562665406201</stp>
         <tr r="E13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2568531410</v>
+        <v>#N/A Requesting Data...2419049182</v>
         <stp/>
         <stp>BDP|1605631833387519671</stp>
         <tr r="E24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2803930002</v>
+        <v>#N/A Requesting Data...2643387035</v>
         <stp/>
         <stp>BDP|9887296274749449042</stp>
         <tr r="E30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3012343248</v>
+        <v>#N/A Requesting Data...2429752181</v>
         <stp/>
         <stp>BDP|6633125405451713331</stp>
         <tr r="F9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3583409699</v>
-        <stp/>
-        <stp>BDP|4869880762279823506</stp>
-        <tr r="K21" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2809553407</v>
-        <stp/>
-        <stp>BDP|1601253543542899333</stp>
-        <tr r="K30" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3219110196</v>
+        <v>#N/A Requesting Data...3508998433</v>
         <stp/>
         <stp>BDP|5388480182316658923</stp>
         <tr r="H33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3805039298</v>
-        <stp/>
-        <stp>BDP|1094186844260394226</stp>
-        <tr r="J26" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3529906877</v>
-        <stp/>
-        <stp>BDP|1741521664583072724</stp>
-        <tr r="J24" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2582004516</v>
-        <stp/>
-        <stp>BDP|9738071534788342470</stp>
-        <tr r="K7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2729946113</v>
+        <v>#N/A Requesting Data...2134268798</v>
         <stp/>
         <stp>BDP|3141332361879121948</stp>
         <tr r="I30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3997157064</v>
-        <stp/>
-        <stp>BDP|2757097450678568811</stp>
-        <tr r="J29" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4223597993</v>
+        <v>#N/A Requesting Data...4284846944</v>
         <stp/>
         <stp>BDP|3842574646657424250</stp>
         <tr r="D33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2536615985</v>
+        <v>#N/A Requesting Data...3572369193</v>
         <stp/>
         <stp>BDP|7816237061564431001</stp>
         <tr r="H23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3798689574</v>
+        <v>#N/A Requesting Data...4060283220</v>
         <stp/>
         <stp>BDP|3060273585559424792</stp>
         <tr r="D10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4086820046</v>
+        <v>#N/A Requesting Data...3598452316</v>
         <stp/>
         <stp>BDP|7060806162689955763</stp>
         <tr r="H40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3556906577</v>
+        <v>#N/A Requesting Data...4190201376</v>
         <stp/>
         <stp>BDP|1672487157546981133</stp>
         <tr r="H36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3893468071</v>
-        <stp/>
-        <stp>BDP|5516051814371307245</stp>
-        <tr r="J23" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2933369440</v>
-        <stp/>
-        <stp>BDP|8639864949886119597</stp>
-        <tr r="J30" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3346880673</v>
+        <v>#N/A Requesting Data...3631869976</v>
         <stp/>
         <stp>BDP|9954800149216615408</stp>
         <tr r="G5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4112244065</v>
+        <v>#N/A Requesting Data...2865711990</v>
         <stp/>
         <stp>BDP|6442244966480765577</stp>
         <tr r="F36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3716101494</v>
-        <stp/>
-        <stp>BDP|4939094663971152456</stp>
-        <tr r="J32" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3776318751</v>
-        <stp/>
-        <stp>BDP|3491959193587497335</stp>
-        <tr r="K29" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4125984423</v>
+        <v>#N/A Requesting Data...3390669874</v>
         <stp/>
         <stp>BDP|3617790397889057426</stp>
         <tr r="H2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2525819438</v>
+        <v>#N/A Requesting Data...3510336503</v>
         <stp/>
         <stp>BDP|8700741321044046992</stp>
         <tr r="H32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4232219239</v>
-        <stp/>
-        <stp>BDP|3439527856423031089</stp>
-        <tr r="J35" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4264182858</v>
-        <stp/>
-        <stp>BDP|7143657986591420885</stp>
-        <tr r="K15" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3920475148</v>
+        <v>#N/A Requesting Data...4097256728</v>
         <stp/>
         <stp>BDP|7620261959194458425</stp>
         <tr r="D26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3280754599</v>
+        <v>#N/A Requesting Data...2918283597</v>
         <stp/>
         <stp>BDP|3089540010182281594</stp>
         <tr r="G7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3840681962</v>
+        <v>#N/A Requesting Data...3815443556</v>
         <stp/>
         <stp>BDP|4831722547472345517</stp>
         <tr r="G31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4190007409</v>
+        <v>#N/A Requesting Data...3166308706</v>
         <stp/>
         <stp>BDP|2426147378070427404</stp>
         <tr r="F19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2846978751</v>
-        <stp/>
-        <stp>BDP|6668143837075365151</stp>
-        <tr r="K25" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4054614343</v>
-        <stp/>
-        <stp>BDP|6120913140769307200</stp>
-        <tr r="K19" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4156440811</v>
+        <v>#N/A Requesting Data...3728033724</v>
         <stp/>
         <stp>BDP|9673923293369700006</stp>
         <tr r="I9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3253091882</v>
+        <v>#N/A Requesting Data...3543309172</v>
         <stp/>
         <stp>BDP|5674351600362568460</stp>
         <tr r="I4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3572190700</v>
+        <v>#N/A Requesting Data...2935966510</v>
         <stp/>
         <stp>BDP|4389151391634762867</stp>
         <tr r="I32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3689787676</v>
-        <stp/>
-        <stp>BDP|1363007164777347026</stp>
-        <tr r="J14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3287143044</v>
+        <v>#N/A Requesting Data...4279782618</v>
         <stp/>
         <stp>BDP|6570891121399913523</stp>
         <tr r="E12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3719958644</v>
+        <v>#N/A Requesting Data...2214753706</v>
         <stp/>
         <stp>BDP|3180488169709752801</stp>
         <tr r="E33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4129991644</v>
+        <v>#N/A Requesting Data...3989813577</v>
         <stp/>
         <stp>BDP|6088694172623483559</stp>
         <tr r="F4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3067920266</v>
+        <v>#N/A Requesting Data...3888398898</v>
         <stp/>
         <stp>BDP|2152549497607089882</stp>
         <tr r="C2" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3018140453</v>
-        <stp/>
-        <stp>BDP|5451238880898555683</stp>
-        <tr r="K22" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4167217576</v>
+        <v>#N/A Requesting Data...2550629626</v>
         <stp/>
         <stp>BDP|4762663301374699781</stp>
         <tr r="E9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3257824867</v>
+        <v>#N/A Requesting Data...3645896825</v>
         <stp/>
         <stp>BDP|4200522467422269467</stp>
         <tr r="G38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3195273175</v>
+        <v>#N/A Requesting Data...3777447148</v>
         <stp/>
         <stp>BDP|8820951675676317182</stp>
         <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2866300753</v>
+        <v>#N/A Requesting Data...3779206378</v>
         <stp/>
         <stp>BDP|4491242868133807267</stp>
         <tr r="I22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4146502890</v>
+        <v>#N/A Requesting Data...2443542106</v>
         <stp/>
         <stp>BDP|1334502575085304735</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4092579478</v>
-        <stp/>
-        <stp>BDP|8823915155091099483</stp>
-        <tr r="K11" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3174271450</v>
+        <v>#N/A Requesting Data...2524733168</v>
         <stp/>
         <stp>BDP|4152707605242805376</stp>
         <tr r="F22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2893740287</v>
+        <v>#N/A Requesting Data...2979050856</v>
         <stp/>
         <stp>BDP|6313300206097234083</stp>
         <tr r="I15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2973346884</v>
+        <v>#N/A Requesting Data...2399627565</v>
         <stp/>
         <stp>BDP|7202265739744780060</stp>
         <tr r="H38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2562617434</v>
+        <v>#N/A Requesting Data...4216779923</v>
         <stp/>
         <stp>BDP|5934543001395648774</stp>
         <tr r="E20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3653944616</v>
+        <v>#N/A Requesting Data...2197476311</v>
         <stp/>
         <stp>BDP|5897704495699391030</stp>
         <tr r="I5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4038786658</v>
+        <v>#N/A Requesting Data...3489012674</v>
         <stp/>
         <stp>BDP|1191269861077748005</stp>
         <tr r="H31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3758293515</v>
-        <stp/>
-        <stp>BDP|7898088615521571574</stp>
-        <tr r="J22" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3892254249</v>
+        <v>#N/A Requesting Data...2900291060</v>
         <stp/>
         <stp>BDP|7930082214057885259</stp>
         <tr r="I40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2830064120</v>
+        <v>#N/A Requesting Data...3300834509</v>
         <stp/>
         <stp>BDP|6585599774337876081</stp>
         <tr r="F23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2806368477</v>
+        <v>#N/A Requesting Data...3635339511</v>
         <stp/>
         <stp>BDP|6303327670891951016</stp>
         <tr r="G21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3426181489</v>
+        <v>#N/A Requesting Data...4248111146</v>
         <stp/>
         <stp>BDP|6373380307233113539</stp>
         <tr r="E7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3203887377</v>
+        <v>#N/A Requesting Data...3858792819</v>
         <stp/>
         <stp>BDP|4244742944204581055</stp>
         <tr r="F27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3193670803</v>
+        <v>#N/A Requesting Data...2803897884</v>
         <stp/>
         <stp>BDP|3386196408039056825</stp>
         <tr r="E6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2815662500</v>
+        <v>#N/A Requesting Data...3318807711</v>
         <stp/>
         <stp>BDP|7397031602083518761</stp>
         <tr r="I23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2620085086</v>
+        <v>#N/A Requesting Data...2329635975</v>
         <stp/>
         <stp>BDP|5181252534336429124</stp>
         <tr r="I6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3387961656</v>
+        <v>#N/A Requesting Data...3220991199</v>
         <stp/>
         <stp>BDP|1298503726586622350</stp>
         <tr r="G23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4211961707</v>
+        <v>#N/A Requesting Data...3830325975</v>
         <stp/>
         <stp>BDP|8597678179608851266</stp>
         <tr r="I25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3919117234</v>
-        <stp/>
-        <stp>BDP|248078865701908213</stp>
-        <tr r="J27" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4018966161</v>
-        <stp/>
-        <stp>BDP|694727994728670286</stp>
-        <tr r="J28" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2868417815</v>
+        <v>#N/A Requesting Data...2301337669</v>
         <stp/>
         <stp>BDP|231950328448225497</stp>
         <tr r="D28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3459280130</v>
+        <v>#N/A Requesting Data...3669021322</v>
         <stp/>
         <stp>BDP|216490765296499547</stp>
         <tr r="I17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2919576849</v>
+        <v>#N/A Requesting Data...2218511486</v>
         <stp/>
         <stp>BDP|417742120137024217</stp>
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3643743706</v>
+        <v>#N/A Requesting Data...3029796906</v>
         <stp/>
         <stp>BDP|703867115952262892</stp>
         <tr r="E29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3338815299</v>
+        <v>#N/A Requesting Data...3000020984</v>
         <stp/>
         <stp>BDP|219670546364012564</stp>
         <tr r="G24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2951476713</v>
-        <stp/>
-        <stp>BDP|905756424497015022</stp>
-        <tr r="J4" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3183510325</v>
+        <v>#N/A Requesting Data...4034282069</v>
         <stp/>
         <stp>BDP|221381961852502555</stp>
         <tr r="E21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2832458019</v>
+        <v>#N/A Requesting Data...4014780536</v>
         <stp/>
         <stp>BDP|867397090809418128</stp>
         <tr r="I11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2660074995</v>
-        <stp/>
-        <stp>BDP|993117395996018364</stp>
-        <tr r="J13" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2736191976</v>
-        <stp/>
-        <stp>BDP|818417412029973163</stp>
-        <tr r="K4" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3165339277</v>
+        <v>#N/A Requesting Data...3462250758</v>
         <stp/>
         <stp>BDP|963073539767564866</stp>
         <tr r="F35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4222477147</v>
+        <v>#N/A Requesting Data...2440035620</v>
         <stp/>
         <stp>BDP|790641586116186405</stp>
         <tr r="G28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4245879126</v>
+        <v>#N/A Requesting Data...4242737651</v>
         <stp/>
         <stp>BDP|532943154230282053</stp>
         <tr r="H27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3429211279</v>
+        <v>#N/A Requesting Data...3282492702</v>
         <stp/>
         <stp>BDP|338856410464461328</stp>
         <tr r="G18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2827579014</v>
+        <v>#N/A Requesting Data...2806660982</v>
         <stp/>
         <stp>BDP|264869505427491615</stp>
         <tr r="E27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3708393123</v>
+        <v>#N/A Requesting Data...3130774877</v>
         <stp/>
         <stp>BDP|813867508731817124</stp>
         <tr r="I29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3554720803</v>
+        <v>#N/A Requesting Data...3890939789</v>
         <stp/>
         <stp>BDP|297929672332994410</stp>
         <tr r="D35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3687979116</v>
+        <v>#N/A Requesting Data...3399202556</v>
         <stp/>
         <stp>BDP|455400142338284048</stp>
         <tr r="F14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3372246104</v>
+        <v>#N/A Requesting Data...2197711003</v>
         <stp/>
         <stp>BDP|748791461872049867</stp>
         <tr r="I21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3748486335</v>
+        <v>#N/A Requesting Data...2448198764</v>
         <stp/>
         <stp>BDP|774584681411243764</stp>
         <tr r="E11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2900059355</v>
+        <v>#N/A Requesting Data...3821144459</v>
         <stp/>
         <stp>BDP|112397016921832920</stp>
         <tr r="H37" s="2"/>
@@ -2747,10 +2310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E22B6-F943-4AAF-BA00-25DE4BF4BBFF}">
-  <dimension ref="A1:K40"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,11 +2326,9 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2777,10 +2339,10 @@
         <v>118</v>
       </c>
       <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>120</v>
@@ -2794,14 +2356,8 @@
       <c r="I1" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2817,34 +2373,26 @@
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">_xll.BDP(C2,$E$1)</f>
-        <v>-1.41368</v>
+        <v>-0.31768950000000001</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.BDP(C2,$F$1)</f>
-        <v>3.1217299999999999</v>
+        <v>3.3692730000000002</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">_xll.BDP(C2,$G$1)</f>
-        <v>3.4307089999999998</v>
+        <v>3.0298539999999998</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">_xll.BDP(C2,$H$1)</f>
-        <v>5.0197770000000004</v>
+        <v>5.3089269999999997</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">_xll.BDP(C2,$I$1)</f>
-        <v>9.2059470000000001</v>
-      </c>
-      <c r="J2" cm="1">
-        <f t="array" ref="J2">_xll.BDP(C2,$J$1)</f>
-        <v>-2.4445429999999999</v>
-      </c>
-      <c r="K2" cm="1">
-        <f t="array" ref="K2">_xll.BDP(C2,$K$1)</f>
-        <v>5.3529530000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.1901290000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -2860,34 +2408,26 @@
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xll.BDP(C3,$E$1)</f>
-        <v>-1.7771250000000001</v>
+        <v>2.57348</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" ref="F3">_xll.BDP(C3,$F$1)</f>
-        <v>1.772116</v>
+        <v>4.368798</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">_xll.BDP(C3,$G$1)</f>
-        <v>-4.3212299999999999</v>
+        <v>-0.77306039999999998</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">_xll.BDP(C3,$H$1)</f>
-        <v>-3.148882</v>
+        <v>-0.39458320000000002</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">_xll.BDP(C3,$I$1)</f>
-        <v>-0.4738716</v>
-      </c>
-      <c r="J3" cm="1">
-        <f t="array" ref="J3">_xll.BDP(C3,$J$1)</f>
-        <v>-7.9974959999999999</v>
-      </c>
-      <c r="K3" cm="1">
-        <f t="array" ref="K3">_xll.BDP(C3,$K$1)</f>
-        <v>-3.0597340000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5318149999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2903,34 +2443,26 @@
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.BDP(C4,$E$1)</f>
-        <v>-1.97471</v>
+        <v>3.1931880000000001</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">_xll.BDP(C4,$F$1)</f>
-        <v>1.5613760000000001</v>
+        <v>4.0236090000000004</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">_xll.BDP(C4,$G$1)</f>
-        <v>-3.4465119999999998</v>
+        <v>-2.004718</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">_xll.BDP(C4,$H$1)</f>
-        <v>-0.52733240000000003</v>
+        <v>1.731374</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">_xll.BDP(C4,$I$1)</f>
-        <v>12.88649</v>
-      </c>
-      <c r="J4" cm="1">
-        <f t="array" ref="J4">_xll.BDP(C4,$J$1)</f>
-        <v>-10.359579999999999</v>
-      </c>
-      <c r="K4" cm="1">
-        <f t="array" ref="K4">_xll.BDP(C4,$K$1)</f>
-        <v>1.1904950000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16.0383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -2946,34 +2478,26 @@
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.BDP(C5,$E$1)</f>
-        <v>-4.8833419999999998</v>
+        <v>0.98079850000000002</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">_xll.BDP(C5,$F$1)</f>
-        <v>7.1357649999999995E-2</v>
+        <v>3.5997699999999999</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">_xll.BDP(C5,$G$1)</f>
-        <v>-15.07812</v>
+        <v>-11.08137</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">_xll.BDP(C5,$H$1)</f>
-        <v>-10.171670000000001</v>
+        <v>-7.3862930000000002</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">_xll.BDP(C5,$I$1)</f>
-        <v>-10.37832</v>
-      </c>
-      <c r="J5" cm="1">
-        <f t="array" ref="J5">_xll.BDP(C5,$J$1)</f>
-        <v>-17.844169999999998</v>
-      </c>
-      <c r="K5" cm="1">
-        <f t="array" ref="K5">_xll.BDP(C5,$K$1)</f>
-        <v>-9.8631810000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-6.569528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2989,34 +2513,26 @@
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.BDP(C6,$E$1)</f>
-        <v>-1.7582420000000001</v>
+        <v>2.018408</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.BDP(C6,$F$1)</f>
-        <v>1.3605480000000001</v>
+        <v>2.5982460000000001</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">_xll.BDP(C6,$G$1)</f>
-        <v>3.643589</v>
+        <v>3.880306</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">_xll.BDP(C6,$H$1)</f>
-        <v>5.7273160000000001</v>
+        <v>7.8156970000000001</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">_xll.BDP(C6,$I$1)</f>
-        <v>8.6081210000000006</v>
-      </c>
-      <c r="J6" cm="1">
-        <f t="array" ref="J6">_xll.BDP(C6,$J$1)</f>
-        <v>-5.1674509999999998</v>
-      </c>
-      <c r="K6" cm="1">
-        <f t="array" ref="K6">_xll.BDP(C6,$K$1)</f>
-        <v>5.5182529999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.6494260000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3032,34 +2548,26 @@
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">_xll.BDP(C7,$E$1)</f>
-        <v>-3.250591</v>
+        <v>7.1065360000000002</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.BDP(C7,$F$1)</f>
-        <v>-9.3576940000000004</v>
+        <v>-1.9861519999999999</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">_xll.BDP(C7,$G$1)</f>
-        <v>-18.149999999999999</v>
+        <v>-18.111129999999999</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">_xll.BDP(C7,$H$1)</f>
-        <v>-14.552670000000001</v>
+        <v>-4.6378069999999996</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.BDP(C7,$I$1)</f>
-        <v>-23.47607</v>
-      </c>
-      <c r="J7" cm="1">
-        <f t="array" ref="J7">_xll.BDP(C7,$J$1)</f>
-        <v>-36.094619999999999</v>
-      </c>
-      <c r="K7" cm="1">
-        <f t="array" ref="K7">_xll.BDP(C7,$K$1)</f>
-        <v>-11.315770000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-19.259540000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3075,34 +2583,26 @@
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">_xll.BDP(C8,$E$1)</f>
-        <v>-1.628765</v>
+        <v>-0.58388070000000003</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.BDP(C8,$F$1)</f>
-        <v>1.8885940000000001</v>
+        <v>0.96357210000000004</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" ref="G8">_xll.BDP(C8,$G$1)</f>
-        <v>0.43928400000000001</v>
+        <v>0.23126540000000001</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" ref="H8">_xll.BDP(C8,$H$1)</f>
-        <v>4.0524420000000001</v>
+        <v>2.8586870000000002</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.BDP(C8,$I$1)</f>
-        <v>9.3237749999999995</v>
-      </c>
-      <c r="J8" cm="1">
-        <f t="array" ref="J8">_xll.BDP(C8,$J$1)</f>
-        <v>-3.3903449999999999</v>
-      </c>
-      <c r="K8" cm="1">
-        <f t="array" ref="K8">_xll.BDP(C8,$K$1)</f>
-        <v>3.3625910000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.5496400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -3118,34 +2618,26 @@
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">_xll.BDP(C9,$E$1)</f>
-        <v>-2.3098830000000001</v>
+        <v>1.0131490000000001</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.BDP(C9,$F$1)</f>
-        <v>2.3878010000000001</v>
+        <v>3.8909220000000002</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" ref="G9">_xll.BDP(C9,$G$1)</f>
-        <v>-3.641286</v>
+        <v>-2.2222230000000001</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" ref="H9">_xll.BDP(C9,$H$1)</f>
-        <v>-1.3106040000000001</v>
+        <v>-0.57287969999999999</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.BDP(C9,$I$1)</f>
-        <v>6.7788820000000003</v>
-      </c>
-      <c r="J9" cm="1">
-        <f t="array" ref="J9">_xll.BDP(C9,$J$1)</f>
-        <v>-4.9563860000000002</v>
-      </c>
-      <c r="K9" cm="1">
-        <f t="array" ref="K9">_xll.BDP(C9,$K$1)</f>
-        <v>0.63371129999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.0470400000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -3161,34 +2653,26 @@
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xll.BDP(C10,$E$1)</f>
-        <v>-0.94249419999999995</v>
+        <v>1.5629249999999999</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.BDP(C10,$F$1)</f>
-        <v>-0.1377043</v>
+        <v>3.1043029999999998</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10">_xll.BDP(C10,$G$1)</f>
-        <v>-7.1090070000000001</v>
+        <v>-6.318168</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" ref="H10">_xll.BDP(C10,$H$1)</f>
-        <v>-3.870628</v>
+        <v>1.4663980000000001</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.BDP(C10,$I$1)</f>
-        <v>-11.42055</v>
-      </c>
-      <c r="J10" cm="1">
-        <f t="array" ref="J10">_xll.BDP(C10,$J$1)</f>
-        <v>-15.35948</v>
-      </c>
-      <c r="K10" cm="1">
-        <f t="array" ref="K10">_xll.BDP(C10,$K$1)</f>
-        <v>-2.9488729999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-8.7211459999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,34 +2688,26 @@
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xll.BDP(C11,$E$1)</f>
-        <v>-1.6255269999999999</v>
+        <v>1.527806</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.BDP(C11,$F$1)</f>
-        <v>3.4177179999999998</v>
+        <v>4.7058859999999996</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">_xll.BDP(C11,$G$1)</f>
-        <v>3.8779430000000001</v>
+        <v>3.488372</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" ref="H11">_xll.BDP(C11,$H$1)</f>
-        <v>7.3822530000000004</v>
+        <v>8.9875369999999997</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.BDP(C11,$I$1)</f>
-        <v>16.051130000000001</v>
-      </c>
-      <c r="J11" cm="1">
-        <f t="array" ref="J11">_xll.BDP(C11,$J$1)</f>
-        <v>-2.3700429999999999</v>
-      </c>
-      <c r="K11" cm="1">
-        <f t="array" ref="K11">_xll.BDP(C11,$K$1)</f>
-        <v>7.0804879999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17.992419999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -3247,34 +2723,26 @@
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xll.BDP(C12,$E$1)</f>
-        <v>-2.4473150000000001</v>
+        <v>2.4505710000000001</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.BDP(C12,$F$1)</f>
-        <v>1.657691</v>
+        <v>4.8446850000000001</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" ref="G12">_xll.BDP(C12,$G$1)</f>
-        <v>0.34965030000000002</v>
+        <v>1.8549310000000001</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" ref="H12">_xll.BDP(C12,$H$1)</f>
-        <v>-2.9356040000000001</v>
+        <v>-0.58100540000000001</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.BDP(C12,$I$1)</f>
-        <v>6.2490759999999996</v>
-      </c>
-      <c r="J12" cm="1">
-        <f t="array" ref="J12">_xll.BDP(C12,$J$1)</f>
-        <v>-5.9879449999999999</v>
-      </c>
-      <c r="K12" cm="1">
-        <f t="array" ref="K12">_xll.BDP(C12,$K$1)</f>
-        <v>0.26880749999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.9589829999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3290,34 +2758,26 @@
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xll.BDP(C13,$E$1)</f>
-        <v>-4.5192730000000001</v>
+        <v>0.61573549999999999</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.BDP(C13,$F$1)</f>
-        <v>1.126234</v>
+        <v>3.543768</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" ref="G13">_xll.BDP(C13,$G$1)</f>
-        <v>0</v>
+        <v>1.6121650000000001</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" ref="H13">_xll.BDP(C13,$H$1)</f>
-        <v>-5.1913749999999999</v>
+        <v>-4.626023</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.BDP(C13,$I$1)</f>
-        <v>-2.2897319999999999</v>
-      </c>
-      <c r="J13" cm="1">
-        <f t="array" ref="J13">_xll.BDP(C13,$J$1)</f>
-        <v>-12.255699999999999</v>
-      </c>
-      <c r="K13" cm="1">
-        <f t="array" ref="K13">_xll.BDP(C13,$K$1)</f>
-        <v>-2.62094</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.2669209999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3325,7 +2785,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" ref="D14">_xll.BDP(C14,$D$1)</f>
@@ -3333,34 +2793,26 @@
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.BDP(C14,$E$1)</f>
-        <v>-1.7215309999999999</v>
+        <v>2.1147680000000002</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.BDP(C14,$F$1)</f>
-        <v>3.1497989999999998</v>
+        <v>4.9963369999999996</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" ref="G14">_xll.BDP(C14,$G$1)</f>
-        <v>2.3500890000000001</v>
+        <v>3.604152</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" ref="H14">_xll.BDP(C14,$H$1)</f>
-        <v>4.1543330000000003</v>
+        <v>5.3179720000000001</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.BDP(C14,$I$1)</f>
-        <v>8.7807359999999992</v>
-      </c>
-      <c r="J14" cm="1">
-        <f t="array" ref="J14">_xll.BDP(C14,$J$1)</f>
-        <v>-2.5827279999999999</v>
-      </c>
-      <c r="K14" cm="1">
-        <f t="array" ref="K14">_xll.BDP(C14,$K$1)</f>
-        <v>4.1698130000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10.66048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3376,34 +2828,26 @@
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">_xll.BDP(C15,$E$1)</f>
-        <v>-1.1440729999999999</v>
+        <v>1.859588</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.BDP(C15,$F$1)</f>
-        <v>1.391732</v>
+        <v>2.9135499999999999</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" ref="G15">_xll.BDP(C15,$G$1)</f>
-        <v>-0.69490580000000002</v>
+        <v>1.3542479999999999</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" ref="H15">_xll.BDP(C15,$H$1)</f>
-        <v>1.990121</v>
+        <v>3.0819559999999999</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.BDP(C15,$I$1)</f>
-        <v>-0.56202390000000002</v>
-      </c>
-      <c r="J15" cm="1">
-        <f t="array" ref="J15">_xll.BDP(C15,$J$1)</f>
-        <v>-4.0046499999999998</v>
-      </c>
-      <c r="K15" cm="1">
-        <f t="array" ref="K15">_xll.BDP(C15,$K$1)</f>
-        <v>0.52148000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.150809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -3419,34 +2863,26 @@
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">_xll.BDP(C16,$E$1)</f>
-        <v>-0.32234069999999998</v>
+        <v>1.8184100000000001</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.BDP(C16,$F$1)</f>
-        <v>4.9060550000000003</v>
+        <v>5.1683979999999998</v>
       </c>
       <c r="G16" cm="1">
         <f t="array" ref="G16">_xll.BDP(C16,$G$1)</f>
-        <v>2.0045679999999999</v>
+        <v>2.8763329999999998</v>
       </c>
       <c r="H16" cm="1">
         <f t="array" ref="H16">_xll.BDP(C16,$H$1)</f>
-        <v>8.166283</v>
+        <v>8.8191919999999993</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.BDP(C16,$I$1)</f>
-        <v>22.41169</v>
-      </c>
-      <c r="J16" cm="1">
-        <f t="array" ref="J16">_xll.BDP(C16,$J$1)</f>
-        <v>-3.8507549999999999</v>
-      </c>
-      <c r="K16" cm="1">
-        <f t="array" ref="K16">_xll.BDP(C16,$K$1)</f>
-        <v>9.0678920000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23.61449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -3462,34 +2898,26 @@
       </c>
       <c r="E17" cm="1">
         <f t="array" ref="E17">_xll.BDP(C17,$E$1)</f>
-        <v>-1.84582</v>
+        <v>2.3175129999999999</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.BDP(C17,$F$1)</f>
-        <v>2.6689349999999998</v>
+        <v>4.2120139999999999</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" ref="G17">_xll.BDP(C17,$G$1)</f>
-        <v>-0.41311310000000001</v>
+        <v>0.9308651</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" ref="H17">_xll.BDP(C17,$H$1)</f>
-        <v>5.8083419999999997</v>
+        <v>6.132142</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.BDP(C17,$I$1)</f>
-        <v>15.82319</v>
-      </c>
-      <c r="J17" cm="1">
-        <f t="array" ref="J17">_xll.BDP(C17,$J$1)</f>
-        <v>-3.1601509999999999</v>
-      </c>
-      <c r="K17" cm="1">
-        <f t="array" ref="K17">_xll.BDP(C17,$K$1)</f>
-        <v>5.1846959999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18.08136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -3505,34 +2933,26 @@
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">_xll.BDP(C18,$E$1)</f>
-        <v>-3.9806550000000001</v>
+        <v>-0.61767300000000003</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.BDP(C18,$F$1)</f>
-        <v>1.2686379999999999</v>
+        <v>2.9780600000000002</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" ref="G18">_xll.BDP(C18,$G$1)</f>
-        <v>-11.49845</v>
+        <v>-9.8765470000000004</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" ref="H18">_xll.BDP(C18,$H$1)</f>
-        <v>-7.0802849999999999</v>
+        <v>-4.8745139999999996</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.BDP(C18,$I$1)</f>
-        <v>4.5927340000000001</v>
-      </c>
-      <c r="J18" cm="1">
-        <f t="array" ref="J18">_xll.BDP(C18,$J$1)</f>
-        <v>-15.1173</v>
-      </c>
-      <c r="K18" cm="1">
-        <f t="array" ref="K18">_xll.BDP(C18,$K$1)</f>
-        <v>-4.2260859999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.4973679999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -3548,34 +2968,26 @@
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.BDP(C19,$E$1)</f>
-        <v>-0.45949210000000001</v>
+        <v>0.97967179999999998</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.BDP(C19,$F$1)</f>
-        <v>5.2039650000000002</v>
+        <v>6.0769780000000004</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" ref="G19">_xll.BDP(C19,$G$1)</f>
-        <v>8.0882299999999994</v>
+        <v>7.1911379999999996</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" ref="H19">_xll.BDP(C19,$H$1)</f>
-        <v>15.52712</v>
+        <v>14.65518</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.BDP(C19,$I$1)</f>
-        <v>17.61345</v>
-      </c>
-      <c r="J19" cm="1">
-        <f t="array" ref="J19">_xll.BDP(C19,$J$1)</f>
-        <v>-0.60371889999999995</v>
-      </c>
-      <c r="K19" cm="1">
-        <f t="array" ref="K19">_xll.BDP(C19,$K$1)</f>
-        <v>11.5213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17.813469999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -3591,34 +3003,26 @@
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">_xll.BDP(C20,$E$1)</f>
-        <v>-0.50952589999999998</v>
+        <v>0.22246940000000001</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.BDP(C20,$F$1)</f>
-        <v>5.348344</v>
+        <v>5.7015510000000003</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" ref="G20">_xll.BDP(C20,$G$1)</f>
-        <v>5.0035059999999998</v>
+        <v>4.8161949999999996</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" ref="H20">_xll.BDP(C20,$H$1)</f>
-        <v>6.9540319999999998</v>
+        <v>7.3385720000000001</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.BDP(C20,$I$1)</f>
-        <v>10.10051</v>
-      </c>
-      <c r="J20" cm="1">
-        <f t="array" ref="J20">_xll.BDP(C20,$J$1)</f>
-        <v>-1.079299</v>
-      </c>
-      <c r="K20" cm="1">
-        <f t="array" ref="K20">_xll.BDP(C20,$K$1)</f>
-        <v>6.9758209999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10.44373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -3634,34 +3038,26 @@
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.BDP(C21,$E$1)</f>
-        <v>-2.257336</v>
+        <v>1.5084770000000001</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.BDP(C21,$F$1)</f>
-        <v>1.5030380000000001</v>
+        <v>2.341853</v>
       </c>
       <c r="G21" cm="1">
         <f t="array" ref="G21">_xll.BDP(C21,$G$1)</f>
-        <v>5.337726</v>
+        <v>8.3499569999999999</v>
       </c>
       <c r="H21" cm="1">
         <f t="array" ref="H21">_xll.BDP(C21,$H$1)</f>
-        <v>22.519970000000001</v>
+        <v>26.543520000000001</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.BDP(C21,$I$1)</f>
-        <v>17.419049999999999</v>
-      </c>
-      <c r="J21" cm="1">
-        <f t="array" ref="J21">_xll.BDP(C21,$J$1)</f>
-        <v>-7.9874989999999997</v>
-      </c>
-      <c r="K21" cm="1">
-        <f t="array" ref="K21">_xll.BDP(C21,$K$1)</f>
-        <v>9.8633819999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21.295269999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -3677,34 +3073,26 @@
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">_xll.BDP(C22,$E$1)</f>
-        <v>-2.7716620000000001</v>
+        <v>0.9666884</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.BDP(C22,$F$1)</f>
-        <v>-2.3543210000000001</v>
+        <v>1.377229</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" ref="G22">_xll.BDP(C22,$G$1)</f>
-        <v>-17.314689999999999</v>
+        <v>-14.06494</v>
       </c>
       <c r="H22" cm="1">
         <f t="array" ref="H22">_xll.BDP(C22,$H$1)</f>
-        <v>-11.630369999999999</v>
+        <v>-7.2594149999999997</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.BDP(C22,$I$1)</f>
-        <v>-12.81068</v>
-      </c>
-      <c r="J22" cm="1">
-        <f t="array" ref="J22">_xll.BDP(C22,$J$1)</f>
-        <v>-20.837289999999999</v>
-      </c>
-      <c r="K22" cm="1">
-        <f t="array" ref="K22">_xll.BDP(C22,$K$1)</f>
-        <v>-10.547359999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-10.232279999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -3720,34 +3108,26 @@
       </c>
       <c r="E23" cm="1">
         <f t="array" ref="E23">_xll.BDP(C23,$E$1)</f>
-        <v>-2.2634020000000001</v>
+        <v>1.825064</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.BDP(C23,$F$1)</f>
-        <v>0.9018853</v>
+        <v>2.6717550000000001</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" ref="G23">_xll.BDP(C23,$G$1)</f>
-        <v>-3.28749</v>
+        <v>-1.8120179999999999</v>
       </c>
       <c r="H23" cm="1">
         <f t="array" ref="H23">_xll.BDP(C23,$H$1)</f>
-        <v>2.1724139999999998</v>
+        <v>3.3479730000000001</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.BDP(C23,$I$1)</f>
-        <v>9.750299</v>
-      </c>
-      <c r="J23" cm="1">
-        <f t="array" ref="J23">_xll.BDP(C23,$J$1)</f>
-        <v>-7.0142389999999999</v>
-      </c>
-      <c r="K23" cm="1">
-        <f t="array" ref="K23">_xll.BDP(C23,$K$1)</f>
-        <v>2.0131890000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11.950060000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -3763,34 +3143,26 @@
       </c>
       <c r="E24" cm="1">
         <f t="array" ref="E24">_xll.BDP(C24,$E$1)</f>
-        <v>-1.9561550000000001</v>
+        <v>1.064073</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.BDP(C24,$F$1)</f>
-        <v>0.70438979999999995</v>
+        <v>2.0212500000000002</v>
       </c>
       <c r="G24" cm="1">
         <f t="array" ref="G24">_xll.BDP(C24,$G$1)</f>
-        <v>-2.9814210000000001</v>
+        <v>-1.7682359999999999</v>
       </c>
       <c r="H24" cm="1">
         <f t="array" ref="H24">_xll.BDP(C24,$H$1)</f>
-        <v>-1.5910660000000001</v>
+        <v>-0.77510299999999999</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.BDP(C24,$I$1)</f>
-        <v>2.9148010000000002</v>
-      </c>
-      <c r="J24" cm="1">
-        <f t="array" ref="J24">_xll.BDP(C24,$J$1)</f>
-        <v>-6.5072900000000002</v>
-      </c>
-      <c r="K24" cm="1">
-        <f t="array" ref="K24">_xll.BDP(C24,$K$1)</f>
-        <v>-1.168499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.236491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3806,34 +3178,26 @@
       </c>
       <c r="E25" cm="1">
         <f t="array" ref="E25">_xll.BDP(C25,$E$1)</f>
-        <v>-4.8187769999999999</v>
+        <v>-1.055579</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.BDP(C25,$F$1)</f>
-        <v>0</v>
+        <v>0.91178870000000001</v>
       </c>
       <c r="G25" cm="1">
         <f t="array" ref="G25">_xll.BDP(C25,$G$1)</f>
-        <v>-10.650740000000001</v>
+        <v>-10.29297</v>
       </c>
       <c r="H25" cm="1">
         <f t="array" ref="H25">_xll.BDP(C25,$H$1)</f>
-        <v>-15.43253</v>
+        <v>-16.167010000000001</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.BDP(C25,$I$1)</f>
-        <v>-9.6821859999999997</v>
-      </c>
-      <c r="J25" cm="1">
-        <f t="array" ref="J25">_xll.BDP(C25,$J$1)</f>
-        <v>-17.691960000000002</v>
-      </c>
-      <c r="K25" cm="1">
-        <f t="array" ref="K25">_xll.BDP(C25,$K$1)</f>
-        <v>-9.4662140000000008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-9.4752390000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -3849,34 +3213,26 @@
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.BDP(C26,$E$1)</f>
-        <v>-3.0971129999999998</v>
+        <v>2.3064469999999999</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.BDP(C26,$F$1)</f>
-        <v>-0.1082278</v>
+        <v>2.4861499999999999</v>
       </c>
       <c r="G26" cm="1">
         <f t="array" ref="G26">_xll.BDP(C26,$G$1)</f>
-        <v>-5.5633679999999996</v>
+        <v>-4.0359290000000003</v>
       </c>
       <c r="H26" cm="1">
         <f t="array" ref="H26">_xll.BDP(C26,$H$1)</f>
-        <v>-6.5553020000000002</v>
+        <v>-3.9994939999999999</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.BDP(C26,$I$1)</f>
-        <v>6.0005730000000002</v>
-      </c>
-      <c r="J26" cm="1">
-        <f t="array" ref="J26">_xll.BDP(C26,$J$1)</f>
-        <v>-9.5873640000000009</v>
-      </c>
-      <c r="K26" cm="1">
-        <f t="array" ref="K26">_xll.BDP(C26,$K$1)</f>
-        <v>-1.392574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.8860170000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -3892,34 +3248,26 @@
       </c>
       <c r="E27" cm="1">
         <f t="array" ref="E27">_xll.BDP(C27,$E$1)</f>
-        <v>-1.368959</v>
+        <v>1.0250379999999999</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.BDP(C27,$F$1)</f>
-        <v>1.287261</v>
+        <v>1.7431030000000001</v>
       </c>
       <c r="G27" cm="1">
         <f t="array" ref="G27">_xll.BDP(C27,$G$1)</f>
-        <v>3.0146440000000001</v>
+        <v>4.5747059999999999</v>
       </c>
       <c r="H27" cm="1">
         <f t="array" ref="H27">_xll.BDP(C27,$H$1)</f>
-        <v>8.5299490000000002</v>
+        <v>11.23034</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.BDP(C27,$I$1)</f>
-        <v>31.140360000000001</v>
-      </c>
-      <c r="J27" cm="1">
-        <f t="array" ref="J27">_xll.BDP(C27,$J$1)</f>
-        <v>-4.0744319999999998</v>
-      </c>
-      <c r="K27" cm="1">
-        <f t="array" ref="K27">_xll.BDP(C27,$K$1)</f>
-        <v>9.9247560000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31.842110000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -3935,34 +3283,26 @@
       </c>
       <c r="E28" cm="1">
         <f t="array" ref="E28">_xll.BDP(C28,$E$1)</f>
-        <v>-1.2820510000000001</v>
+        <v>0.51647120000000002</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.BDP(C28,$F$1)</f>
-        <v>3.3333360000000001</v>
+        <v>3.8655689999999998</v>
       </c>
       <c r="G28" cm="1">
         <f t="array" ref="G28">_xll.BDP(C28,$G$1)</f>
-        <v>0.54759590000000002</v>
+        <v>1.151848</v>
       </c>
       <c r="H28" cm="1">
         <f t="array" ref="H28">_xll.BDP(C28,$H$1)</f>
-        <v>4.8616200000000003</v>
+        <v>3.8955380000000002</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.BDP(C28,$I$1)</f>
-        <v>9.0120299999999993</v>
-      </c>
-      <c r="J28" cm="1">
-        <f t="array" ref="J28">_xll.BDP(C28,$J$1)</f>
-        <v>-1.9578329999999999</v>
-      </c>
-      <c r="K28" cm="1">
-        <f t="array" ref="K28">_xll.BDP(C28,$K$1)</f>
-        <v>4.2292839999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.6209509999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -3978,34 +3318,26 @@
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.BDP(C29,$E$1)</f>
-        <v>-1.2974049999999999</v>
+        <v>-1.412995</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.BDP(C29,$F$1)</f>
-        <v>-0.62520900000000001</v>
+        <v>-6.7664569999999993E-2</v>
       </c>
       <c r="G29" cm="1">
         <f t="array" ref="G29">_xll.BDP(C29,$G$1)</f>
-        <v>-6.932245</v>
+        <v>-6.4011810000000002</v>
       </c>
       <c r="H29" cm="1">
         <f t="array" ref="H29">_xll.BDP(C29,$H$1)</f>
-        <v>-2.283452</v>
+        <v>-2.9782130000000002</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.BDP(C29,$I$1)</f>
-        <v>8.0743069999999992</v>
-      </c>
-      <c r="J29" cm="1">
-        <f t="array" ref="J29">_xll.BDP(C29,$J$1)</f>
-        <v>-7.1555239999999998</v>
-      </c>
-      <c r="K29" cm="1">
-        <f t="array" ref="K29">_xll.BDP(C29,$K$1)</f>
-        <v>-1.361937</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.5886339999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -4021,34 +3353,26 @@
       </c>
       <c r="E30" cm="1">
         <f t="array" ref="E30">_xll.BDP(C30,$E$1)</f>
-        <v>-1.3265309999999999</v>
+        <v>1.875</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.BDP(C30,$F$1)</f>
-        <v>4.250731</v>
+        <v>5.6970869999999998</v>
       </c>
       <c r="G30" cm="1">
         <f t="array" ref="G30">_xll.BDP(C30,$G$1)</f>
-        <v>-0.58745239999999999</v>
+        <v>-0.58088960000000001</v>
       </c>
       <c r="H30" cm="1">
         <f t="array" ref="H30">_xll.BDP(C30,$H$1)</f>
-        <v>-0.82051280000000004</v>
+        <v>-0.85445769999999999</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.BDP(C30,$I$1)</f>
-        <v>3.6441629999999998</v>
-      </c>
-      <c r="J30" cm="1">
-        <f t="array" ref="J30">_xll.BDP(C30,$J$1)</f>
-        <v>-3.2999969999999998</v>
-      </c>
-      <c r="K30" cm="1">
-        <f t="array" ref="K30">_xll.BDP(C30,$K$1)</f>
-        <v>1.152441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.8231549999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -4064,34 +3388,26 @@
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.BDP(C31,$E$1)</f>
-        <v>-1.2377849999999999</v>
+        <v>0.52541700000000002</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.BDP(C31,$F$1)</f>
-        <v>1.0397270000000001</v>
+        <v>1.9177040000000001</v>
       </c>
       <c r="G31" cm="1">
         <f t="array" ref="G31">_xll.BDP(C31,$G$1)</f>
-        <v>-1.430431</v>
+        <v>-0.76504499999999998</v>
       </c>
       <c r="H31" cm="1">
         <f t="array" ref="H31">_xll.BDP(C31,$H$1)</f>
-        <v>2.557159</v>
+        <v>3.6570469999999999</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.BDP(C31,$I$1)</f>
-        <v>4.6816690000000003</v>
-      </c>
-      <c r="J31" cm="1">
-        <f t="array" ref="J31">_xll.BDP(C31,$J$1)</f>
-        <v>-3.217565</v>
-      </c>
-      <c r="K31" cm="1">
-        <f t="array" ref="K31">_xll.BDP(C31,$K$1)</f>
-        <v>1.613351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.6898169999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -4107,34 +3423,26 @@
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.BDP(C32,$E$1)</f>
-        <v>-5.2544950000000004</v>
+        <v>-0.93737789999999999</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.BDP(C32,$F$1)</f>
-        <v>-2.2851919999999999</v>
+        <v>-0.7305931</v>
       </c>
       <c r="G32" cm="1">
         <f t="array" ref="G32">_xll.BDP(C32,$G$1)</f>
-        <v>-13.4413</v>
+        <v>-12.850759999999999</v>
       </c>
       <c r="H32" cm="1">
         <f t="array" ref="H32">_xll.BDP(C32,$H$1)</f>
-        <v>-17.69688</v>
+        <v>-15.333259999999999</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.BDP(C32,$I$1)</f>
-        <v>-18.64536</v>
-      </c>
-      <c r="J32" cm="1">
-        <f t="array" ref="J32">_xll.BDP(C32,$J$1)</f>
-        <v>-20.554200000000002</v>
-      </c>
-      <c r="K32" cm="1">
-        <f t="array" ref="K32">_xll.BDP(C32,$K$1)</f>
-        <v>-13.47167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-17.275490000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -4150,34 +3458,26 @@
       </c>
       <c r="E33" cm="1">
         <f t="array" ref="E33">_xll.BDP(C33,$E$1)</f>
-        <v>-0.86942260000000005</v>
+        <v>1.9943489999999999</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.BDP(C33,$F$1)</f>
-        <v>3.0525250000000002</v>
+        <v>4.6198430000000004</v>
       </c>
       <c r="G33" cm="1">
         <f t="array" ref="G33">_xll.BDP(C33,$G$1)</f>
-        <v>1.2227790000000001</v>
+        <v>1.555518</v>
       </c>
       <c r="H33" cm="1">
         <f t="array" ref="H33">_xll.BDP(C33,$H$1)</f>
-        <v>3.5469490000000001</v>
+        <v>4.798495</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.BDP(C33,$I$1)</f>
-        <v>9.6335289999999993</v>
-      </c>
-      <c r="J33" cm="1">
-        <f t="array" ref="J33">_xll.BDP(C33,$J$1)</f>
-        <v>-5.5338450000000003</v>
-      </c>
-      <c r="K33" cm="1">
-        <f t="array" ref="K33">_xll.BDP(C33,$K$1)</f>
-        <v>3.6466750000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11.338900000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -4193,34 +3493,26 @@
       </c>
       <c r="E34" cm="1">
         <f t="array" ref="E34">_xll.BDP(C34,$E$1)</f>
-        <v>-3.4938940000000001</v>
+        <v>2.2101389999999999</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.BDP(C34,$F$1)</f>
-        <v>1.191532</v>
+        <v>3.1875360000000001</v>
       </c>
       <c r="G34" cm="1">
         <f t="array" ref="G34">_xll.BDP(C34,$G$1)</f>
-        <v>-5.7634999999999996</v>
+        <v>-4.506723</v>
       </c>
       <c r="H34" cm="1">
         <f t="array" ref="H34">_xll.BDP(C34,$H$1)</f>
-        <v>-10.067959999999999</v>
+        <v>-7.4638710000000001</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.BDP(C34,$I$1)</f>
-        <v>-4.1926269999999999</v>
-      </c>
-      <c r="J34" cm="1">
-        <f t="array" ref="J34">_xll.BDP(C34,$J$1)</f>
-        <v>-11.23245</v>
-      </c>
-      <c r="K34" cm="1">
-        <f t="array" ref="K34">_xll.BDP(C34,$K$1)</f>
-        <v>-5.1552850000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-1.885842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -4236,34 +3528,26 @@
       </c>
       <c r="E35" cm="1">
         <f t="array" ref="E35">_xll.BDP(C35,$E$1)</f>
-        <v>-5.2711259999999998</v>
+        <v>4.0775589999999999</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.BDP(C35,$F$1)</f>
-        <v>-3.5589219999999999</v>
+        <v>1.290413</v>
       </c>
       <c r="G35" cm="1">
         <f t="array" ref="G35">_xll.BDP(C35,$G$1)</f>
-        <v>-17.628050000000002</v>
+        <v>-14.127750000000001</v>
       </c>
       <c r="H35" cm="1">
         <f t="array" ref="H35">_xll.BDP(C35,$H$1)</f>
-        <v>-10.945790000000001</v>
+        <v>-3.4646949999999999</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.BDP(C35,$I$1)</f>
-        <v>13.28177</v>
-      </c>
-      <c r="J35" cm="1">
-        <f t="array" ref="J35">_xll.BDP(C35,$J$1)</f>
-        <v>-24.561589999999999</v>
-      </c>
-      <c r="K35" cm="1">
-        <f t="array" ref="K35">_xll.BDP(C35,$K$1)</f>
-        <v>-5.5056079999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20.144839999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -4279,34 +3563,26 @@
       </c>
       <c r="E36" cm="1">
         <f t="array" ref="E36">_xll.BDP(C36,$E$1)</f>
-        <v>-0.61820509999999995</v>
+        <v>0.63613229999999998</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.BDP(C36,$F$1)</f>
-        <v>4.7875889999999997</v>
+        <v>7.2784769999999996</v>
       </c>
       <c r="G36" cm="1">
         <f t="array" ref="G36">_xll.BDP(C36,$G$1)</f>
-        <v>11.744960000000001</v>
+        <v>10.423450000000001</v>
       </c>
       <c r="H36" cm="1">
         <f t="array" ref="H36">_xll.BDP(C36,$H$1)</f>
-        <v>14.9125</v>
+        <v>17.330030000000001</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.BDP(C36,$I$1)</f>
-        <v>6.0992300000000004</v>
-      </c>
-      <c r="J36" cm="1">
-        <f t="array" ref="J36">_xll.BDP(C36,$J$1)</f>
-        <v>-9.7386300000000006</v>
-      </c>
-      <c r="K36" cm="1">
-        <f t="array" ref="K36">_xll.BDP(C36,$K$1)</f>
-        <v>10.75089</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.0109270000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -4322,34 +3598,26 @@
       </c>
       <c r="E37" cm="1">
         <f t="array" ref="E37">_xll.BDP(C37,$E$1)</f>
-        <v>-2.3622049999999999</v>
+        <v>7.806209</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.BDP(C37,$F$1)</f>
-        <v>-6.7898930000000002</v>
+        <v>2.443838</v>
       </c>
       <c r="G37" cm="1">
         <f t="array" ref="G37">_xll.BDP(C37,$G$1)</f>
-        <v>-29.45346</v>
+        <v>-18.75489</v>
       </c>
       <c r="H37" cm="1">
         <f t="array" ref="H37">_xll.BDP(C37,$H$1)</f>
-        <v>-23.13008</v>
+        <v>-14.10535</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.BDP(C37,$I$1)</f>
-        <v>-20.32863</v>
-      </c>
-      <c r="J37" cm="1">
-        <f t="array" ref="J37">_xll.BDP(C37,$J$1)</f>
-        <v>-36.85089</v>
-      </c>
-      <c r="K37" cm="1">
-        <f t="array" ref="K37">_xll.BDP(C37,$K$1)</f>
-        <v>-24.482939999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-12.576370000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -4365,34 +3633,26 @@
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.BDP(C38,$E$1)</f>
-        <v>8.2480820000000001</v>
+        <v>-4.8568610000000003</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.BDP(C38,$F$1)</f>
-        <v>-13.91525</v>
+        <v>-5.8237199999999998</v>
       </c>
       <c r="G38" cm="1">
         <f t="array" ref="G38">_xll.BDP(C38,$G$1)</f>
-        <v>-7.215929</v>
+        <v>-9.9083959999999998</v>
       </c>
       <c r="H38" cm="1">
         <f t="array" ref="H38">_xll.BDP(C38,$H$1)</f>
-        <v>-20.204239999999999</v>
+        <v>-22.809550000000002</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.BDP(C38,$I$1)</f>
-        <v>-22.705829999999999</v>
-      </c>
-      <c r="J38" cm="1">
-        <f t="array" ref="J38">_xll.BDP(C38,$J$1)</f>
-        <v>-46.827889999999996</v>
-      </c>
-      <c r="K38" cm="1">
-        <f t="array" ref="K38">_xll.BDP(C38,$K$1)</f>
-        <v>-14.81183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-26.662610000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -4408,34 +3668,26 @@
       </c>
       <c r="E39" cm="1">
         <f t="array" ref="E39">_xll.BDP(C39,$E$1)</f>
-        <v>-2.4372319999999998</v>
+        <v>0.57636889999999996</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.BDP(C39,$F$1)</f>
-        <v>-0.2004494</v>
+        <v>0.79105689999999995</v>
       </c>
       <c r="G39" cm="1">
         <f t="array" ref="G39">_xll.BDP(C39,$G$1)</f>
-        <v>-3.125375</v>
+        <v>-3.4171559999999999</v>
       </c>
       <c r="H39" cm="1">
         <f t="array" ref="H39">_xll.BDP(C39,$H$1)</f>
-        <v>-1.3254049999999999</v>
+        <v>7.4804780000000001E-2</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.BDP(C39,$I$1)</f>
-        <v>4.2943179999999996</v>
-      </c>
-      <c r="J39" cm="1">
-        <f t="array" ref="J39">_xll.BDP(C39,$J$1)</f>
-        <v>-7.7261699999999998</v>
-      </c>
-      <c r="K39" cm="1">
-        <f t="array" ref="K39">_xll.BDP(C39,$K$1)</f>
-        <v>0.13116639999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.092956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -4451,31 +3703,23 @@
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40">_xll.BDP(C40,$E$1)</f>
-        <v>-1.235052</v>
+        <v>0.85097959999999995</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.BDP(C40,$F$1)</f>
-        <v>2.3359749999999999</v>
+        <v>4.0424670000000003</v>
       </c>
       <c r="G40" cm="1">
         <f t="array" ref="G40">_xll.BDP(C40,$G$1)</f>
-        <v>-2.3643380000000001</v>
+        <v>-0.19585069999999999</v>
       </c>
       <c r="H40" cm="1">
         <f t="array" ref="H40">_xll.BDP(C40,$H$1)</f>
-        <v>-1.2544109999999999</v>
+        <v>-1.0677509999999999</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.BDP(C40,$I$1)</f>
-        <v>-2.0225559999999998</v>
-      </c>
-      <c r="J40" cm="1">
-        <f t="array" ref="J40">_xll.BDP(C40,$J$1)</f>
-        <v>-8.0992309999999996</v>
-      </c>
-      <c r="K40" cm="1">
-        <f t="array" ref="K40">_xll.BDP(C40,$K$1)</f>
-        <v>-1.3623879999999999</v>
+        <v>-0.89459</v>
       </c>
     </row>
   </sheetData>
@@ -4484,11 +3728,4334 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E378BD-7CF1-4F08-B5F6-3DE117265934}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C391"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="L131" sqref="L131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>74</v>
+      </c>
+      <c r="B97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>75</v>
+      </c>
+      <c r="B106" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>75</v>
+      </c>
+      <c r="B111" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>77</v>
+      </c>
+      <c r="B143" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>77</v>
+      </c>
+      <c r="B144" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>77</v>
+      </c>
+      <c r="B145" t="s">
+        <v>135</v>
+      </c>
+      <c r="C145">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>77</v>
+      </c>
+      <c r="B146" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>77</v>
+      </c>
+      <c r="B148" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>77</v>
+      </c>
+      <c r="B149" t="s">
+        <v>139</v>
+      </c>
+      <c r="C149">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>77</v>
+      </c>
+      <c r="B150" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>77</v>
+      </c>
+      <c r="B151" t="s">
+        <v>141</v>
+      </c>
+      <c r="C151">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C153">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>136</v>
+      </c>
+      <c r="C156">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>137</v>
+      </c>
+      <c r="C157">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>139</v>
+      </c>
+      <c r="C159">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>140</v>
+      </c>
+      <c r="C160">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>141</v>
+      </c>
+      <c r="C161">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>93</v>
+      </c>
+      <c r="B162" t="s">
+        <v>132</v>
+      </c>
+      <c r="C162">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>93</v>
+      </c>
+      <c r="B163" t="s">
+        <v>133</v>
+      </c>
+      <c r="C163">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>93</v>
+      </c>
+      <c r="B164" t="s">
+        <v>134</v>
+      </c>
+      <c r="C164">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>93</v>
+      </c>
+      <c r="B165" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>93</v>
+      </c>
+      <c r="B166" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>93</v>
+      </c>
+      <c r="B167" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>93</v>
+      </c>
+      <c r="B168" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>93</v>
+      </c>
+      <c r="B169" t="s">
+        <v>139</v>
+      </c>
+      <c r="C169">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>93</v>
+      </c>
+      <c r="B170" t="s">
+        <v>140</v>
+      </c>
+      <c r="C170">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>93</v>
+      </c>
+      <c r="B171" t="s">
+        <v>141</v>
+      </c>
+      <c r="C171">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" t="s">
+        <v>132</v>
+      </c>
+      <c r="C172">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>31</v>
+      </c>
+      <c r="B173" t="s">
+        <v>133</v>
+      </c>
+      <c r="C173">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>31</v>
+      </c>
+      <c r="B174" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>31</v>
+      </c>
+      <c r="B175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C175">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>31</v>
+      </c>
+      <c r="B176" t="s">
+        <v>136</v>
+      </c>
+      <c r="C176">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>31</v>
+      </c>
+      <c r="B177" t="s">
+        <v>137</v>
+      </c>
+      <c r="C177">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>31</v>
+      </c>
+      <c r="B178" t="s">
+        <v>138</v>
+      </c>
+      <c r="C178">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>31</v>
+      </c>
+      <c r="B179" t="s">
+        <v>139</v>
+      </c>
+      <c r="C179">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>31</v>
+      </c>
+      <c r="B180" t="s">
+        <v>140</v>
+      </c>
+      <c r="C180">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>31</v>
+      </c>
+      <c r="B181" t="s">
+        <v>141</v>
+      </c>
+      <c r="C181">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C182">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>78</v>
+      </c>
+      <c r="B183" t="s">
+        <v>133</v>
+      </c>
+      <c r="C183">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>78</v>
+      </c>
+      <c r="B184" t="s">
+        <v>134</v>
+      </c>
+      <c r="C184">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>78</v>
+      </c>
+      <c r="B185" t="s">
+        <v>135</v>
+      </c>
+      <c r="C185">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>78</v>
+      </c>
+      <c r="B186" t="s">
+        <v>136</v>
+      </c>
+      <c r="C186">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187" t="s">
+        <v>137</v>
+      </c>
+      <c r="C187">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>78</v>
+      </c>
+      <c r="B188" t="s">
+        <v>138</v>
+      </c>
+      <c r="C188">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>78</v>
+      </c>
+      <c r="B189" t="s">
+        <v>139</v>
+      </c>
+      <c r="C189">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>78</v>
+      </c>
+      <c r="B190" t="s">
+        <v>140</v>
+      </c>
+      <c r="C190">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>78</v>
+      </c>
+      <c r="B191" t="s">
+        <v>141</v>
+      </c>
+      <c r="C191">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>34</v>
+      </c>
+      <c r="B192" t="s">
+        <v>132</v>
+      </c>
+      <c r="C192">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>34</v>
+      </c>
+      <c r="B193" t="s">
+        <v>133</v>
+      </c>
+      <c r="C193">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>34</v>
+      </c>
+      <c r="B194" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>34</v>
+      </c>
+      <c r="B195" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>34</v>
+      </c>
+      <c r="B196" t="s">
+        <v>136</v>
+      </c>
+      <c r="C196">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>34</v>
+      </c>
+      <c r="B197" t="s">
+        <v>137</v>
+      </c>
+      <c r="C197">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>34</v>
+      </c>
+      <c r="B198" t="s">
+        <v>138</v>
+      </c>
+      <c r="C198">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>34</v>
+      </c>
+      <c r="B199" t="s">
+        <v>139</v>
+      </c>
+      <c r="C199">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>34</v>
+      </c>
+      <c r="B200" t="s">
+        <v>140</v>
+      </c>
+      <c r="C200">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>34</v>
+      </c>
+      <c r="B201" t="s">
+        <v>141</v>
+      </c>
+      <c r="C201">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>36</v>
+      </c>
+      <c r="B202" t="s">
+        <v>132</v>
+      </c>
+      <c r="C202">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>36</v>
+      </c>
+      <c r="B203" t="s">
+        <v>133</v>
+      </c>
+      <c r="C203">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>36</v>
+      </c>
+      <c r="B204" t="s">
+        <v>134</v>
+      </c>
+      <c r="C204">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>36</v>
+      </c>
+      <c r="B205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C205">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>36</v>
+      </c>
+      <c r="B206" t="s">
+        <v>136</v>
+      </c>
+      <c r="C206">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>36</v>
+      </c>
+      <c r="B207" t="s">
+        <v>137</v>
+      </c>
+      <c r="C207">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>36</v>
+      </c>
+      <c r="B208" t="s">
+        <v>138</v>
+      </c>
+      <c r="C208">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>36</v>
+      </c>
+      <c r="B209" t="s">
+        <v>139</v>
+      </c>
+      <c r="C209">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>36</v>
+      </c>
+      <c r="B210" t="s">
+        <v>140</v>
+      </c>
+      <c r="C210">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>36</v>
+      </c>
+      <c r="B211" t="s">
+        <v>141</v>
+      </c>
+      <c r="C211">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>38</v>
+      </c>
+      <c r="B212" t="s">
+        <v>132</v>
+      </c>
+      <c r="C212">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>38</v>
+      </c>
+      <c r="B213" t="s">
+        <v>133</v>
+      </c>
+      <c r="C213">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>38</v>
+      </c>
+      <c r="B214" t="s">
+        <v>134</v>
+      </c>
+      <c r="C214">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215" t="s">
+        <v>135</v>
+      </c>
+      <c r="C215">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>38</v>
+      </c>
+      <c r="B216" t="s">
+        <v>136</v>
+      </c>
+      <c r="C216">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>38</v>
+      </c>
+      <c r="B217" t="s">
+        <v>137</v>
+      </c>
+      <c r="C217">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>38</v>
+      </c>
+      <c r="B218" t="s">
+        <v>138</v>
+      </c>
+      <c r="C218">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>38</v>
+      </c>
+      <c r="B219" t="s">
+        <v>139</v>
+      </c>
+      <c r="C219">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>38</v>
+      </c>
+      <c r="B220" t="s">
+        <v>140</v>
+      </c>
+      <c r="C220">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>38</v>
+      </c>
+      <c r="B221" t="s">
+        <v>141</v>
+      </c>
+      <c r="C221">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222" t="s">
+        <v>132</v>
+      </c>
+      <c r="C222">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>40</v>
+      </c>
+      <c r="B223" t="s">
+        <v>133</v>
+      </c>
+      <c r="C223">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>40</v>
+      </c>
+      <c r="B224" t="s">
+        <v>134</v>
+      </c>
+      <c r="C224">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>40</v>
+      </c>
+      <c r="B225" t="s">
+        <v>135</v>
+      </c>
+      <c r="C225">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>40</v>
+      </c>
+      <c r="B226" t="s">
+        <v>136</v>
+      </c>
+      <c r="C226">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>40</v>
+      </c>
+      <c r="B227" t="s">
+        <v>137</v>
+      </c>
+      <c r="C227">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>40</v>
+      </c>
+      <c r="B228" t="s">
+        <v>138</v>
+      </c>
+      <c r="C228">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>40</v>
+      </c>
+      <c r="B229" t="s">
+        <v>139</v>
+      </c>
+      <c r="C229">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>40</v>
+      </c>
+      <c r="B230" t="s">
+        <v>140</v>
+      </c>
+      <c r="C230">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>40</v>
+      </c>
+      <c r="B231" t="s">
+        <v>141</v>
+      </c>
+      <c r="C231">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>42</v>
+      </c>
+      <c r="B232" t="s">
+        <v>132</v>
+      </c>
+      <c r="C232">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>42</v>
+      </c>
+      <c r="B233" t="s">
+        <v>133</v>
+      </c>
+      <c r="C233">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>42</v>
+      </c>
+      <c r="B234" t="s">
+        <v>134</v>
+      </c>
+      <c r="C234">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>42</v>
+      </c>
+      <c r="B235" t="s">
+        <v>135</v>
+      </c>
+      <c r="C235">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>42</v>
+      </c>
+      <c r="B236" t="s">
+        <v>136</v>
+      </c>
+      <c r="C236">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>42</v>
+      </c>
+      <c r="B237" t="s">
+        <v>137</v>
+      </c>
+      <c r="C237">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>42</v>
+      </c>
+      <c r="B238" t="s">
+        <v>138</v>
+      </c>
+      <c r="C238">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>42</v>
+      </c>
+      <c r="B239" t="s">
+        <v>139</v>
+      </c>
+      <c r="C239">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>42</v>
+      </c>
+      <c r="B240" t="s">
+        <v>140</v>
+      </c>
+      <c r="C240">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>42</v>
+      </c>
+      <c r="B241" t="s">
+        <v>141</v>
+      </c>
+      <c r="C241">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242" t="s">
+        <v>132</v>
+      </c>
+      <c r="C242">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>44</v>
+      </c>
+      <c r="B243" t="s">
+        <v>133</v>
+      </c>
+      <c r="C243">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>44</v>
+      </c>
+      <c r="B244" t="s">
+        <v>134</v>
+      </c>
+      <c r="C244">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>44</v>
+      </c>
+      <c r="B245" t="s">
+        <v>135</v>
+      </c>
+      <c r="C245">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>44</v>
+      </c>
+      <c r="B246" t="s">
+        <v>136</v>
+      </c>
+      <c r="C246">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>44</v>
+      </c>
+      <c r="B247" t="s">
+        <v>137</v>
+      </c>
+      <c r="C247">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>44</v>
+      </c>
+      <c r="B248" t="s">
+        <v>138</v>
+      </c>
+      <c r="C248">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>44</v>
+      </c>
+      <c r="B249" t="s">
+        <v>139</v>
+      </c>
+      <c r="C249">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>44</v>
+      </c>
+      <c r="B250" t="s">
+        <v>140</v>
+      </c>
+      <c r="C250">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>44</v>
+      </c>
+      <c r="B251" t="s">
+        <v>141</v>
+      </c>
+      <c r="C251">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>103</v>
+      </c>
+      <c r="B252" t="s">
+        <v>132</v>
+      </c>
+      <c r="C252">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>103</v>
+      </c>
+      <c r="B253" t="s">
+        <v>133</v>
+      </c>
+      <c r="C253">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>103</v>
+      </c>
+      <c r="B254" t="s">
+        <v>134</v>
+      </c>
+      <c r="C254">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>103</v>
+      </c>
+      <c r="B255" t="s">
+        <v>135</v>
+      </c>
+      <c r="C255">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>103</v>
+      </c>
+      <c r="B256" t="s">
+        <v>136</v>
+      </c>
+      <c r="C256">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>103</v>
+      </c>
+      <c r="B257" t="s">
+        <v>137</v>
+      </c>
+      <c r="C257">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>103</v>
+      </c>
+      <c r="B258" t="s">
+        <v>138</v>
+      </c>
+      <c r="C258">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>103</v>
+      </c>
+      <c r="B259" t="s">
+        <v>139</v>
+      </c>
+      <c r="C259">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>103</v>
+      </c>
+      <c r="B260" t="s">
+        <v>140</v>
+      </c>
+      <c r="C260">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>103</v>
+      </c>
+      <c r="B261" t="s">
+        <v>141</v>
+      </c>
+      <c r="C261">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>47</v>
+      </c>
+      <c r="B262" t="s">
+        <v>132</v>
+      </c>
+      <c r="C262">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>47</v>
+      </c>
+      <c r="B263" t="s">
+        <v>133</v>
+      </c>
+      <c r="C263">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>47</v>
+      </c>
+      <c r="B264" t="s">
+        <v>134</v>
+      </c>
+      <c r="C264">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>47</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
+      <c r="C265">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>47</v>
+      </c>
+      <c r="B266" t="s">
+        <v>136</v>
+      </c>
+      <c r="C266">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>47</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
+      <c r="C267">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>47</v>
+      </c>
+      <c r="B268" t="s">
+        <v>138</v>
+      </c>
+      <c r="C268">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>47</v>
+      </c>
+      <c r="B269" t="s">
+        <v>139</v>
+      </c>
+      <c r="C269">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>47</v>
+      </c>
+      <c r="B270" t="s">
+        <v>140</v>
+      </c>
+      <c r="C270">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>47</v>
+      </c>
+      <c r="B271" t="s">
+        <v>141</v>
+      </c>
+      <c r="C271">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>49</v>
+      </c>
+      <c r="B272" t="s">
+        <v>132</v>
+      </c>
+      <c r="C272">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>49</v>
+      </c>
+      <c r="B273" t="s">
+        <v>133</v>
+      </c>
+      <c r="C273">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>49</v>
+      </c>
+      <c r="B274" t="s">
+        <v>134</v>
+      </c>
+      <c r="C274">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>49</v>
+      </c>
+      <c r="B275" t="s">
+        <v>135</v>
+      </c>
+      <c r="C275">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>49</v>
+      </c>
+      <c r="B276" t="s">
+        <v>136</v>
+      </c>
+      <c r="C276">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>49</v>
+      </c>
+      <c r="B277" t="s">
+        <v>137</v>
+      </c>
+      <c r="C277">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>49</v>
+      </c>
+      <c r="B278" t="s">
+        <v>138</v>
+      </c>
+      <c r="C278">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>49</v>
+      </c>
+      <c r="B279" t="s">
+        <v>139</v>
+      </c>
+      <c r="C279">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>49</v>
+      </c>
+      <c r="B280" t="s">
+        <v>140</v>
+      </c>
+      <c r="C280">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>49</v>
+      </c>
+      <c r="B281" t="s">
+        <v>141</v>
+      </c>
+      <c r="C281">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>51</v>
+      </c>
+      <c r="B282" t="s">
+        <v>132</v>
+      </c>
+      <c r="C282">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>51</v>
+      </c>
+      <c r="B283" t="s">
+        <v>133</v>
+      </c>
+      <c r="C283">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>51</v>
+      </c>
+      <c r="B284" t="s">
+        <v>134</v>
+      </c>
+      <c r="C284">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>51</v>
+      </c>
+      <c r="B285" t="s">
+        <v>135</v>
+      </c>
+      <c r="C285">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>51</v>
+      </c>
+      <c r="B286" t="s">
+        <v>136</v>
+      </c>
+      <c r="C286">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>51</v>
+      </c>
+      <c r="B287" t="s">
+        <v>137</v>
+      </c>
+      <c r="C287">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>51</v>
+      </c>
+      <c r="B288" t="s">
+        <v>138</v>
+      </c>
+      <c r="C288">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>51</v>
+      </c>
+      <c r="B289" t="s">
+        <v>139</v>
+      </c>
+      <c r="C289">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>51</v>
+      </c>
+      <c r="B290" t="s">
+        <v>140</v>
+      </c>
+      <c r="C290">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>51</v>
+      </c>
+      <c r="B291" t="s">
+        <v>141</v>
+      </c>
+      <c r="C291">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>79</v>
+      </c>
+      <c r="B292" t="s">
+        <v>132</v>
+      </c>
+      <c r="C292">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>79</v>
+      </c>
+      <c r="B293" t="s">
+        <v>133</v>
+      </c>
+      <c r="C293">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>79</v>
+      </c>
+      <c r="B294" t="s">
+        <v>134</v>
+      </c>
+      <c r="C294">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>79</v>
+      </c>
+      <c r="B295" t="s">
+        <v>135</v>
+      </c>
+      <c r="C295">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>79</v>
+      </c>
+      <c r="B296" t="s">
+        <v>136</v>
+      </c>
+      <c r="C296">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>79</v>
+      </c>
+      <c r="B297" t="s">
+        <v>137</v>
+      </c>
+      <c r="C297">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>79</v>
+      </c>
+      <c r="B298" t="s">
+        <v>138</v>
+      </c>
+      <c r="C298">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>79</v>
+      </c>
+      <c r="B299" t="s">
+        <v>139</v>
+      </c>
+      <c r="C299">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>79</v>
+      </c>
+      <c r="B300" t="s">
+        <v>140</v>
+      </c>
+      <c r="C300">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>79</v>
+      </c>
+      <c r="B301" t="s">
+        <v>141</v>
+      </c>
+      <c r="C301">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>54</v>
+      </c>
+      <c r="B302" t="s">
+        <v>132</v>
+      </c>
+      <c r="C302">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>54</v>
+      </c>
+      <c r="B303" t="s">
+        <v>133</v>
+      </c>
+      <c r="C303">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>54</v>
+      </c>
+      <c r="B304" t="s">
+        <v>134</v>
+      </c>
+      <c r="C304">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>54</v>
+      </c>
+      <c r="B305" t="s">
+        <v>135</v>
+      </c>
+      <c r="C305">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>54</v>
+      </c>
+      <c r="B306" t="s">
+        <v>136</v>
+      </c>
+      <c r="C306">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>54</v>
+      </c>
+      <c r="B307" t="s">
+        <v>137</v>
+      </c>
+      <c r="C307">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>54</v>
+      </c>
+      <c r="B308" t="s">
+        <v>138</v>
+      </c>
+      <c r="C308">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>54</v>
+      </c>
+      <c r="B309" t="s">
+        <v>139</v>
+      </c>
+      <c r="C309">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>54</v>
+      </c>
+      <c r="B310" t="s">
+        <v>140</v>
+      </c>
+      <c r="C310">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>54</v>
+      </c>
+      <c r="B311" t="s">
+        <v>141</v>
+      </c>
+      <c r="C311">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>80</v>
+      </c>
+      <c r="B312" t="s">
+        <v>132</v>
+      </c>
+      <c r="C312">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>80</v>
+      </c>
+      <c r="B313" t="s">
+        <v>133</v>
+      </c>
+      <c r="C313">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>80</v>
+      </c>
+      <c r="B314" t="s">
+        <v>134</v>
+      </c>
+      <c r="C314">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>80</v>
+      </c>
+      <c r="B315" t="s">
+        <v>135</v>
+      </c>
+      <c r="C315">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>80</v>
+      </c>
+      <c r="B316" t="s">
+        <v>136</v>
+      </c>
+      <c r="C316">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>80</v>
+      </c>
+      <c r="B317" t="s">
+        <v>137</v>
+      </c>
+      <c r="C317">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>80</v>
+      </c>
+      <c r="B318" t="s">
+        <v>138</v>
+      </c>
+      <c r="C318">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>80</v>
+      </c>
+      <c r="B319" t="s">
+        <v>139</v>
+      </c>
+      <c r="C319">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>80</v>
+      </c>
+      <c r="B320" t="s">
+        <v>140</v>
+      </c>
+      <c r="C320">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>80</v>
+      </c>
+      <c r="B321" t="s">
+        <v>141</v>
+      </c>
+      <c r="C321">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322" t="s">
+        <v>132</v>
+      </c>
+      <c r="C322">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323" t="s">
+        <v>133</v>
+      </c>
+      <c r="C323">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324" t="s">
+        <v>134</v>
+      </c>
+      <c r="C324">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325" t="s">
+        <v>135</v>
+      </c>
+      <c r="C325">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" t="s">
+        <v>136</v>
+      </c>
+      <c r="C326">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s">
+        <v>137</v>
+      </c>
+      <c r="C327">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>138</v>
+      </c>
+      <c r="C328">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
+        <v>139</v>
+      </c>
+      <c r="C329">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B330" t="s">
+        <v>140</v>
+      </c>
+      <c r="C330">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>141</v>
+      </c>
+      <c r="C331">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>58</v>
+      </c>
+      <c r="B332" t="s">
+        <v>132</v>
+      </c>
+      <c r="C332">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>58</v>
+      </c>
+      <c r="B333" t="s">
+        <v>133</v>
+      </c>
+      <c r="C333">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>58</v>
+      </c>
+      <c r="B334" t="s">
+        <v>134</v>
+      </c>
+      <c r="C334">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>58</v>
+      </c>
+      <c r="B335" t="s">
+        <v>135</v>
+      </c>
+      <c r="C335">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>58</v>
+      </c>
+      <c r="B336" t="s">
+        <v>136</v>
+      </c>
+      <c r="C336">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>58</v>
+      </c>
+      <c r="B337" t="s">
+        <v>137</v>
+      </c>
+      <c r="C337">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>58</v>
+      </c>
+      <c r="B338" t="s">
+        <v>138</v>
+      </c>
+      <c r="C338">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>58</v>
+      </c>
+      <c r="B339" t="s">
+        <v>139</v>
+      </c>
+      <c r="C339">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>58</v>
+      </c>
+      <c r="B340" t="s">
+        <v>140</v>
+      </c>
+      <c r="C340">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>58</v>
+      </c>
+      <c r="B341" t="s">
+        <v>141</v>
+      </c>
+      <c r="C341">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>60</v>
+      </c>
+      <c r="B342" t="s">
+        <v>132</v>
+      </c>
+      <c r="C342">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>60</v>
+      </c>
+      <c r="B343" t="s">
+        <v>133</v>
+      </c>
+      <c r="C343">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>60</v>
+      </c>
+      <c r="B344" t="s">
+        <v>134</v>
+      </c>
+      <c r="C344">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>60</v>
+      </c>
+      <c r="B345" t="s">
+        <v>135</v>
+      </c>
+      <c r="C345">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>60</v>
+      </c>
+      <c r="B346" t="s">
+        <v>136</v>
+      </c>
+      <c r="C346">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>60</v>
+      </c>
+      <c r="B347" t="s">
+        <v>137</v>
+      </c>
+      <c r="C347">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>60</v>
+      </c>
+      <c r="B348" t="s">
+        <v>138</v>
+      </c>
+      <c r="C348">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>60</v>
+      </c>
+      <c r="B349" t="s">
+        <v>139</v>
+      </c>
+      <c r="C349">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>60</v>
+      </c>
+      <c r="B350" t="s">
+        <v>140</v>
+      </c>
+      <c r="C350">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>60</v>
+      </c>
+      <c r="B351" t="s">
+        <v>141</v>
+      </c>
+      <c r="C351">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>62</v>
+      </c>
+      <c r="B352" t="s">
+        <v>132</v>
+      </c>
+      <c r="C352">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>62</v>
+      </c>
+      <c r="B353" t="s">
+        <v>133</v>
+      </c>
+      <c r="C353">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>62</v>
+      </c>
+      <c r="B354" t="s">
+        <v>134</v>
+      </c>
+      <c r="C354">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>62</v>
+      </c>
+      <c r="B355" t="s">
+        <v>135</v>
+      </c>
+      <c r="C355">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>62</v>
+      </c>
+      <c r="B356" t="s">
+        <v>136</v>
+      </c>
+      <c r="C356">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>62</v>
+      </c>
+      <c r="B357" t="s">
+        <v>137</v>
+      </c>
+      <c r="C357">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>62</v>
+      </c>
+      <c r="B358" t="s">
+        <v>138</v>
+      </c>
+      <c r="C358">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>62</v>
+      </c>
+      <c r="B359" t="s">
+        <v>139</v>
+      </c>
+      <c r="C359">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>62</v>
+      </c>
+      <c r="B360" t="s">
+        <v>140</v>
+      </c>
+      <c r="C360">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>62</v>
+      </c>
+      <c r="B361" t="s">
+        <v>141</v>
+      </c>
+      <c r="C361">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>64</v>
+      </c>
+      <c r="B362" t="s">
+        <v>132</v>
+      </c>
+      <c r="C362">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>64</v>
+      </c>
+      <c r="B363" t="s">
+        <v>133</v>
+      </c>
+      <c r="C363">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>64</v>
+      </c>
+      <c r="B364" t="s">
+        <v>134</v>
+      </c>
+      <c r="C364">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>64</v>
+      </c>
+      <c r="B365" t="s">
+        <v>135</v>
+      </c>
+      <c r="C365">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>64</v>
+      </c>
+      <c r="B366" t="s">
+        <v>136</v>
+      </c>
+      <c r="C366">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>64</v>
+      </c>
+      <c r="B367" t="s">
+        <v>137</v>
+      </c>
+      <c r="C367">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>64</v>
+      </c>
+      <c r="B368" t="s">
+        <v>138</v>
+      </c>
+      <c r="C368">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>64</v>
+      </c>
+      <c r="B369" t="s">
+        <v>139</v>
+      </c>
+      <c r="C369">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>64</v>
+      </c>
+      <c r="B370" t="s">
+        <v>140</v>
+      </c>
+      <c r="C370">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>64</v>
+      </c>
+      <c r="B371" t="s">
+        <v>141</v>
+      </c>
+      <c r="C371">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>66</v>
+      </c>
+      <c r="B372" t="s">
+        <v>132</v>
+      </c>
+      <c r="C372">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>66</v>
+      </c>
+      <c r="B373" t="s">
+        <v>133</v>
+      </c>
+      <c r="C373">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>66</v>
+      </c>
+      <c r="B374" t="s">
+        <v>134</v>
+      </c>
+      <c r="C374">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>66</v>
+      </c>
+      <c r="B375" t="s">
+        <v>135</v>
+      </c>
+      <c r="C375">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>66</v>
+      </c>
+      <c r="B376" t="s">
+        <v>136</v>
+      </c>
+      <c r="C376">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>66</v>
+      </c>
+      <c r="B377" t="s">
+        <v>137</v>
+      </c>
+      <c r="C377">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>66</v>
+      </c>
+      <c r="B378" t="s">
+        <v>138</v>
+      </c>
+      <c r="C378">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>66</v>
+      </c>
+      <c r="B379" t="s">
+        <v>139</v>
+      </c>
+      <c r="C379">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>66</v>
+      </c>
+      <c r="B380" t="s">
+        <v>140</v>
+      </c>
+      <c r="C380">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>66</v>
+      </c>
+      <c r="B381" t="s">
+        <v>141</v>
+      </c>
+      <c r="C381">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>68</v>
+      </c>
+      <c r="B382" t="s">
+        <v>132</v>
+      </c>
+      <c r="C382">
+        <v>35.849337501860951</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>68</v>
+      </c>
+      <c r="B383" t="s">
+        <v>133</v>
+      </c>
+      <c r="C383">
+        <v>252.79805352798053</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>68</v>
+      </c>
+      <c r="B384" t="s">
+        <v>134</v>
+      </c>
+      <c r="C384">
+        <v>24.082934609250398</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>68</v>
+      </c>
+      <c r="B385" t="s">
+        <v>135</v>
+      </c>
+      <c r="C385">
+        <v>25.040212840880539</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>68</v>
+      </c>
+      <c r="B386" t="s">
+        <v>136</v>
+      </c>
+      <c r="C386">
+        <v>11.380598438319872</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>68</v>
+      </c>
+      <c r="B387" t="s">
+        <v>137</v>
+      </c>
+      <c r="C387">
+        <v>41.56190418061756</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>68</v>
+      </c>
+      <c r="B388" t="s">
+        <v>138</v>
+      </c>
+      <c r="C388">
+        <v>47.405541561712845</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>68</v>
+      </c>
+      <c r="B389" t="s">
+        <v>139</v>
+      </c>
+      <c r="C389">
+        <v>27.736006683375102</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>68</v>
+      </c>
+      <c r="B390" t="s">
+        <v>140</v>
+      </c>
+      <c r="C390">
+        <v>9.6707208543458911</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>68</v>
+      </c>
+      <c r="B391" t="s">
+        <v>141</v>
+      </c>
+      <c r="C391">
+        <v>46.735395189003434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70A003-92E4-4A19-8968-87BE0D9EE130}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,7 +8073,7 @@
         <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4514,7 +8081,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2">_xll.BDP(B2,"NAME")</f>
@@ -4523,7 +8090,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" t="str" cm="1">
         <f t="array" ref="C3">_xll.BDP(B3,"NAME")</f>
@@ -4532,17 +8099,17 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4557,9 +8124,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4740,19 +8310,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11857787-42C7-4100-AA8A-33FA0A9EA44F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6399BF-3D73-4F3C-8A62-9BB1BBC56356}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4777,9 +8343,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6399BF-3D73-4F3C-8A62-9BB1BBC56356}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11857787-42C7-4100-AA8A-33FA0A9EA44F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>